--- a/王者喵喵/配置表（差科技-随机事件-搞事情配置表）/猫商店配置_shop.xlsx
+++ b/王者喵喵/配置表（差科技-随机事件-搞事情配置表）/猫商店配置_shop.xlsx
@@ -15,14 +15,14 @@
     <sheet name="shop" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">shop!$C$2:$J$1904</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">shop!$C$2:$J$1874</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
   <si>
     <t>id</t>
   </si>
@@ -43,23 +43,11 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>大黄猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>大灰猫</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>战士猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>海盗猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>学者猫</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -104,35 +92,7 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>女仆猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>乔巴猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>鹰眼猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>我爱猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸣人猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>自来猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹤仙猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>短笛猫</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -141,42 +101,6 @@
   </si>
   <si>
     <t>悟空猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>破坏猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>桑原猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>藏马猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>浦饭猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>幻海猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>阎王猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>仙水猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>死神猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>大虚猫</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -196,43 +120,7 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>市丸猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>碎蜂猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>背心猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>獠牙猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>童帝猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>KING猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>僵尸猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>囚犯猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>球棒猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>波罗猫</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -241,18 +129,6 @@
   </si>
   <si>
     <t>小黄猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>野人猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>天使猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>法师猫</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -268,15 +144,7 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>娜美猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>乌索猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>卓洛猫</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -308,35 +176,11 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>龟仙猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙鲁猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>界王猫</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>布欧猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>贝吉猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>赛亚猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞影猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>户愚猫</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -349,50 +193,6 @@
   </si>
   <si>
     <t>一护猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝染猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>山本猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>海王猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>吹雪猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙卷猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>杰诺猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>假面猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>音速猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑光猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>饿狼猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>埼玉猫</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -437,6 +237,86 @@
   </si>
   <si>
     <t>60000000000000</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>大黄猫</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>海盗猫</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>天使猫</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>学者猫</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>女仆猫</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>法师猫</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔巴猫</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸣人猫</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>自来猫</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹤仙猫</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>短笛猫</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙鲁猫</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝吉猫</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>超赛猫</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>野人猫</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>娜美猫</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>卓洛猫</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>我爱猫</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>龟仙猫</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>破坏猫</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -541,7 +421,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -587,6 +467,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,7 +543,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -761,6 +647,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1114,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1925"/>
+  <dimension ref="A1:J1895"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1146,16 +1038,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F2" s="16" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
@@ -1170,24 +1062,24 @@
         <v>3</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I3" s="19"/>
     </row>
     <row r="4" spans="1:10" s="6" customFormat="1">
-      <c r="A4" s="6">
+      <c r="A4" s="35">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="35" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="4">
@@ -1207,11 +1099,11 @@
       <c r="I4" s="20"/>
     </row>
     <row r="5" spans="1:10" s="6" customFormat="1">
-      <c r="A5" s="6">
+      <c r="A5" s="35">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>53</v>
+      <c r="B5" s="35" t="s">
+        <v>25</v>
       </c>
       <c r="C5" s="4">
         <v>5</v>
@@ -1230,11 +1122,11 @@
       <c r="I5" s="20"/>
     </row>
     <row r="6" spans="1:10" s="6" customFormat="1">
-      <c r="A6" s="6">
+      <c r="A6" s="35">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>54</v>
+      <c r="B6" s="35" t="s">
+        <v>26</v>
       </c>
       <c r="C6" s="4">
         <v>6</v>
@@ -1253,11 +1145,11 @@
       <c r="I6" s="20"/>
     </row>
     <row r="7" spans="1:10" s="6" customFormat="1">
-      <c r="A7" s="6">
+      <c r="A7" s="35">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>5</v>
+      <c r="B7" s="35" t="s">
+        <v>54</v>
       </c>
       <c r="C7" s="4">
         <v>7</v>
@@ -1276,11 +1168,11 @@
       <c r="I7" s="20"/>
     </row>
     <row r="8" spans="1:10" s="2" customFormat="1">
-      <c r="A8" s="6">
+      <c r="A8" s="35">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
+      <c r="B8" s="36" t="s">
+        <v>5</v>
       </c>
       <c r="C8" s="4">
         <v>8</v>
@@ -1298,11 +1190,11 @@
       <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:10" s="2" customFormat="1">
-      <c r="A9" s="6">
+      <c r="A9" s="35">
         <v>6</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
+      <c r="B9" s="36" t="s">
+        <v>6</v>
       </c>
       <c r="C9" s="4">
         <v>9</v>
@@ -1320,11 +1212,11 @@
       <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1">
-      <c r="A10" s="6">
+      <c r="A10" s="35">
         <v>7</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>55</v>
+      <c r="B10" s="36" t="s">
+        <v>68</v>
       </c>
       <c r="C10" s="4">
         <v>10</v>
@@ -1342,11 +1234,11 @@
       <c r="I10" s="21"/>
     </row>
     <row r="11" spans="1:10" s="2" customFormat="1">
-      <c r="A11" s="6">
+      <c r="A11" s="35">
         <v>8</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>8</v>
+      <c r="B11" s="36" t="s">
+        <v>55</v>
       </c>
       <c r="C11" s="4">
         <v>11</v>
@@ -1364,10 +1256,10 @@
       <c r="I11" s="21"/>
     </row>
     <row r="12" spans="1:10" s="2" customFormat="1">
-      <c r="A12" s="6">
+      <c r="A12" s="35">
         <v>9</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="36" t="s">
         <v>56</v>
       </c>
       <c r="C12" s="4">
@@ -1386,11 +1278,11 @@
       <c r="I12" s="21"/>
     </row>
     <row r="13" spans="1:10" s="2" customFormat="1">
-      <c r="A13" s="6">
+      <c r="A13" s="35">
         <v>10</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>9</v>
+      <c r="B13" s="36" t="s">
+        <v>57</v>
       </c>
       <c r="C13" s="4">
         <v>13</v>
@@ -1408,11 +1300,11 @@
       <c r="I13" s="21"/>
     </row>
     <row r="14" spans="1:10" s="2" customFormat="1">
-      <c r="A14" s="6">
+      <c r="A14" s="35">
         <v>11</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>20</v>
+      <c r="B14" s="36" t="s">
+        <v>58</v>
       </c>
       <c r="C14" s="4">
         <v>14</v>
@@ -1430,11 +1322,11 @@
       <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:10" s="2" customFormat="1">
-      <c r="A15" s="6">
+      <c r="A15" s="35">
         <v>12</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>10</v>
+      <c r="B15" s="36" t="s">
+        <v>7</v>
       </c>
       <c r="C15" s="4">
         <v>15</v>
@@ -1452,11 +1344,11 @@
       <c r="I15" s="21"/>
     </row>
     <row r="16" spans="1:10" s="2" customFormat="1">
-      <c r="A16" s="6">
+      <c r="A16" s="35">
         <v>13</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>57</v>
+      <c r="B16" s="36" t="s">
+        <v>59</v>
       </c>
       <c r="C16" s="4">
         <v>16</v>
@@ -1474,11 +1366,11 @@
       <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:9" s="2" customFormat="1">
-      <c r="A17" s="6">
+      <c r="A17" s="35">
         <v>14</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>58</v>
+      <c r="B17" s="36" t="s">
+        <v>27</v>
       </c>
       <c r="C17" s="4">
         <v>17</v>
@@ -1496,11 +1388,11 @@
       <c r="I17" s="21"/>
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1">
-      <c r="A18" s="6">
+      <c r="A18" s="35">
         <v>15</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>59</v>
+      <c r="B18" s="36" t="s">
+        <v>28</v>
       </c>
       <c r="C18" s="4">
         <v>18</v>
@@ -1518,11 +1410,11 @@
       <c r="I18" s="21"/>
     </row>
     <row r="19" spans="1:9" s="2" customFormat="1">
-      <c r="A19" s="6">
+      <c r="A19" s="35">
         <v>16</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>60</v>
+      <c r="B19" s="36" t="s">
+        <v>29</v>
       </c>
       <c r="C19" s="4">
         <v>19</v>
@@ -1544,7 +1436,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="C20" s="4">
         <v>20</v>
@@ -1566,7 +1458,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C21" s="4">
         <v>21</v>
@@ -1588,7 +1480,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C22" s="4">
         <v>22</v>
@@ -1610,7 +1502,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C23" s="4">
         <v>23</v>
@@ -1626,7 +1518,7 @@
       </c>
       <c r="G23" s="5"/>
       <c r="I23" s="21" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="2" customFormat="1">
@@ -1634,7 +1526,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="C24" s="4">
         <v>24</v>
@@ -1656,7 +1548,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C25" s="4">
         <v>25</v>
@@ -1678,7 +1570,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C26" s="4">
         <v>26</v>
@@ -1700,7 +1592,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="C27" s="4">
         <v>27</v>
@@ -1722,7 +1614,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="C28" s="4">
         <v>28</v>
@@ -1744,7 +1636,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="C29" s="4">
         <v>29</v>
@@ -1766,7 +1658,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="C30" s="4">
         <v>30</v>
@@ -1788,7 +1680,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="C31" s="4">
         <v>31</v>
@@ -1810,7 +1702,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="C32" s="4">
         <v>32</v>
@@ -1832,7 +1724,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="C33" s="4">
         <v>33</v>
@@ -1854,7 +1746,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="C34" s="4">
         <v>34</v>
@@ -1876,7 +1768,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="C35" s="4">
         <v>35</v>
@@ -1898,7 +1790,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C36" s="4">
         <v>36</v>
@@ -1920,13 +1812,13 @@
         <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C37" s="4">
         <v>37</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="E37" s="30">
         <v>0.15</v>
@@ -1942,13 +1834,13 @@
         <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C38" s="4">
         <v>38</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="E38" s="30">
         <v>0.15</v>
@@ -1964,13 +1856,13 @@
         <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="C39" s="4">
         <v>39</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="E39" s="30">
         <v>0.15</v>
@@ -1986,13 +1878,13 @@
         <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="C40" s="4">
         <v>40</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="E40" s="30">
         <v>0.15</v>
@@ -2008,13 +1900,13 @@
         <v>38</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="C41" s="4">
         <v>41</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="E41" s="30">
         <v>0.15</v>
@@ -2030,13 +1922,13 @@
         <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="C42" s="4">
         <v>42</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="E42" s="30">
         <v>0.15</v>
@@ -2052,13 +1944,13 @@
         <v>40</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="C43" s="4">
         <v>43</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="E43" s="30">
         <v>0.15</v>
@@ -2074,13 +1966,13 @@
         <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C44" s="4">
         <v>44</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E44" s="30">
         <v>0.15</v>
@@ -2096,13 +1988,13 @@
         <v>42</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="C45" s="4">
         <v>45</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="E45" s="30">
         <v>0.15</v>
@@ -2118,13 +2010,13 @@
         <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C46" s="4">
         <v>46</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="E46" s="30">
         <v>0.15</v>
@@ -2140,13 +2032,13 @@
         <v>44</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="C47" s="4">
         <v>47</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="E47" s="30">
         <v>0.15</v>
@@ -2162,13 +2054,13 @@
         <v>45</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="C48" s="4">
         <v>48</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="E48" s="30">
         <v>0.15</v>
@@ -2184,13 +2076,13 @@
         <v>46</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C49" s="4">
         <v>49</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="E49" s="30">
         <v>0.15</v>
@@ -2206,13 +2098,13 @@
         <v>47</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="C50" s="4">
         <v>50</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="E50" s="30">
         <v>0.15</v>
@@ -2228,13 +2120,13 @@
         <v>48</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="C51" s="4">
         <v>51</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="E51" s="30">
         <v>0.15</v>
@@ -2250,13 +2142,13 @@
         <v>49</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="C52" s="4">
         <v>52</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="E52" s="30">
         <v>0.15</v>
@@ -2272,13 +2164,13 @@
         <v>50</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="C53" s="4">
         <v>53</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="E53" s="30">
         <v>0.15</v>
@@ -2290,666 +2182,243 @@
       <c r="I53" s="21"/>
     </row>
     <row r="54" spans="1:9" s="2" customFormat="1">
-      <c r="A54" s="6">
-        <v>51</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C54" s="4">
-        <v>54</v>
-      </c>
-      <c r="D54" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E54" s="30">
-        <v>0.15</v>
-      </c>
-      <c r="F54" s="4">
-        <v>51</v>
-      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="6"/>
       <c r="G54" s="5"/>
       <c r="I54" s="21"/>
     </row>
     <row r="55" spans="1:9" s="2" customFormat="1">
-      <c r="A55" s="6">
-        <v>52</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C55" s="4">
-        <v>55</v>
-      </c>
-      <c r="D55" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E55" s="30">
-        <v>0.15</v>
-      </c>
-      <c r="F55" s="4">
-        <v>52</v>
-      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="6"/>
       <c r="G55" s="5"/>
       <c r="I55" s="21"/>
     </row>
     <row r="56" spans="1:9" s="2" customFormat="1">
-      <c r="A56" s="6">
-        <v>53</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C56" s="4">
-        <v>56</v>
-      </c>
-      <c r="D56" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E56" s="30">
-        <v>0.15</v>
-      </c>
-      <c r="F56" s="4">
-        <v>53</v>
-      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="6"/>
       <c r="G56" s="5"/>
       <c r="I56" s="21"/>
     </row>
     <row r="57" spans="1:9" s="2" customFormat="1">
-      <c r="A57" s="6">
-        <v>54</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C57" s="4">
-        <v>57</v>
-      </c>
-      <c r="D57" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E57" s="30">
-        <v>0.15</v>
-      </c>
-      <c r="F57" s="4">
-        <v>54</v>
-      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="6"/>
       <c r="G57" s="5"/>
       <c r="I57" s="21"/>
     </row>
-    <row r="58" spans="1:9" s="2" customFormat="1">
-      <c r="A58" s="6">
-        <v>55</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C58" s="4">
-        <v>58</v>
-      </c>
-      <c r="D58" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E58" s="30">
-        <v>0.15</v>
-      </c>
-      <c r="F58" s="4">
-        <v>55</v>
-      </c>
-      <c r="G58" s="5"/>
-      <c r="I58" s="21"/>
+    <row r="58" spans="1:9" s="11" customFormat="1">
+      <c r="D58" s="26"/>
+      <c r="F58" s="22"/>
+      <c r="I58" s="23"/>
     </row>
     <row r="59" spans="1:9" s="2" customFormat="1">
-      <c r="A59" s="6">
-        <v>56</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C59" s="4">
-        <v>59</v>
-      </c>
-      <c r="D59" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E59" s="30">
-        <v>0.15</v>
-      </c>
-      <c r="F59" s="4">
-        <v>56</v>
-      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="6"/>
       <c r="G59" s="5"/>
       <c r="I59" s="21"/>
     </row>
     <row r="60" spans="1:9" s="2" customFormat="1">
-      <c r="A60" s="6">
-        <v>57</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C60" s="4">
-        <v>60</v>
-      </c>
-      <c r="D60" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E60" s="30">
-        <v>0.15</v>
-      </c>
-      <c r="F60" s="4">
-        <v>57</v>
-      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="6"/>
       <c r="G60" s="5"/>
       <c r="I60" s="21"/>
     </row>
     <row r="61" spans="1:9" s="2" customFormat="1">
-      <c r="A61" s="6">
-        <v>58</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C61" s="4">
-        <v>61</v>
-      </c>
-      <c r="D61" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E61" s="30">
-        <v>0.15</v>
-      </c>
-      <c r="F61" s="4">
-        <v>58</v>
-      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="6"/>
       <c r="G61" s="5"/>
       <c r="I61" s="21"/>
     </row>
     <row r="62" spans="1:9" s="2" customFormat="1">
-      <c r="A62" s="6">
-        <v>59</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C62" s="4">
-        <v>62</v>
-      </c>
-      <c r="D62" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E62" s="30">
-        <v>0.15</v>
-      </c>
-      <c r="F62" s="4">
-        <v>59</v>
-      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="6"/>
       <c r="G62" s="5"/>
       <c r="I62" s="21"/>
     </row>
     <row r="63" spans="1:9" s="2" customFormat="1">
-      <c r="A63" s="6">
-        <v>60</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C63" s="4">
-        <v>63</v>
-      </c>
-      <c r="D63" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E63" s="30">
-        <v>0.15</v>
-      </c>
-      <c r="F63" s="4">
-        <v>60</v>
-      </c>
+      <c r="C63" s="5"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="6"/>
       <c r="G63" s="5"/>
       <c r="I63" s="21"/>
     </row>
     <row r="64" spans="1:9" s="2" customFormat="1">
-      <c r="A64" s="6">
-        <v>61</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C64" s="4">
-        <v>64</v>
-      </c>
-      <c r="D64" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E64" s="30">
-        <v>0.15</v>
-      </c>
-      <c r="F64" s="4">
-        <v>61</v>
-      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="6"/>
       <c r="G64" s="5"/>
       <c r="I64" s="21"/>
     </row>
-    <row r="65" spans="1:9" s="2" customFormat="1">
-      <c r="A65" s="6">
-        <v>62</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C65" s="4">
-        <v>65</v>
-      </c>
-      <c r="D65" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E65" s="30">
-        <v>0.15</v>
-      </c>
-      <c r="F65" s="4">
-        <v>62</v>
-      </c>
+    <row r="65" spans="3:9" s="2" customFormat="1">
+      <c r="C65" s="5"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="6"/>
       <c r="G65" s="5"/>
       <c r="I65" s="21"/>
     </row>
-    <row r="66" spans="1:9" s="2" customFormat="1">
-      <c r="A66" s="6">
-        <v>63</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C66" s="4">
-        <v>66</v>
-      </c>
-      <c r="D66" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E66" s="30">
-        <v>0.15</v>
-      </c>
-      <c r="F66" s="4">
-        <v>63</v>
-      </c>
+    <row r="66" spans="3:9" s="2" customFormat="1">
+      <c r="C66" s="5"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="6"/>
       <c r="G66" s="5"/>
       <c r="I66" s="21"/>
     </row>
-    <row r="67" spans="1:9" s="2" customFormat="1">
-      <c r="A67" s="6">
-        <v>64</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C67" s="4">
-        <v>67</v>
-      </c>
-      <c r="D67" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E67" s="30">
-        <v>0.15</v>
-      </c>
-      <c r="F67" s="4">
-        <v>64</v>
-      </c>
+    <row r="67" spans="3:9" s="2" customFormat="1">
+      <c r="C67" s="5"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="6"/>
       <c r="G67" s="5"/>
       <c r="I67" s="21"/>
     </row>
-    <row r="68" spans="1:9" s="2" customFormat="1">
-      <c r="A68" s="6">
-        <v>65</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C68" s="4">
-        <v>68</v>
-      </c>
-      <c r="D68" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E68" s="30">
-        <v>0.15</v>
-      </c>
-      <c r="F68" s="4">
-        <v>65</v>
-      </c>
+    <row r="68" spans="3:9" s="2" customFormat="1">
+      <c r="C68" s="5"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="6"/>
       <c r="G68" s="5"/>
       <c r="I68" s="21"/>
     </row>
-    <row r="69" spans="1:9" s="2" customFormat="1">
-      <c r="A69" s="6">
-        <v>66</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C69" s="4">
-        <v>69</v>
-      </c>
-      <c r="D69" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E69" s="30">
-        <v>0.15</v>
-      </c>
-      <c r="F69" s="4">
-        <v>66</v>
-      </c>
+    <row r="69" spans="3:9" s="2" customFormat="1">
+      <c r="C69" s="5"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="6"/>
       <c r="G69" s="5"/>
       <c r="I69" s="21"/>
     </row>
-    <row r="70" spans="1:9" s="2" customFormat="1">
-      <c r="A70" s="6">
-        <v>67</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C70" s="4">
-        <v>70</v>
-      </c>
-      <c r="D70" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E70" s="30">
-        <v>0.15</v>
-      </c>
-      <c r="F70" s="4">
-        <v>67</v>
-      </c>
+    <row r="70" spans="3:9" s="2" customFormat="1">
+      <c r="C70" s="5"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="6"/>
       <c r="G70" s="5"/>
       <c r="I70" s="21"/>
     </row>
-    <row r="71" spans="1:9" s="2" customFormat="1">
-      <c r="A71" s="6">
-        <v>68</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C71" s="4">
-        <v>71</v>
-      </c>
-      <c r="D71" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E71" s="30">
-        <v>0.15</v>
-      </c>
-      <c r="F71" s="4">
-        <v>68</v>
-      </c>
+    <row r="71" spans="3:9" s="2" customFormat="1">
+      <c r="C71" s="5"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="6"/>
       <c r="G71" s="5"/>
       <c r="I71" s="21"/>
     </row>
-    <row r="72" spans="1:9" s="2" customFormat="1">
-      <c r="A72" s="6">
-        <v>69</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C72" s="4">
-        <v>72</v>
-      </c>
-      <c r="D72" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E72" s="30">
-        <v>0.15</v>
-      </c>
-      <c r="F72" s="4">
-        <v>69</v>
-      </c>
+    <row r="72" spans="3:9" s="2" customFormat="1">
+      <c r="C72" s="5"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="6"/>
       <c r="G72" s="5"/>
       <c r="I72" s="21"/>
     </row>
-    <row r="73" spans="1:9" s="2" customFormat="1">
-      <c r="A73" s="6">
-        <v>70</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C73" s="4">
-        <v>73</v>
-      </c>
-      <c r="D73" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E73" s="30">
-        <v>0.15</v>
-      </c>
-      <c r="F73" s="4">
-        <v>70</v>
-      </c>
+    <row r="73" spans="3:9" s="2" customFormat="1">
+      <c r="C73" s="5"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="6"/>
       <c r="G73" s="5"/>
       <c r="I73" s="21"/>
     </row>
-    <row r="74" spans="1:9" s="2" customFormat="1">
-      <c r="A74" s="6">
-        <v>71</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C74" s="4">
-        <v>74</v>
-      </c>
-      <c r="D74" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E74" s="30">
-        <v>0.15</v>
-      </c>
-      <c r="F74" s="4">
-        <v>71</v>
-      </c>
+    <row r="74" spans="3:9" s="2" customFormat="1">
+      <c r="C74" s="5"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="6"/>
       <c r="G74" s="5"/>
       <c r="I74" s="21"/>
     </row>
-    <row r="75" spans="1:9" s="2" customFormat="1">
-      <c r="A75" s="6">
-        <v>72</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C75" s="4">
-        <v>75</v>
-      </c>
-      <c r="D75" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E75" s="30">
-        <v>0.15</v>
-      </c>
-      <c r="F75" s="4">
-        <v>72</v>
-      </c>
+    <row r="75" spans="3:9" s="2" customFormat="1">
+      <c r="C75" s="5"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="6"/>
       <c r="G75" s="5"/>
       <c r="I75" s="21"/>
     </row>
-    <row r="76" spans="1:9" s="2" customFormat="1">
-      <c r="A76" s="6">
-        <v>73</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C76" s="4">
-        <v>76</v>
-      </c>
-      <c r="D76" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E76" s="30">
-        <v>0.15</v>
-      </c>
-      <c r="F76" s="4">
-        <v>73</v>
-      </c>
+    <row r="76" spans="3:9" s="2" customFormat="1">
+      <c r="C76" s="5"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="6"/>
       <c r="G76" s="5"/>
       <c r="I76" s="21"/>
     </row>
-    <row r="77" spans="1:9" s="2" customFormat="1">
-      <c r="A77" s="6">
-        <v>74</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C77" s="4">
-        <v>77</v>
-      </c>
-      <c r="D77" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E77" s="30">
-        <v>0.15</v>
-      </c>
-      <c r="F77" s="4">
-        <v>74</v>
-      </c>
+    <row r="77" spans="3:9" s="2" customFormat="1">
+      <c r="C77" s="5"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="6"/>
       <c r="G77" s="5"/>
       <c r="I77" s="21"/>
     </row>
-    <row r="78" spans="1:9" s="2" customFormat="1">
-      <c r="A78" s="6">
-        <v>75</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C78" s="4">
-        <v>78</v>
-      </c>
-      <c r="D78" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E78" s="30">
-        <v>0.15</v>
-      </c>
-      <c r="F78" s="4">
-        <v>75</v>
-      </c>
+    <row r="78" spans="3:9" s="2" customFormat="1">
+      <c r="C78" s="5"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="6"/>
       <c r="G78" s="5"/>
       <c r="I78" s="21"/>
     </row>
-    <row r="79" spans="1:9" s="2" customFormat="1">
-      <c r="A79" s="6">
-        <v>76</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C79" s="4">
-        <v>79</v>
-      </c>
-      <c r="D79" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E79" s="30">
-        <v>0.15</v>
-      </c>
-      <c r="F79" s="4">
-        <v>76</v>
-      </c>
+    <row r="79" spans="3:9" s="2" customFormat="1">
+      <c r="C79" s="5"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="6"/>
       <c r="G79" s="5"/>
       <c r="I79" s="21"/>
     </row>
-    <row r="80" spans="1:9" s="2" customFormat="1">
-      <c r="A80" s="6">
-        <v>77</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C80" s="4">
-        <v>80</v>
-      </c>
-      <c r="D80" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E80" s="30">
-        <v>0.15</v>
-      </c>
-      <c r="F80" s="4">
-        <v>77</v>
-      </c>
+    <row r="80" spans="3:9" s="2" customFormat="1">
+      <c r="C80" s="5"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="6"/>
       <c r="G80" s="5"/>
       <c r="I80" s="21"/>
     </row>
-    <row r="81" spans="1:9" s="2" customFormat="1">
-      <c r="A81" s="6">
-        <v>78</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C81" s="4">
-        <v>81</v>
-      </c>
-      <c r="D81" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E81" s="30">
-        <v>0.15</v>
-      </c>
-      <c r="F81" s="4">
-        <v>78</v>
-      </c>
+    <row r="81" spans="3:9" s="2" customFormat="1">
+      <c r="C81" s="5"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="6"/>
       <c r="G81" s="5"/>
       <c r="I81" s="21"/>
     </row>
-    <row r="82" spans="1:9" s="2" customFormat="1">
-      <c r="A82" s="6">
-        <v>79</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C82" s="4">
-        <v>82</v>
-      </c>
-      <c r="D82" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E82" s="30">
-        <v>0.15</v>
-      </c>
-      <c r="F82" s="4">
-        <v>79</v>
-      </c>
+    <row r="82" spans="3:9" s="2" customFormat="1">
+      <c r="C82" s="5"/>
+      <c r="D82" s="28"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="6"/>
       <c r="G82" s="5"/>
       <c r="I82" s="21"/>
     </row>
-    <row r="83" spans="1:9" s="2" customFormat="1">
-      <c r="A83" s="6">
-        <v>80</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C83" s="4">
-        <v>83</v>
-      </c>
-      <c r="D83" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E83" s="30">
-        <v>0.15</v>
-      </c>
-      <c r="F83" s="4">
-        <v>80</v>
-      </c>
+    <row r="83" spans="3:9" s="2" customFormat="1">
+      <c r="C83" s="5"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="6"/>
       <c r="G83" s="5"/>
       <c r="I83" s="21"/>
     </row>
-    <row r="84" spans="1:9" s="2" customFormat="1">
+    <row r="84" spans="3:9" s="2" customFormat="1">
       <c r="C84" s="5"/>
       <c r="D84" s="28"/>
       <c r="E84" s="5"/>
@@ -2957,7 +2426,7 @@
       <c r="G84" s="5"/>
       <c r="I84" s="21"/>
     </row>
-    <row r="85" spans="1:9" s="2" customFormat="1">
+    <row r="85" spans="3:9" s="2" customFormat="1">
       <c r="C85" s="5"/>
       <c r="D85" s="28"/>
       <c r="E85" s="5"/>
@@ -2965,7 +2434,7 @@
       <c r="G85" s="5"/>
       <c r="I85" s="21"/>
     </row>
-    <row r="86" spans="1:9" s="2" customFormat="1">
+    <row r="86" spans="3:9" s="2" customFormat="1">
       <c r="C86" s="5"/>
       <c r="D86" s="28"/>
       <c r="E86" s="5"/>
@@ -2973,7 +2442,7 @@
       <c r="G86" s="5"/>
       <c r="I86" s="21"/>
     </row>
-    <row r="87" spans="1:9" s="2" customFormat="1">
+    <row r="87" spans="3:9" s="2" customFormat="1">
       <c r="C87" s="5"/>
       <c r="D87" s="28"/>
       <c r="E87" s="5"/>
@@ -2981,12 +2450,15 @@
       <c r="G87" s="5"/>
       <c r="I87" s="21"/>
     </row>
-    <row r="88" spans="1:9" s="11" customFormat="1">
-      <c r="D88" s="26"/>
-      <c r="F88" s="22"/>
-      <c r="I88" s="23"/>
-    </row>
-    <row r="89" spans="1:9" s="2" customFormat="1">
+    <row r="88" spans="3:9" s="2" customFormat="1">
+      <c r="C88" s="5"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="5"/>
+      <c r="I88" s="21"/>
+    </row>
+    <row r="89" spans="3:9" s="2" customFormat="1">
       <c r="C89" s="5"/>
       <c r="D89" s="28"/>
       <c r="E89" s="5"/>
@@ -2994,7 +2466,7 @@
       <c r="G89" s="5"/>
       <c r="I89" s="21"/>
     </row>
-    <row r="90" spans="1:9" s="2" customFormat="1">
+    <row r="90" spans="3:9" s="2" customFormat="1">
       <c r="C90" s="5"/>
       <c r="D90" s="28"/>
       <c r="E90" s="5"/>
@@ -3002,7 +2474,7 @@
       <c r="G90" s="5"/>
       <c r="I90" s="21"/>
     </row>
-    <row r="91" spans="1:9" s="2" customFormat="1">
+    <row r="91" spans="3:9" s="2" customFormat="1">
       <c r="C91" s="5"/>
       <c r="D91" s="28"/>
       <c r="E91" s="5"/>
@@ -3010,7 +2482,7 @@
       <c r="G91" s="5"/>
       <c r="I91" s="21"/>
     </row>
-    <row r="92" spans="1:9" s="2" customFormat="1">
+    <row r="92" spans="3:9" s="2" customFormat="1">
       <c r="C92" s="5"/>
       <c r="D92" s="28"/>
       <c r="E92" s="5"/>
@@ -3018,7 +2490,7 @@
       <c r="G92" s="5"/>
       <c r="I92" s="21"/>
     </row>
-    <row r="93" spans="1:9" s="2" customFormat="1">
+    <row r="93" spans="3:9" s="2" customFormat="1">
       <c r="C93" s="5"/>
       <c r="D93" s="28"/>
       <c r="E93" s="5"/>
@@ -3026,7 +2498,7 @@
       <c r="G93" s="5"/>
       <c r="I93" s="21"/>
     </row>
-    <row r="94" spans="1:9" s="2" customFormat="1">
+    <row r="94" spans="3:9" s="2" customFormat="1">
       <c r="C94" s="5"/>
       <c r="D94" s="28"/>
       <c r="E94" s="5"/>
@@ -3034,7 +2506,7 @@
       <c r="G94" s="5"/>
       <c r="I94" s="21"/>
     </row>
-    <row r="95" spans="1:9" s="2" customFormat="1">
+    <row r="95" spans="3:9" s="2" customFormat="1">
       <c r="C95" s="5"/>
       <c r="D95" s="28"/>
       <c r="E95" s="5"/>
@@ -3042,7 +2514,7 @@
       <c r="G95" s="5"/>
       <c r="I95" s="21"/>
     </row>
-    <row r="96" spans="1:9" s="2" customFormat="1">
+    <row r="96" spans="3:9" s="2" customFormat="1">
       <c r="C96" s="5"/>
       <c r="D96" s="28"/>
       <c r="E96" s="5"/>
@@ -4026,13 +3498,10 @@
       <c r="G218" s="5"/>
       <c r="I218" s="21"/>
     </row>
-    <row r="219" spans="3:9" s="2" customFormat="1">
-      <c r="C219" s="5"/>
-      <c r="D219" s="28"/>
-      <c r="E219" s="5"/>
-      <c r="F219" s="6"/>
-      <c r="G219" s="5"/>
-      <c r="I219" s="21"/>
+    <row r="219" spans="3:9" s="12" customFormat="1">
+      <c r="D219" s="32"/>
+      <c r="F219" s="24"/>
+      <c r="I219" s="25"/>
     </row>
     <row r="220" spans="3:9" s="2" customFormat="1">
       <c r="C220" s="5"/>
@@ -4266,10 +3735,13 @@
       <c r="G248" s="5"/>
       <c r="I248" s="21"/>
     </row>
-    <row r="249" spans="3:9" s="12" customFormat="1">
-      <c r="D249" s="32"/>
-      <c r="F249" s="24"/>
-      <c r="I249" s="25"/>
+    <row r="249" spans="3:9" s="2" customFormat="1">
+      <c r="C249" s="5"/>
+      <c r="D249" s="28"/>
+      <c r="E249" s="5"/>
+      <c r="F249" s="6"/>
+      <c r="G249" s="5"/>
+      <c r="I249" s="21"/>
     </row>
     <row r="250" spans="3:9" s="2" customFormat="1">
       <c r="C250" s="5"/>
@@ -4703,7 +4175,7 @@
       <c r="G303" s="5"/>
       <c r="I303" s="21"/>
     </row>
-    <row r="304" spans="3:9" s="2" customFormat="1">
+    <row r="304" spans="3:9" s="2" customFormat="1" ht="36.75" customHeight="1">
       <c r="C304" s="5"/>
       <c r="D304" s="28"/>
       <c r="E304" s="5"/>
@@ -4711,689 +4183,569 @@
       <c r="G304" s="5"/>
       <c r="I304" s="21"/>
     </row>
-    <row r="305" spans="3:9" s="2" customFormat="1">
-      <c r="C305" s="5"/>
-      <c r="D305" s="28"/>
-      <c r="E305" s="5"/>
+    <row r="305" spans="4:9" s="2" customFormat="1" ht="45.75" customHeight="1">
+      <c r="D305" s="7"/>
       <c r="F305" s="6"/>
-      <c r="G305" s="5"/>
       <c r="I305" s="21"/>
     </row>
-    <row r="306" spans="3:9" s="2" customFormat="1">
-      <c r="C306" s="5"/>
-      <c r="D306" s="28"/>
-      <c r="E306" s="5"/>
+    <row r="306" spans="4:9" s="2" customFormat="1" ht="33.75" customHeight="1">
+      <c r="D306" s="7"/>
       <c r="F306" s="6"/>
-      <c r="G306" s="5"/>
       <c r="I306" s="21"/>
     </row>
-    <row r="307" spans="3:9" s="2" customFormat="1">
-      <c r="C307" s="5"/>
-      <c r="D307" s="28"/>
-      <c r="E307" s="5"/>
+    <row r="307" spans="4:9" s="2" customFormat="1" ht="46.5" customHeight="1">
+      <c r="D307" s="7"/>
       <c r="F307" s="6"/>
-      <c r="G307" s="5"/>
       <c r="I307" s="21"/>
     </row>
-    <row r="308" spans="3:9" s="2" customFormat="1">
-      <c r="C308" s="5"/>
-      <c r="D308" s="28"/>
-      <c r="E308" s="5"/>
+    <row r="308" spans="4:9" s="2" customFormat="1" ht="43.5" customHeight="1">
+      <c r="D308" s="7"/>
       <c r="F308" s="6"/>
-      <c r="G308" s="5"/>
       <c r="I308" s="21"/>
     </row>
-    <row r="309" spans="3:9" s="2" customFormat="1">
-      <c r="C309" s="5"/>
-      <c r="D309" s="28"/>
-      <c r="E309" s="5"/>
+    <row r="309" spans="4:9" s="2" customFormat="1" ht="36.75" customHeight="1">
+      <c r="D309" s="7"/>
       <c r="F309" s="6"/>
-      <c r="G309" s="5"/>
       <c r="I309" s="21"/>
     </row>
-    <row r="310" spans="3:9" s="2" customFormat="1">
-      <c r="C310" s="5"/>
-      <c r="D310" s="28"/>
-      <c r="E310" s="5"/>
+    <row r="310" spans="4:9" s="2" customFormat="1" ht="36.75" customHeight="1">
+      <c r="D310" s="7"/>
       <c r="F310" s="6"/>
-      <c r="G310" s="5"/>
       <c r="I310" s="21"/>
     </row>
-    <row r="311" spans="3:9" s="2" customFormat="1">
-      <c r="C311" s="5"/>
-      <c r="D311" s="28"/>
-      <c r="E311" s="5"/>
+    <row r="311" spans="4:9" s="2" customFormat="1" ht="45.75" customHeight="1">
+      <c r="D311" s="7"/>
       <c r="F311" s="6"/>
-      <c r="G311" s="5"/>
       <c r="I311" s="21"/>
     </row>
-    <row r="312" spans="3:9" s="2" customFormat="1">
-      <c r="C312" s="5"/>
-      <c r="D312" s="28"/>
-      <c r="E312" s="5"/>
+    <row r="312" spans="4:9" s="2" customFormat="1" ht="45.75" customHeight="1">
+      <c r="D312" s="7"/>
       <c r="F312" s="6"/>
-      <c r="G312" s="5"/>
       <c r="I312" s="21"/>
     </row>
-    <row r="313" spans="3:9" s="2" customFormat="1">
-      <c r="C313" s="5"/>
-      <c r="D313" s="28"/>
-      <c r="E313" s="5"/>
+    <row r="313" spans="4:9" s="2" customFormat="1" ht="46.5" customHeight="1">
+      <c r="D313" s="7"/>
       <c r="F313" s="6"/>
-      <c r="G313" s="5"/>
       <c r="I313" s="21"/>
     </row>
-    <row r="314" spans="3:9" s="2" customFormat="1">
-      <c r="C314" s="5"/>
-      <c r="D314" s="28"/>
-      <c r="E314" s="5"/>
+    <row r="314" spans="4:9" s="2" customFormat="1" ht="47.25" customHeight="1">
+      <c r="D314" s="7"/>
       <c r="F314" s="6"/>
-      <c r="G314" s="5"/>
       <c r="I314" s="21"/>
     </row>
-    <row r="315" spans="3:9" s="2" customFormat="1">
-      <c r="C315" s="5"/>
-      <c r="D315" s="28"/>
-      <c r="E315" s="5"/>
+    <row r="315" spans="4:9" s="2" customFormat="1" ht="45" customHeight="1">
+      <c r="D315" s="7"/>
       <c r="F315" s="6"/>
-      <c r="G315" s="5"/>
       <c r="I315" s="21"/>
     </row>
-    <row r="316" spans="3:9" s="2" customFormat="1">
-      <c r="C316" s="5"/>
-      <c r="D316" s="28"/>
-      <c r="E316" s="5"/>
+    <row r="316" spans="4:9" s="2" customFormat="1" ht="42" customHeight="1">
+      <c r="D316" s="7"/>
       <c r="F316" s="6"/>
-      <c r="G316" s="5"/>
       <c r="I316" s="21"/>
     </row>
-    <row r="317" spans="3:9" s="2" customFormat="1">
-      <c r="C317" s="5"/>
-      <c r="D317" s="28"/>
-      <c r="E317" s="5"/>
+    <row r="317" spans="4:9" s="2" customFormat="1" ht="42.75" customHeight="1">
+      <c r="D317" s="7"/>
       <c r="F317" s="6"/>
-      <c r="G317" s="5"/>
       <c r="I317" s="21"/>
     </row>
-    <row r="318" spans="3:9" s="2" customFormat="1">
-      <c r="C318" s="5"/>
-      <c r="D318" s="28"/>
-      <c r="E318" s="5"/>
+    <row r="318" spans="4:9" s="2" customFormat="1" ht="44.25" customHeight="1">
+      <c r="D318" s="7"/>
       <c r="F318" s="6"/>
-      <c r="G318" s="5"/>
       <c r="I318" s="21"/>
     </row>
-    <row r="319" spans="3:9" s="2" customFormat="1">
-      <c r="C319" s="5"/>
-      <c r="D319" s="28"/>
-      <c r="E319" s="5"/>
+    <row r="319" spans="4:9" s="2" customFormat="1" ht="56.25" customHeight="1">
+      <c r="D319" s="7"/>
       <c r="F319" s="6"/>
-      <c r="G319" s="5"/>
       <c r="I319" s="21"/>
     </row>
-    <row r="320" spans="3:9" s="2" customFormat="1">
-      <c r="C320" s="5"/>
-      <c r="D320" s="28"/>
-      <c r="E320" s="5"/>
+    <row r="320" spans="4:9" s="2" customFormat="1" ht="55.5" customHeight="1">
+      <c r="D320" s="7"/>
       <c r="F320" s="6"/>
-      <c r="G320" s="5"/>
       <c r="I320" s="21"/>
     </row>
-    <row r="321" spans="3:9" s="2" customFormat="1">
-      <c r="C321" s="5"/>
-      <c r="D321" s="28"/>
-      <c r="E321" s="5"/>
+    <row r="321" spans="4:9" s="2" customFormat="1" ht="40.5" customHeight="1">
+      <c r="D321" s="7"/>
       <c r="F321" s="6"/>
-      <c r="G321" s="5"/>
       <c r="I321" s="21"/>
     </row>
-    <row r="322" spans="3:9" s="2" customFormat="1">
-      <c r="C322" s="5"/>
-      <c r="D322" s="28"/>
-      <c r="E322" s="5"/>
+    <row r="322" spans="4:9" s="2" customFormat="1" ht="48.75" customHeight="1">
+      <c r="D322" s="7"/>
       <c r="F322" s="6"/>
-      <c r="G322" s="5"/>
       <c r="I322" s="21"/>
     </row>
-    <row r="323" spans="3:9" s="2" customFormat="1">
-      <c r="C323" s="5"/>
-      <c r="D323" s="28"/>
-      <c r="E323" s="5"/>
+    <row r="323" spans="4:9" s="2" customFormat="1" ht="53.25" customHeight="1">
+      <c r="D323" s="7"/>
       <c r="F323" s="6"/>
-      <c r="G323" s="5"/>
       <c r="I323" s="21"/>
     </row>
-    <row r="324" spans="3:9" s="2" customFormat="1">
-      <c r="C324" s="5"/>
-      <c r="D324" s="28"/>
-      <c r="E324" s="5"/>
+    <row r="324" spans="4:9" s="2" customFormat="1" ht="51.75" customHeight="1">
+      <c r="D324" s="7"/>
       <c r="F324" s="6"/>
-      <c r="G324" s="5"/>
       <c r="I324" s="21"/>
     </row>
-    <row r="325" spans="3:9" s="2" customFormat="1">
-      <c r="C325" s="5"/>
-      <c r="D325" s="28"/>
-      <c r="E325" s="5"/>
+    <row r="325" spans="4:9" s="2" customFormat="1" ht="57.75" customHeight="1">
+      <c r="D325" s="7"/>
       <c r="F325" s="6"/>
-      <c r="G325" s="5"/>
       <c r="I325" s="21"/>
     </row>
-    <row r="326" spans="3:9" s="2" customFormat="1">
-      <c r="C326" s="5"/>
-      <c r="D326" s="28"/>
-      <c r="E326" s="5"/>
+    <row r="326" spans="4:9" s="2" customFormat="1" ht="59.25" customHeight="1">
+      <c r="D326" s="7"/>
       <c r="F326" s="6"/>
-      <c r="G326" s="5"/>
       <c r="I326" s="21"/>
     </row>
-    <row r="327" spans="3:9" s="2" customFormat="1">
-      <c r="C327" s="5"/>
-      <c r="D327" s="28"/>
-      <c r="E327" s="5"/>
+    <row r="327" spans="4:9" s="2" customFormat="1" ht="57.75" customHeight="1">
+      <c r="D327" s="7"/>
       <c r="F327" s="6"/>
-      <c r="G327" s="5"/>
       <c r="I327" s="21"/>
     </row>
-    <row r="328" spans="3:9" s="2" customFormat="1">
-      <c r="C328" s="5"/>
-      <c r="D328" s="28"/>
-      <c r="E328" s="5"/>
+    <row r="328" spans="4:9" s="2" customFormat="1" ht="57.75" customHeight="1">
+      <c r="D328" s="7"/>
       <c r="F328" s="6"/>
-      <c r="G328" s="5"/>
       <c r="I328" s="21"/>
     </row>
-    <row r="329" spans="3:9" s="2" customFormat="1">
-      <c r="C329" s="5"/>
-      <c r="D329" s="28"/>
-      <c r="E329" s="5"/>
+    <row r="329" spans="4:9" s="2" customFormat="1" ht="51.75" customHeight="1">
+      <c r="D329" s="7"/>
       <c r="F329" s="6"/>
-      <c r="G329" s="5"/>
       <c r="I329" s="21"/>
     </row>
-    <row r="330" spans="3:9" s="2" customFormat="1">
-      <c r="C330" s="5"/>
-      <c r="D330" s="28"/>
-      <c r="E330" s="5"/>
+    <row r="330" spans="4:9" s="2" customFormat="1" ht="57" customHeight="1">
+      <c r="D330" s="7"/>
       <c r="F330" s="6"/>
-      <c r="G330" s="5"/>
       <c r="I330" s="21"/>
     </row>
-    <row r="331" spans="3:9" s="2" customFormat="1">
-      <c r="C331" s="5"/>
-      <c r="D331" s="28"/>
-      <c r="E331" s="5"/>
+    <row r="331" spans="4:9" s="2" customFormat="1" ht="57.75" customHeight="1">
+      <c r="D331" s="7"/>
       <c r="F331" s="6"/>
-      <c r="G331" s="5"/>
       <c r="I331" s="21"/>
     </row>
-    <row r="332" spans="3:9" s="2" customFormat="1">
-      <c r="C332" s="5"/>
-      <c r="D332" s="28"/>
-      <c r="E332" s="5"/>
+    <row r="332" spans="4:9" s="2" customFormat="1" ht="57.75" customHeight="1">
+      <c r="D332" s="7"/>
       <c r="F332" s="6"/>
-      <c r="G332" s="5"/>
       <c r="I332" s="21"/>
     </row>
-    <row r="333" spans="3:9" s="2" customFormat="1">
-      <c r="C333" s="5"/>
-      <c r="D333" s="28"/>
-      <c r="E333" s="5"/>
+    <row r="333" spans="4:9" s="2" customFormat="1" ht="69.75" customHeight="1">
+      <c r="D333" s="7"/>
       <c r="F333" s="6"/>
-      <c r="G333" s="5"/>
       <c r="I333" s="21"/>
     </row>
-    <row r="334" spans="3:9" s="2" customFormat="1" ht="36.75" customHeight="1">
-      <c r="C334" s="5"/>
-      <c r="D334" s="28"/>
-      <c r="E334" s="5"/>
+    <row r="334" spans="4:9" s="2" customFormat="1" ht="45" customHeight="1">
+      <c r="D334" s="7"/>
       <c r="F334" s="6"/>
-      <c r="G334" s="5"/>
       <c r="I334" s="21"/>
     </row>
-    <row r="335" spans="3:9" s="2" customFormat="1" ht="45.75" customHeight="1">
+    <row r="335" spans="4:9" s="2" customFormat="1" ht="47.25" customHeight="1">
       <c r="D335" s="7"/>
       <c r="F335" s="6"/>
       <c r="I335" s="21"/>
     </row>
-    <row r="336" spans="3:9" s="2" customFormat="1" ht="33.75" customHeight="1">
+    <row r="336" spans="4:9" s="2" customFormat="1" ht="44.25" customHeight="1">
       <c r="D336" s="7"/>
       <c r="F336" s="6"/>
       <c r="I336" s="21"/>
     </row>
-    <row r="337" spans="4:9" s="2" customFormat="1" ht="46.5" customHeight="1">
+    <row r="337" spans="3:9" s="2" customFormat="1" ht="45" customHeight="1">
       <c r="D337" s="7"/>
       <c r="F337" s="6"/>
       <c r="I337" s="21"/>
     </row>
-    <row r="338" spans="4:9" s="2" customFormat="1" ht="43.5" customHeight="1">
+    <row r="338" spans="3:9" s="2" customFormat="1" ht="45" customHeight="1">
       <c r="D338" s="7"/>
       <c r="F338" s="6"/>
       <c r="I338" s="21"/>
     </row>
-    <row r="339" spans="4:9" s="2" customFormat="1" ht="36.75" customHeight="1">
+    <row r="339" spans="3:9" s="2" customFormat="1" ht="49.5" customHeight="1">
       <c r="D339" s="7"/>
       <c r="F339" s="6"/>
       <c r="I339" s="21"/>
     </row>
-    <row r="340" spans="4:9" s="2" customFormat="1" ht="36.75" customHeight="1">
+    <row r="340" spans="3:9" s="2" customFormat="1" ht="42" customHeight="1">
       <c r="D340" s="7"/>
       <c r="F340" s="6"/>
       <c r="I340" s="21"/>
     </row>
-    <row r="341" spans="4:9" s="2" customFormat="1" ht="45.75" customHeight="1">
+    <row r="341" spans="3:9" s="2" customFormat="1" ht="47.25" customHeight="1">
       <c r="D341" s="7"/>
       <c r="F341" s="6"/>
       <c r="I341" s="21"/>
     </row>
-    <row r="342" spans="4:9" s="2" customFormat="1" ht="45.75" customHeight="1">
+    <row r="342" spans="3:9" s="2" customFormat="1" ht="49.5" customHeight="1">
       <c r="D342" s="7"/>
       <c r="F342" s="6"/>
       <c r="I342" s="21"/>
     </row>
-    <row r="343" spans="4:9" s="2" customFormat="1" ht="46.5" customHeight="1">
+    <row r="343" spans="3:9" s="2" customFormat="1" ht="45.75" customHeight="1">
       <c r="D343" s="7"/>
       <c r="F343" s="6"/>
       <c r="I343" s="21"/>
     </row>
-    <row r="344" spans="4:9" s="2" customFormat="1" ht="47.25" customHeight="1">
+    <row r="344" spans="3:9" s="2" customFormat="1" ht="39.75" customHeight="1">
       <c r="D344" s="7"/>
       <c r="F344" s="6"/>
       <c r="I344" s="21"/>
     </row>
-    <row r="345" spans="4:9" s="2" customFormat="1" ht="45" customHeight="1">
+    <row r="345" spans="3:9" s="2" customFormat="1" ht="39.75" customHeight="1">
       <c r="D345" s="7"/>
       <c r="F345" s="6"/>
       <c r="I345" s="21"/>
     </row>
-    <row r="346" spans="4:9" s="2" customFormat="1" ht="42" customHeight="1">
-      <c r="D346" s="7"/>
+    <row r="346" spans="3:9" s="2" customFormat="1">
+      <c r="C346" s="5"/>
+      <c r="D346" s="28"/>
+      <c r="E346" s="5"/>
       <c r="F346" s="6"/>
+      <c r="G346" s="5"/>
+      <c r="H346" s="3"/>
       <c r="I346" s="21"/>
     </row>
-    <row r="347" spans="4:9" s="2" customFormat="1" ht="42.75" customHeight="1">
-      <c r="D347" s="7"/>
+    <row r="347" spans="3:9" s="2" customFormat="1">
+      <c r="C347" s="5"/>
+      <c r="D347" s="28"/>
+      <c r="E347" s="5"/>
       <c r="F347" s="6"/>
+      <c r="G347" s="5"/>
+      <c r="H347" s="3"/>
       <c r="I347" s="21"/>
     </row>
-    <row r="348" spans="4:9" s="2" customFormat="1" ht="44.25" customHeight="1">
-      <c r="D348" s="7"/>
+    <row r="348" spans="3:9" s="2" customFormat="1">
+      <c r="C348" s="5"/>
+      <c r="D348" s="28"/>
+      <c r="E348" s="5"/>
       <c r="F348" s="6"/>
+      <c r="G348" s="5"/>
+      <c r="H348" s="3"/>
       <c r="I348" s="21"/>
     </row>
-    <row r="349" spans="4:9" s="2" customFormat="1" ht="56.25" customHeight="1">
-      <c r="D349" s="7"/>
+    <row r="349" spans="3:9" s="2" customFormat="1">
+      <c r="C349" s="5"/>
+      <c r="D349" s="28"/>
+      <c r="E349" s="5"/>
       <c r="F349" s="6"/>
+      <c r="G349" s="5"/>
+      <c r="H349" s="3"/>
       <c r="I349" s="21"/>
     </row>
-    <row r="350" spans="4:9" s="2" customFormat="1" ht="55.5" customHeight="1">
-      <c r="D350" s="7"/>
+    <row r="350" spans="3:9" s="2" customFormat="1">
+      <c r="C350" s="5"/>
+      <c r="D350" s="28"/>
+      <c r="E350" s="5"/>
       <c r="F350" s="6"/>
+      <c r="G350" s="5"/>
+      <c r="H350" s="3"/>
       <c r="I350" s="21"/>
     </row>
-    <row r="351" spans="4:9" s="2" customFormat="1" ht="40.5" customHeight="1">
-      <c r="D351" s="7"/>
+    <row r="351" spans="3:9" s="2" customFormat="1">
+      <c r="C351" s="5"/>
+      <c r="D351" s="28"/>
+      <c r="E351" s="5"/>
       <c r="F351" s="6"/>
+      <c r="G351" s="5"/>
+      <c r="H351" s="3"/>
       <c r="I351" s="21"/>
     </row>
-    <row r="352" spans="4:9" s="2" customFormat="1" ht="48.75" customHeight="1">
-      <c r="D352" s="7"/>
+    <row r="352" spans="3:9" s="2" customFormat="1">
+      <c r="C352" s="5"/>
+      <c r="D352" s="28"/>
+      <c r="E352" s="5"/>
       <c r="F352" s="6"/>
+      <c r="G352" s="5"/>
+      <c r="H352" s="3"/>
       <c r="I352" s="21"/>
     </row>
-    <row r="353" spans="4:9" s="2" customFormat="1" ht="53.25" customHeight="1">
-      <c r="D353" s="7"/>
+    <row r="353" spans="3:9" s="2" customFormat="1">
+      <c r="C353" s="5"/>
+      <c r="D353" s="28"/>
+      <c r="E353" s="5"/>
       <c r="F353" s="6"/>
+      <c r="G353" s="5"/>
+      <c r="H353" s="3"/>
       <c r="I353" s="21"/>
     </row>
-    <row r="354" spans="4:9" s="2" customFormat="1" ht="51.75" customHeight="1">
-      <c r="D354" s="7"/>
+    <row r="354" spans="3:9" s="2" customFormat="1">
+      <c r="C354" s="5"/>
+      <c r="D354" s="28"/>
+      <c r="E354" s="5"/>
       <c r="F354" s="6"/>
+      <c r="G354" s="5"/>
+      <c r="H354" s="3"/>
       <c r="I354" s="21"/>
     </row>
-    <row r="355" spans="4:9" s="2" customFormat="1" ht="57.75" customHeight="1">
-      <c r="D355" s="7"/>
+    <row r="355" spans="3:9" s="2" customFormat="1">
+      <c r="C355" s="5"/>
+      <c r="D355" s="28"/>
+      <c r="E355" s="5"/>
       <c r="F355" s="6"/>
+      <c r="G355" s="5"/>
+      <c r="H355" s="3"/>
       <c r="I355" s="21"/>
     </row>
-    <row r="356" spans="4:9" s="2" customFormat="1" ht="59.25" customHeight="1">
-      <c r="D356" s="7"/>
+    <row r="356" spans="3:9" s="2" customFormat="1">
+      <c r="C356" s="5"/>
+      <c r="D356" s="28"/>
+      <c r="E356" s="5"/>
       <c r="F356" s="6"/>
+      <c r="G356" s="5"/>
+      <c r="H356" s="3"/>
       <c r="I356" s="21"/>
     </row>
-    <row r="357" spans="4:9" s="2" customFormat="1" ht="57.75" customHeight="1">
-      <c r="D357" s="7"/>
+    <row r="357" spans="3:9" s="2" customFormat="1">
+      <c r="C357" s="5"/>
+      <c r="D357" s="28"/>
+      <c r="E357" s="5"/>
       <c r="F357" s="6"/>
+      <c r="G357" s="5"/>
+      <c r="H357" s="3"/>
       <c r="I357" s="21"/>
     </row>
-    <row r="358" spans="4:9" s="2" customFormat="1" ht="57.75" customHeight="1">
-      <c r="D358" s="7"/>
+    <row r="358" spans="3:9" s="2" customFormat="1">
+      <c r="C358" s="5"/>
+      <c r="D358" s="28"/>
+      <c r="E358" s="5"/>
       <c r="F358" s="6"/>
+      <c r="G358" s="5"/>
+      <c r="H358" s="3"/>
       <c r="I358" s="21"/>
     </row>
-    <row r="359" spans="4:9" s="2" customFormat="1" ht="51.75" customHeight="1">
-      <c r="D359" s="7"/>
+    <row r="359" spans="3:9" s="2" customFormat="1">
+      <c r="C359" s="5"/>
+      <c r="D359" s="28"/>
+      <c r="E359" s="5"/>
       <c r="F359" s="6"/>
+      <c r="G359" s="5"/>
       <c r="I359" s="21"/>
     </row>
-    <row r="360" spans="4:9" s="2" customFormat="1" ht="57" customHeight="1">
+    <row r="360" spans="3:9" s="2" customFormat="1">
       <c r="D360" s="7"/>
-      <c r="F360" s="6"/>
-      <c r="I360" s="21"/>
-    </row>
-    <row r="361" spans="4:9" s="2" customFormat="1" ht="57.75" customHeight="1">
+      <c r="F360" s="4"/>
+      <c r="I360" s="7"/>
+    </row>
+    <row r="361" spans="3:9" s="2" customFormat="1">
       <c r="D361" s="7"/>
-      <c r="F361" s="6"/>
-      <c r="I361" s="21"/>
-    </row>
-    <row r="362" spans="4:9" s="2" customFormat="1" ht="57.75" customHeight="1">
+      <c r="F361" s="4"/>
+      <c r="I361" s="7"/>
+    </row>
+    <row r="362" spans="3:9" s="2" customFormat="1">
       <c r="D362" s="7"/>
-      <c r="F362" s="6"/>
-      <c r="I362" s="21"/>
-    </row>
-    <row r="363" spans="4:9" s="2" customFormat="1" ht="69.75" customHeight="1">
+      <c r="F362" s="4"/>
+      <c r="I362" s="7"/>
+    </row>
+    <row r="363" spans="3:9" s="2" customFormat="1">
       <c r="D363" s="7"/>
-      <c r="F363" s="6"/>
-      <c r="I363" s="21"/>
-    </row>
-    <row r="364" spans="4:9" s="2" customFormat="1" ht="45" customHeight="1">
+      <c r="F363" s="4"/>
+      <c r="I363" s="7"/>
+    </row>
+    <row r="364" spans="3:9" s="2" customFormat="1">
       <c r="D364" s="7"/>
-      <c r="F364" s="6"/>
-      <c r="I364" s="21"/>
-    </row>
-    <row r="365" spans="4:9" s="2" customFormat="1" ht="47.25" customHeight="1">
+      <c r="F364" s="4"/>
+      <c r="I364" s="7"/>
+    </row>
+    <row r="365" spans="3:9" s="2" customFormat="1">
       <c r="D365" s="7"/>
       <c r="F365" s="6"/>
-      <c r="I365" s="21"/>
-    </row>
-    <row r="366" spans="4:9" s="2" customFormat="1" ht="44.25" customHeight="1">
+      <c r="I365" s="7"/>
+    </row>
+    <row r="366" spans="3:9" s="2" customFormat="1">
       <c r="D366" s="7"/>
       <c r="F366" s="6"/>
-      <c r="I366" s="21"/>
-    </row>
-    <row r="367" spans="4:9" s="2" customFormat="1" ht="45" customHeight="1">
+      <c r="I366" s="7"/>
+    </row>
+    <row r="367" spans="3:9" s="2" customFormat="1">
       <c r="D367" s="7"/>
       <c r="F367" s="6"/>
-      <c r="I367" s="21"/>
-    </row>
-    <row r="368" spans="4:9" s="2" customFormat="1" ht="45" customHeight="1">
+      <c r="I367" s="7"/>
+    </row>
+    <row r="368" spans="3:9" s="2" customFormat="1">
       <c r="D368" s="7"/>
       <c r="F368" s="6"/>
-      <c r="I368" s="21"/>
-    </row>
-    <row r="369" spans="3:9" s="2" customFormat="1" ht="49.5" customHeight="1">
+      <c r="I368" s="7"/>
+    </row>
+    <row r="369" spans="4:9" s="2" customFormat="1">
       <c r="D369" s="7"/>
       <c r="F369" s="6"/>
-      <c r="I369" s="21"/>
-    </row>
-    <row r="370" spans="3:9" s="2" customFormat="1" ht="42" customHeight="1">
+      <c r="I369" s="7"/>
+    </row>
+    <row r="370" spans="4:9" s="2" customFormat="1">
       <c r="D370" s="7"/>
       <c r="F370" s="6"/>
-      <c r="I370" s="21"/>
-    </row>
-    <row r="371" spans="3:9" s="2" customFormat="1" ht="47.25" customHeight="1">
+      <c r="I370" s="7"/>
+    </row>
+    <row r="371" spans="4:9" s="2" customFormat="1">
       <c r="D371" s="7"/>
       <c r="F371" s="6"/>
-      <c r="I371" s="21"/>
-    </row>
-    <row r="372" spans="3:9" s="2" customFormat="1" ht="49.5" customHeight="1">
+      <c r="I371" s="7"/>
+    </row>
+    <row r="372" spans="4:9" s="2" customFormat="1">
       <c r="D372" s="7"/>
       <c r="F372" s="6"/>
-      <c r="I372" s="21"/>
-    </row>
-    <row r="373" spans="3:9" s="2" customFormat="1" ht="45.75" customHeight="1">
+      <c r="I372" s="7"/>
+    </row>
+    <row r="373" spans="4:9" s="2" customFormat="1">
       <c r="D373" s="7"/>
       <c r="F373" s="6"/>
-      <c r="I373" s="21"/>
-    </row>
-    <row r="374" spans="3:9" s="2" customFormat="1" ht="39.75" customHeight="1">
+      <c r="I373" s="7"/>
+    </row>
+    <row r="374" spans="4:9" s="2" customFormat="1">
       <c r="D374" s="7"/>
       <c r="F374" s="6"/>
-      <c r="I374" s="21"/>
-    </row>
-    <row r="375" spans="3:9" s="2" customFormat="1" ht="39.75" customHeight="1">
+      <c r="I374" s="7"/>
+    </row>
+    <row r="375" spans="4:9" s="2" customFormat="1">
       <c r="D375" s="7"/>
       <c r="F375" s="6"/>
-      <c r="I375" s="21"/>
-    </row>
-    <row r="376" spans="3:9" s="2" customFormat="1">
-      <c r="C376" s="5"/>
-      <c r="D376" s="28"/>
-      <c r="E376" s="5"/>
+      <c r="I375" s="7"/>
+    </row>
+    <row r="376" spans="4:9" s="2" customFormat="1">
+      <c r="D376" s="7"/>
       <c r="F376" s="6"/>
-      <c r="G376" s="5"/>
-      <c r="H376" s="3"/>
-      <c r="I376" s="21"/>
-    </row>
-    <row r="377" spans="3:9" s="2" customFormat="1">
-      <c r="C377" s="5"/>
-      <c r="D377" s="28"/>
-      <c r="E377" s="5"/>
+      <c r="I376" s="7"/>
+    </row>
+    <row r="377" spans="4:9" s="2" customFormat="1">
+      <c r="D377" s="7"/>
       <c r="F377" s="6"/>
-      <c r="G377" s="5"/>
-      <c r="H377" s="3"/>
-      <c r="I377" s="21"/>
-    </row>
-    <row r="378" spans="3:9" s="2" customFormat="1">
-      <c r="C378" s="5"/>
-      <c r="D378" s="28"/>
-      <c r="E378" s="5"/>
+      <c r="I377" s="7"/>
+    </row>
+    <row r="378" spans="4:9" s="2" customFormat="1">
+      <c r="D378" s="7"/>
       <c r="F378" s="6"/>
-      <c r="G378" s="5"/>
-      <c r="H378" s="3"/>
-      <c r="I378" s="21"/>
-    </row>
-    <row r="379" spans="3:9" s="2" customFormat="1">
-      <c r="C379" s="5"/>
-      <c r="D379" s="28"/>
-      <c r="E379" s="5"/>
+      <c r="I378" s="7"/>
+    </row>
+    <row r="379" spans="4:9" s="2" customFormat="1">
+      <c r="D379" s="7"/>
       <c r="F379" s="6"/>
-      <c r="G379" s="5"/>
-      <c r="H379" s="3"/>
-      <c r="I379" s="21"/>
-    </row>
-    <row r="380" spans="3:9" s="2" customFormat="1">
-      <c r="C380" s="5"/>
-      <c r="D380" s="28"/>
-      <c r="E380" s="5"/>
+      <c r="I379" s="7"/>
+    </row>
+    <row r="380" spans="4:9" s="2" customFormat="1">
+      <c r="D380" s="7"/>
       <c r="F380" s="6"/>
-      <c r="G380" s="5"/>
-      <c r="H380" s="3"/>
-      <c r="I380" s="21"/>
-    </row>
-    <row r="381" spans="3:9" s="2" customFormat="1">
-      <c r="C381" s="5"/>
-      <c r="D381" s="28"/>
-      <c r="E381" s="5"/>
+      <c r="I380" s="7"/>
+    </row>
+    <row r="381" spans="4:9" s="2" customFormat="1">
+      <c r="D381" s="7"/>
       <c r="F381" s="6"/>
-      <c r="G381" s="5"/>
-      <c r="H381" s="3"/>
-      <c r="I381" s="21"/>
-    </row>
-    <row r="382" spans="3:9" s="2" customFormat="1">
-      <c r="C382" s="5"/>
-      <c r="D382" s="28"/>
-      <c r="E382" s="5"/>
+      <c r="I381" s="7"/>
+    </row>
+    <row r="382" spans="4:9" s="2" customFormat="1">
+      <c r="D382" s="7"/>
       <c r="F382" s="6"/>
-      <c r="G382" s="5"/>
-      <c r="H382" s="3"/>
-      <c r="I382" s="21"/>
-    </row>
-    <row r="383" spans="3:9" s="2" customFormat="1">
-      <c r="C383" s="5"/>
-      <c r="D383" s="28"/>
-      <c r="E383" s="5"/>
-      <c r="F383" s="6"/>
-      <c r="G383" s="5"/>
-      <c r="H383" s="3"/>
-      <c r="I383" s="21"/>
-    </row>
-    <row r="384" spans="3:9" s="2" customFormat="1">
-      <c r="C384" s="5"/>
-      <c r="D384" s="28"/>
-      <c r="E384" s="5"/>
-      <c r="F384" s="6"/>
-      <c r="G384" s="5"/>
-      <c r="H384" s="3"/>
-      <c r="I384" s="21"/>
-    </row>
-    <row r="385" spans="3:9" s="2" customFormat="1">
-      <c r="C385" s="5"/>
-      <c r="D385" s="28"/>
-      <c r="E385" s="5"/>
-      <c r="F385" s="6"/>
-      <c r="G385" s="5"/>
-      <c r="H385" s="3"/>
-      <c r="I385" s="21"/>
-    </row>
-    <row r="386" spans="3:9" s="2" customFormat="1">
-      <c r="C386" s="5"/>
-      <c r="D386" s="28"/>
-      <c r="E386" s="5"/>
-      <c r="F386" s="6"/>
-      <c r="G386" s="5"/>
-      <c r="H386" s="3"/>
-      <c r="I386" s="21"/>
-    </row>
-    <row r="387" spans="3:9" s="2" customFormat="1">
-      <c r="C387" s="5"/>
-      <c r="D387" s="28"/>
-      <c r="E387" s="5"/>
-      <c r="F387" s="6"/>
-      <c r="G387" s="5"/>
-      <c r="H387" s="3"/>
-      <c r="I387" s="21"/>
-    </row>
-    <row r="388" spans="3:9" s="2" customFormat="1">
-      <c r="C388" s="5"/>
-      <c r="D388" s="28"/>
-      <c r="E388" s="5"/>
-      <c r="F388" s="6"/>
-      <c r="G388" s="5"/>
-      <c r="H388" s="3"/>
-      <c r="I388" s="21"/>
-    </row>
-    <row r="389" spans="3:9" s="2" customFormat="1">
-      <c r="C389" s="5"/>
-      <c r="D389" s="28"/>
-      <c r="E389" s="5"/>
-      <c r="F389" s="6"/>
-      <c r="G389" s="5"/>
-      <c r="I389" s="21"/>
-    </row>
-    <row r="390" spans="3:9" s="2" customFormat="1">
+      <c r="I382" s="7"/>
+    </row>
+    <row r="383" spans="4:9" s="2" customFormat="1">
+      <c r="D383" s="7"/>
+      <c r="I383" s="7"/>
+    </row>
+    <row r="384" spans="4:9" s="2" customFormat="1">
+      <c r="D384" s="7"/>
+      <c r="I384" s="7"/>
+    </row>
+    <row r="385" spans="4:9" s="2" customFormat="1">
+      <c r="D385" s="7"/>
+      <c r="I385" s="7"/>
+    </row>
+    <row r="386" spans="4:9" s="2" customFormat="1">
+      <c r="D386" s="7"/>
+      <c r="I386" s="7"/>
+    </row>
+    <row r="387" spans="4:9" s="2" customFormat="1">
+      <c r="D387" s="7"/>
+      <c r="I387" s="7"/>
+    </row>
+    <row r="388" spans="4:9" s="2" customFormat="1">
+      <c r="D388" s="7"/>
+      <c r="I388" s="7"/>
+    </row>
+    <row r="389" spans="4:9" s="2" customFormat="1">
+      <c r="D389" s="7"/>
+      <c r="I389" s="7"/>
+    </row>
+    <row r="390" spans="4:9" s="2" customFormat="1">
       <c r="D390" s="7"/>
-      <c r="F390" s="4"/>
       <c r="I390" s="7"/>
     </row>
-    <row r="391" spans="3:9" s="2" customFormat="1">
+    <row r="391" spans="4:9" s="2" customFormat="1">
       <c r="D391" s="7"/>
-      <c r="F391" s="4"/>
       <c r="I391" s="7"/>
     </row>
-    <row r="392" spans="3:9" s="2" customFormat="1">
+    <row r="392" spans="4:9" s="2" customFormat="1">
       <c r="D392" s="7"/>
-      <c r="F392" s="4"/>
       <c r="I392" s="7"/>
     </row>
-    <row r="393" spans="3:9" s="2" customFormat="1">
+    <row r="393" spans="4:9" s="2" customFormat="1">
       <c r="D393" s="7"/>
-      <c r="F393" s="4"/>
       <c r="I393" s="7"/>
     </row>
-    <row r="394" spans="3:9" s="2" customFormat="1">
+    <row r="394" spans="4:9" s="2" customFormat="1">
       <c r="D394" s="7"/>
-      <c r="F394" s="4"/>
       <c r="I394" s="7"/>
     </row>
-    <row r="395" spans="3:9" s="2" customFormat="1">
+    <row r="395" spans="4:9" s="2" customFormat="1">
       <c r="D395" s="7"/>
-      <c r="F395" s="6"/>
       <c r="I395" s="7"/>
     </row>
-    <row r="396" spans="3:9" s="2" customFormat="1">
+    <row r="396" spans="4:9" s="2" customFormat="1">
       <c r="D396" s="7"/>
-      <c r="F396" s="6"/>
       <c r="I396" s="7"/>
     </row>
-    <row r="397" spans="3:9" s="2" customFormat="1">
+    <row r="397" spans="4:9" s="2" customFormat="1">
       <c r="D397" s="7"/>
-      <c r="F397" s="6"/>
       <c r="I397" s="7"/>
     </row>
-    <row r="398" spans="3:9" s="2" customFormat="1">
+    <row r="398" spans="4:9" s="2" customFormat="1">
       <c r="D398" s="7"/>
-      <c r="F398" s="6"/>
       <c r="I398" s="7"/>
     </row>
-    <row r="399" spans="3:9" s="2" customFormat="1">
+    <row r="399" spans="4:9" s="2" customFormat="1">
       <c r="D399" s="7"/>
-      <c r="F399" s="6"/>
       <c r="I399" s="7"/>
     </row>
-    <row r="400" spans="3:9" s="2" customFormat="1">
+    <row r="400" spans="4:9" s="2" customFormat="1">
       <c r="D400" s="7"/>
-      <c r="F400" s="6"/>
       <c r="I400" s="7"/>
     </row>
     <row r="401" spans="4:9" s="2" customFormat="1">
       <c r="D401" s="7"/>
-      <c r="F401" s="6"/>
       <c r="I401" s="7"/>
     </row>
     <row r="402" spans="4:9" s="2" customFormat="1">
       <c r="D402" s="7"/>
-      <c r="F402" s="6"/>
       <c r="I402" s="7"/>
     </row>
     <row r="403" spans="4:9" s="2" customFormat="1">
       <c r="D403" s="7"/>
-      <c r="F403" s="6"/>
       <c r="I403" s="7"/>
     </row>
     <row r="404" spans="4:9" s="2" customFormat="1">
       <c r="D404" s="7"/>
-      <c r="F404" s="6"/>
       <c r="I404" s="7"/>
     </row>
     <row r="405" spans="4:9" s="2" customFormat="1">
       <c r="D405" s="7"/>
-      <c r="F405" s="6"/>
       <c r="I405" s="7"/>
     </row>
     <row r="406" spans="4:9" s="2" customFormat="1">
       <c r="D406" s="7"/>
-      <c r="F406" s="6"/>
       <c r="I406" s="7"/>
     </row>
     <row r="407" spans="4:9" s="2" customFormat="1">
       <c r="D407" s="7"/>
-      <c r="F407" s="6"/>
       <c r="I407" s="7"/>
     </row>
     <row r="408" spans="4:9" s="2" customFormat="1">
       <c r="D408" s="7"/>
-      <c r="F408" s="6"/>
       <c r="I408" s="7"/>
     </row>
     <row r="409" spans="4:9" s="2" customFormat="1">
       <c r="D409" s="7"/>
-      <c r="F409" s="6"/>
       <c r="I409" s="7"/>
     </row>
     <row r="410" spans="4:9" s="2" customFormat="1">
       <c r="D410" s="7"/>
-      <c r="F410" s="6"/>
       <c r="I410" s="7"/>
     </row>
     <row r="411" spans="4:9" s="2" customFormat="1">
       <c r="D411" s="7"/>
-      <c r="F411" s="6"/>
       <c r="I411" s="7"/>
     </row>
     <row r="412" spans="4:9" s="2" customFormat="1">
       <c r="D412" s="7"/>
-      <c r="F412" s="6"/>
       <c r="I412" s="7"/>
     </row>
     <row r="413" spans="4:9" s="2" customFormat="1">
@@ -5636,9 +4988,9 @@
       <c r="D472" s="7"/>
       <c r="I472" s="7"/>
     </row>
-    <row r="473" spans="4:9" s="2" customFormat="1">
-      <c r="D473" s="7"/>
-      <c r="I473" s="7"/>
+    <row r="473" spans="4:9" s="11" customFormat="1">
+      <c r="D473" s="26"/>
+      <c r="I473" s="26"/>
     </row>
     <row r="474" spans="4:9" s="2" customFormat="1">
       <c r="D474" s="7"/>
@@ -5756,9 +5108,9 @@
       <c r="D502" s="7"/>
       <c r="I502" s="7"/>
     </row>
-    <row r="503" spans="4:9" s="11" customFormat="1">
-      <c r="D503" s="26"/>
-      <c r="I503" s="26"/>
+    <row r="503" spans="4:9" s="2" customFormat="1">
+      <c r="D503" s="7"/>
+      <c r="I503" s="7"/>
     </row>
     <row r="504" spans="4:9" s="2" customFormat="1">
       <c r="D504" s="7"/>
@@ -5820,9 +5172,9 @@
       <c r="D518" s="7"/>
       <c r="I518" s="7"/>
     </row>
-    <row r="519" spans="4:9" s="2" customFormat="1">
-      <c r="D519" s="7"/>
-      <c r="I519" s="7"/>
+    <row r="519" spans="4:9" s="11" customFormat="1">
+      <c r="D519" s="26"/>
+      <c r="I519" s="26"/>
     </row>
     <row r="520" spans="4:9" s="2" customFormat="1">
       <c r="D520" s="7"/>
@@ -5840,9 +5192,9 @@
       <c r="D523" s="7"/>
       <c r="I523" s="7"/>
     </row>
-    <row r="524" spans="4:9" s="2" customFormat="1">
-      <c r="D524" s="7"/>
-      <c r="I524" s="7"/>
+    <row r="524" spans="4:9" s="11" customFormat="1">
+      <c r="D524" s="26"/>
+      <c r="I524" s="26"/>
     </row>
     <row r="525" spans="4:9" s="2" customFormat="1">
       <c r="D525" s="7"/>
@@ -5860,9 +5212,9 @@
       <c r="D528" s="7"/>
       <c r="I528" s="7"/>
     </row>
-    <row r="529" spans="4:9" s="2" customFormat="1">
-      <c r="D529" s="7"/>
-      <c r="I529" s="7"/>
+    <row r="529" spans="4:9" s="11" customFormat="1">
+      <c r="D529" s="26"/>
+      <c r="I529" s="26"/>
     </row>
     <row r="530" spans="4:9" s="2" customFormat="1">
       <c r="D530" s="7"/>
@@ -5880,9 +5232,9 @@
       <c r="D533" s="7"/>
       <c r="I533" s="7"/>
     </row>
-    <row r="534" spans="4:9" s="2" customFormat="1">
-      <c r="D534" s="7"/>
-      <c r="I534" s="7"/>
+    <row r="534" spans="4:9" s="11" customFormat="1">
+      <c r="D534" s="26"/>
+      <c r="I534" s="26"/>
     </row>
     <row r="535" spans="4:9" s="2" customFormat="1">
       <c r="D535" s="7"/>
@@ -5900,9 +5252,9 @@
       <c r="D538" s="7"/>
       <c r="I538" s="7"/>
     </row>
-    <row r="539" spans="4:9" s="2" customFormat="1">
-      <c r="D539" s="7"/>
-      <c r="I539" s="7"/>
+    <row r="539" spans="4:9" s="11" customFormat="1">
+      <c r="D539" s="26"/>
+      <c r="I539" s="26"/>
     </row>
     <row r="540" spans="4:9" s="2" customFormat="1">
       <c r="D540" s="7"/>
@@ -5920,9 +5272,9 @@
       <c r="D543" s="7"/>
       <c r="I543" s="7"/>
     </row>
-    <row r="544" spans="4:9" s="2" customFormat="1">
-      <c r="D544" s="7"/>
-      <c r="I544" s="7"/>
+    <row r="544" spans="4:9" s="11" customFormat="1">
+      <c r="D544" s="26"/>
+      <c r="I544" s="26"/>
     </row>
     <row r="545" spans="4:9" s="2" customFormat="1">
       <c r="D545" s="7"/>
@@ -5988,131 +5340,155 @@
       <c r="D560" s="7"/>
       <c r="I560" s="7"/>
     </row>
-    <row r="561" spans="4:9" s="2" customFormat="1">
+    <row r="561" spans="3:9" s="2" customFormat="1">
       <c r="D561" s="7"/>
       <c r="I561" s="7"/>
     </row>
-    <row r="562" spans="4:9" s="2" customFormat="1">
+    <row r="562" spans="3:9" s="2" customFormat="1">
       <c r="D562" s="7"/>
       <c r="I562" s="7"/>
     </row>
-    <row r="563" spans="4:9" s="2" customFormat="1">
+    <row r="563" spans="3:9" s="2" customFormat="1">
       <c r="D563" s="7"/>
       <c r="I563" s="7"/>
     </row>
-    <row r="564" spans="4:9" s="11" customFormat="1">
-      <c r="D564" s="26"/>
+    <row r="564" spans="3:9" s="11" customFormat="1">
+      <c r="C564" s="2"/>
+      <c r="D564" s="7"/>
+      <c r="E564" s="2"/>
+      <c r="G564" s="2"/>
+      <c r="H564" s="2"/>
       <c r="I564" s="26"/>
     </row>
-    <row r="565" spans="4:9" s="2" customFormat="1">
+    <row r="565" spans="3:9" s="2" customFormat="1">
       <c r="D565" s="7"/>
       <c r="I565" s="7"/>
     </row>
-    <row r="566" spans="4:9" s="2" customFormat="1">
+    <row r="566" spans="3:9" s="2" customFormat="1">
       <c r="D566" s="7"/>
       <c r="I566" s="7"/>
     </row>
-    <row r="567" spans="4:9" s="2" customFormat="1">
+    <row r="567" spans="3:9" s="2" customFormat="1">
       <c r="D567" s="7"/>
       <c r="I567" s="7"/>
     </row>
-    <row r="568" spans="4:9" s="2" customFormat="1">
+    <row r="568" spans="3:9" s="2" customFormat="1">
       <c r="D568" s="7"/>
       <c r="I568" s="7"/>
     </row>
-    <row r="569" spans="4:9" s="11" customFormat="1">
-      <c r="D569" s="26"/>
+    <row r="569" spans="3:9" s="11" customFormat="1">
+      <c r="C569" s="2"/>
+      <c r="D569" s="7"/>
+      <c r="E569" s="2"/>
+      <c r="G569" s="2"/>
+      <c r="H569" s="2"/>
       <c r="I569" s="26"/>
     </row>
-    <row r="570" spans="4:9" s="2" customFormat="1">
+    <row r="570" spans="3:9" s="2" customFormat="1">
       <c r="D570" s="7"/>
       <c r="I570" s="7"/>
     </row>
-    <row r="571" spans="4:9" s="2" customFormat="1">
+    <row r="571" spans="3:9" s="2" customFormat="1">
       <c r="D571" s="7"/>
       <c r="I571" s="7"/>
     </row>
-    <row r="572" spans="4:9" s="2" customFormat="1">
+    <row r="572" spans="3:9" s="2" customFormat="1">
       <c r="D572" s="7"/>
       <c r="I572" s="7"/>
     </row>
-    <row r="573" spans="4:9" s="2" customFormat="1">
+    <row r="573" spans="3:9" s="2" customFormat="1">
       <c r="D573" s="7"/>
       <c r="I573" s="7"/>
     </row>
-    <row r="574" spans="4:9" s="11" customFormat="1">
-      <c r="D574" s="26"/>
+    <row r="574" spans="3:9" s="11" customFormat="1">
+      <c r="C574" s="2"/>
+      <c r="D574" s="7"/>
+      <c r="E574" s="2"/>
+      <c r="G574" s="2"/>
+      <c r="H574" s="2"/>
       <c r="I574" s="26"/>
     </row>
-    <row r="575" spans="4:9" s="2" customFormat="1">
+    <row r="575" spans="3:9" s="2" customFormat="1">
       <c r="D575" s="7"/>
       <c r="I575" s="7"/>
     </row>
-    <row r="576" spans="4:9" s="2" customFormat="1">
+    <row r="576" spans="3:9" s="2" customFormat="1">
       <c r="D576" s="7"/>
       <c r="I576" s="7"/>
     </row>
-    <row r="577" spans="4:9" s="2" customFormat="1">
+    <row r="577" spans="3:9" s="2" customFormat="1">
       <c r="D577" s="7"/>
       <c r="I577" s="7"/>
     </row>
-    <row r="578" spans="4:9" s="2" customFormat="1">
+    <row r="578" spans="3:9" s="2" customFormat="1">
       <c r="D578" s="7"/>
       <c r="I578" s="7"/>
     </row>
-    <row r="579" spans="4:9" s="11" customFormat="1">
-      <c r="D579" s="26"/>
+    <row r="579" spans="3:9" s="11" customFormat="1">
+      <c r="C579" s="2"/>
+      <c r="D579" s="7"/>
+      <c r="E579" s="2"/>
+      <c r="G579" s="2"/>
+      <c r="H579" s="2"/>
       <c r="I579" s="26"/>
     </row>
-    <row r="580" spans="4:9" s="2" customFormat="1">
+    <row r="580" spans="3:9" s="2" customFormat="1">
       <c r="D580" s="7"/>
       <c r="I580" s="7"/>
     </row>
-    <row r="581" spans="4:9" s="2" customFormat="1">
+    <row r="581" spans="3:9" s="2" customFormat="1">
       <c r="D581" s="7"/>
       <c r="I581" s="7"/>
     </row>
-    <row r="582" spans="4:9" s="2" customFormat="1">
+    <row r="582" spans="3:9" s="2" customFormat="1">
       <c r="D582" s="7"/>
       <c r="I582" s="7"/>
     </row>
-    <row r="583" spans="4:9" s="2" customFormat="1">
+    <row r="583" spans="3:9" s="2" customFormat="1">
       <c r="D583" s="7"/>
       <c r="I583" s="7"/>
     </row>
-    <row r="584" spans="4:9" s="11" customFormat="1">
-      <c r="D584" s="26"/>
+    <row r="584" spans="3:9" s="11" customFormat="1">
+      <c r="C584" s="2"/>
+      <c r="D584" s="7"/>
+      <c r="E584" s="2"/>
+      <c r="G584" s="2"/>
+      <c r="H584" s="2"/>
       <c r="I584" s="26"/>
     </row>
-    <row r="585" spans="4:9" s="2" customFormat="1">
+    <row r="585" spans="3:9" s="2" customFormat="1">
       <c r="D585" s="7"/>
       <c r="I585" s="7"/>
     </row>
-    <row r="586" spans="4:9" s="2" customFormat="1">
+    <row r="586" spans="3:9" s="2" customFormat="1">
       <c r="D586" s="7"/>
       <c r="I586" s="7"/>
     </row>
-    <row r="587" spans="4:9" s="2" customFormat="1">
+    <row r="587" spans="3:9" s="2" customFormat="1">
       <c r="D587" s="7"/>
       <c r="I587" s="7"/>
     </row>
-    <row r="588" spans="4:9" s="2" customFormat="1">
+    <row r="588" spans="3:9" s="2" customFormat="1">
       <c r="D588" s="7"/>
       <c r="I588" s="7"/>
     </row>
-    <row r="589" spans="4:9" s="11" customFormat="1">
-      <c r="D589" s="26"/>
+    <row r="589" spans="3:9" s="11" customFormat="1">
+      <c r="C589" s="2"/>
+      <c r="D589" s="7"/>
+      <c r="E589" s="2"/>
+      <c r="G589" s="2"/>
+      <c r="H589" s="2"/>
       <c r="I589" s="26"/>
     </row>
-    <row r="590" spans="4:9" s="2" customFormat="1">
+    <row r="590" spans="3:9" s="2" customFormat="1">
       <c r="D590" s="7"/>
       <c r="I590" s="7"/>
     </row>
-    <row r="591" spans="4:9" s="2" customFormat="1">
+    <row r="591" spans="3:9" s="2" customFormat="1">
       <c r="D591" s="7"/>
       <c r="I591" s="7"/>
     </row>
-    <row r="592" spans="4:9" s="2" customFormat="1">
+    <row r="592" spans="3:9" s="2" customFormat="1">
       <c r="D592" s="7"/>
       <c r="I592" s="7"/>
     </row>
@@ -6192,157 +5568,133 @@
       <c r="D608" s="7"/>
       <c r="I608" s="7"/>
     </row>
-    <row r="609" spans="3:9" s="11" customFormat="1">
-      <c r="C609" s="2"/>
-      <c r="D609" s="7"/>
-      <c r="E609" s="2"/>
-      <c r="G609" s="2"/>
-      <c r="H609" s="2"/>
+    <row r="609" spans="4:9" s="11" customFormat="1">
+      <c r="D609" s="26"/>
       <c r="I609" s="26"/>
     </row>
-    <row r="610" spans="3:9" s="2" customFormat="1">
+    <row r="610" spans="4:9" s="2" customFormat="1">
       <c r="D610" s="7"/>
       <c r="I610" s="7"/>
     </row>
-    <row r="611" spans="3:9" s="2" customFormat="1">
+    <row r="611" spans="4:9" s="2" customFormat="1">
       <c r="D611" s="7"/>
       <c r="I611" s="7"/>
     </row>
-    <row r="612" spans="3:9" s="2" customFormat="1">
+    <row r="612" spans="4:9" s="2" customFormat="1">
       <c r="D612" s="7"/>
       <c r="I612" s="7"/>
     </row>
-    <row r="613" spans="3:9" s="2" customFormat="1">
+    <row r="613" spans="4:9" s="2" customFormat="1">
       <c r="D613" s="7"/>
       <c r="I613" s="7"/>
     </row>
-    <row r="614" spans="3:9" s="11" customFormat="1">
-      <c r="C614" s="2"/>
-      <c r="D614" s="7"/>
-      <c r="E614" s="2"/>
-      <c r="G614" s="2"/>
-      <c r="H614" s="2"/>
+    <row r="614" spans="4:9" s="11" customFormat="1">
+      <c r="D614" s="26"/>
       <c r="I614" s="26"/>
     </row>
-    <row r="615" spans="3:9" s="2" customFormat="1">
+    <row r="615" spans="4:9" s="2" customFormat="1">
       <c r="D615" s="7"/>
       <c r="I615" s="7"/>
     </row>
-    <row r="616" spans="3:9" s="2" customFormat="1">
+    <row r="616" spans="4:9" s="2" customFormat="1">
       <c r="D616" s="7"/>
       <c r="I616" s="7"/>
     </row>
-    <row r="617" spans="3:9" s="2" customFormat="1">
+    <row r="617" spans="4:9" s="2" customFormat="1">
       <c r="D617" s="7"/>
       <c r="I617" s="7"/>
     </row>
-    <row r="618" spans="3:9" s="2" customFormat="1">
+    <row r="618" spans="4:9" s="2" customFormat="1">
       <c r="D618" s="7"/>
       <c r="I618" s="7"/>
     </row>
-    <row r="619" spans="3:9" s="11" customFormat="1">
-      <c r="C619" s="2"/>
-      <c r="D619" s="7"/>
-      <c r="E619" s="2"/>
-      <c r="G619" s="2"/>
-      <c r="H619" s="2"/>
+    <row r="619" spans="4:9" s="11" customFormat="1">
+      <c r="D619" s="26"/>
       <c r="I619" s="26"/>
     </row>
-    <row r="620" spans="3:9" s="2" customFormat="1">
+    <row r="620" spans="4:9" s="2" customFormat="1">
       <c r="D620" s="7"/>
       <c r="I620" s="7"/>
     </row>
-    <row r="621" spans="3:9" s="2" customFormat="1">
+    <row r="621" spans="4:9" s="2" customFormat="1">
       <c r="D621" s="7"/>
       <c r="I621" s="7"/>
     </row>
-    <row r="622" spans="3:9" s="2" customFormat="1">
+    <row r="622" spans="4:9" s="2" customFormat="1">
       <c r="D622" s="7"/>
       <c r="I622" s="7"/>
     </row>
-    <row r="623" spans="3:9" s="2" customFormat="1">
+    <row r="623" spans="4:9" s="2" customFormat="1">
       <c r="D623" s="7"/>
       <c r="I623" s="7"/>
     </row>
-    <row r="624" spans="3:9" s="11" customFormat="1">
-      <c r="C624" s="2"/>
-      <c r="D624" s="7"/>
-      <c r="E624" s="2"/>
-      <c r="G624" s="2"/>
-      <c r="H624" s="2"/>
+    <row r="624" spans="4:9" s="11" customFormat="1">
+      <c r="D624" s="26"/>
       <c r="I624" s="26"/>
     </row>
-    <row r="625" spans="3:9" s="2" customFormat="1">
+    <row r="625" spans="4:9" s="2" customFormat="1">
       <c r="D625" s="7"/>
       <c r="I625" s="7"/>
     </row>
-    <row r="626" spans="3:9" s="2" customFormat="1">
+    <row r="626" spans="4:9" s="2" customFormat="1">
       <c r="D626" s="7"/>
       <c r="I626" s="7"/>
     </row>
-    <row r="627" spans="3:9" s="2" customFormat="1">
+    <row r="627" spans="4:9" s="2" customFormat="1">
       <c r="D627" s="7"/>
       <c r="I627" s="7"/>
     </row>
-    <row r="628" spans="3:9" s="2" customFormat="1">
+    <row r="628" spans="4:9" s="2" customFormat="1">
       <c r="D628" s="7"/>
       <c r="I628" s="7"/>
     </row>
-    <row r="629" spans="3:9" s="11" customFormat="1">
-      <c r="C629" s="2"/>
-      <c r="D629" s="7"/>
-      <c r="E629" s="2"/>
-      <c r="G629" s="2"/>
-      <c r="H629" s="2"/>
+    <row r="629" spans="4:9" s="11" customFormat="1">
+      <c r="D629" s="26"/>
       <c r="I629" s="26"/>
     </row>
-    <row r="630" spans="3:9" s="2" customFormat="1">
+    <row r="630" spans="4:9" s="2" customFormat="1">
       <c r="D630" s="7"/>
       <c r="I630" s="7"/>
     </row>
-    <row r="631" spans="3:9" s="2" customFormat="1">
+    <row r="631" spans="4:9" s="2" customFormat="1">
       <c r="D631" s="7"/>
       <c r="I631" s="7"/>
     </row>
-    <row r="632" spans="3:9" s="2" customFormat="1">
+    <row r="632" spans="4:9" s="2" customFormat="1">
       <c r="D632" s="7"/>
       <c r="I632" s="7"/>
     </row>
-    <row r="633" spans="3:9" s="2" customFormat="1">
+    <row r="633" spans="4:9" s="2" customFormat="1">
       <c r="D633" s="7"/>
       <c r="I633" s="7"/>
     </row>
-    <row r="634" spans="3:9" s="11" customFormat="1">
-      <c r="C634" s="2"/>
-      <c r="D634" s="7"/>
-      <c r="E634" s="2"/>
-      <c r="G634" s="2"/>
-      <c r="H634" s="2"/>
+    <row r="634" spans="4:9" s="11" customFormat="1">
+      <c r="D634" s="26"/>
       <c r="I634" s="26"/>
     </row>
-    <row r="635" spans="3:9" s="2" customFormat="1">
+    <row r="635" spans="4:9" s="2" customFormat="1">
       <c r="D635" s="7"/>
       <c r="I635" s="7"/>
     </row>
-    <row r="636" spans="3:9" s="2" customFormat="1">
+    <row r="636" spans="4:9" s="2" customFormat="1">
       <c r="D636" s="7"/>
       <c r="I636" s="7"/>
     </row>
-    <row r="637" spans="3:9" s="2" customFormat="1">
+    <row r="637" spans="4:9" s="2" customFormat="1">
       <c r="D637" s="7"/>
       <c r="I637" s="7"/>
     </row>
-    <row r="638" spans="3:9" s="2" customFormat="1">
+    <row r="638" spans="4:9" s="2" customFormat="1">
       <c r="D638" s="7"/>
       <c r="I638" s="7"/>
     </row>
-    <row r="639" spans="3:9" s="11" customFormat="1">
-      <c r="D639" s="26"/>
-      <c r="I639" s="26"/>
-    </row>
-    <row r="640" spans="3:9" s="2" customFormat="1">
-      <c r="D640" s="7"/>
-      <c r="I640" s="7"/>
+    <row r="639" spans="4:9" s="2" customFormat="1">
+      <c r="D639" s="7"/>
+      <c r="I639" s="7"/>
+    </row>
+    <row r="640" spans="4:9" s="11" customFormat="1">
+      <c r="D640" s="26"/>
+      <c r="I640" s="26"/>
     </row>
     <row r="641" spans="4:9" s="2" customFormat="1">
       <c r="D641" s="7"/>
@@ -6356,17 +5708,17 @@
       <c r="D643" s="7"/>
       <c r="I643" s="7"/>
     </row>
-    <row r="644" spans="4:9" s="11" customFormat="1">
-      <c r="D644" s="26"/>
-      <c r="I644" s="26"/>
+    <row r="644" spans="4:9" s="2" customFormat="1">
+      <c r="D644" s="7"/>
+      <c r="I644" s="7"/>
     </row>
     <row r="645" spans="4:9" s="2" customFormat="1">
       <c r="D645" s="7"/>
       <c r="I645" s="7"/>
     </row>
-    <row r="646" spans="4:9" s="2" customFormat="1">
-      <c r="D646" s="7"/>
-      <c r="I646" s="7"/>
+    <row r="646" spans="4:9" s="11" customFormat="1">
+      <c r="D646" s="26"/>
+      <c r="I646" s="26"/>
     </row>
     <row r="647" spans="4:9" s="2" customFormat="1">
       <c r="D647" s="7"/>
@@ -6376,9 +5728,9 @@
       <c r="D648" s="7"/>
       <c r="I648" s="7"/>
     </row>
-    <row r="649" spans="4:9" s="11" customFormat="1">
-      <c r="D649" s="26"/>
-      <c r="I649" s="26"/>
+    <row r="649" spans="4:9" s="2" customFormat="1">
+      <c r="D649" s="7"/>
+      <c r="I649" s="7"/>
     </row>
     <row r="650" spans="4:9" s="2" customFormat="1">
       <c r="D650" s="7"/>
@@ -6388,128 +5740,158 @@
       <c r="D651" s="7"/>
       <c r="I651" s="7"/>
     </row>
-    <row r="652" spans="4:9" s="2" customFormat="1">
-      <c r="D652" s="7"/>
-      <c r="I652" s="7"/>
-    </row>
-    <row r="653" spans="4:9" s="2" customFormat="1">
-      <c r="D653" s="7"/>
-      <c r="I653" s="7"/>
+    <row r="652" spans="4:9" s="11" customFormat="1">
+      <c r="D652" s="26"/>
+      <c r="I652" s="26"/>
+    </row>
+    <row r="653" spans="4:9" s="11" customFormat="1">
+      <c r="D653" s="26"/>
+      <c r="H653" s="2"/>
+      <c r="I653" s="26"/>
     </row>
     <row r="654" spans="4:9" s="11" customFormat="1">
       <c r="D654" s="26"/>
+      <c r="H654" s="2"/>
       <c r="I654" s="26"/>
     </row>
-    <row r="655" spans="4:9" s="2" customFormat="1">
-      <c r="D655" s="7"/>
-      <c r="I655" s="7"/>
-    </row>
-    <row r="656" spans="4:9" s="2" customFormat="1">
-      <c r="D656" s="7"/>
-      <c r="I656" s="7"/>
-    </row>
-    <row r="657" spans="4:9" s="2" customFormat="1">
-      <c r="D657" s="7"/>
-      <c r="I657" s="7"/>
-    </row>
-    <row r="658" spans="4:9" s="2" customFormat="1">
-      <c r="D658" s="7"/>
-      <c r="I658" s="7"/>
+    <row r="655" spans="4:9" s="11" customFormat="1">
+      <c r="D655" s="26"/>
+      <c r="H655" s="2"/>
+      <c r="I655" s="26"/>
+    </row>
+    <row r="656" spans="4:9" s="11" customFormat="1">
+      <c r="D656" s="26"/>
+      <c r="H656" s="2"/>
+      <c r="I656" s="26"/>
+    </row>
+    <row r="657" spans="4:9" s="11" customFormat="1">
+      <c r="D657" s="26"/>
+      <c r="H657" s="2"/>
+      <c r="I657" s="26"/>
+    </row>
+    <row r="658" spans="4:9" s="11" customFormat="1">
+      <c r="D658" s="26"/>
+      <c r="H658" s="2"/>
+      <c r="I658" s="26"/>
     </row>
     <row r="659" spans="4:9" s="11" customFormat="1">
       <c r="D659" s="26"/>
+      <c r="H659" s="2"/>
       <c r="I659" s="26"/>
     </row>
-    <row r="660" spans="4:9" s="2" customFormat="1">
-      <c r="D660" s="7"/>
-      <c r="I660" s="7"/>
-    </row>
-    <row r="661" spans="4:9" s="2" customFormat="1">
-      <c r="D661" s="7"/>
-      <c r="I661" s="7"/>
-    </row>
-    <row r="662" spans="4:9" s="2" customFormat="1">
-      <c r="D662" s="7"/>
-      <c r="I662" s="7"/>
-    </row>
-    <row r="663" spans="4:9" s="2" customFormat="1">
-      <c r="D663" s="7"/>
-      <c r="I663" s="7"/>
+    <row r="660" spans="4:9" s="11" customFormat="1">
+      <c r="D660" s="26"/>
+      <c r="H660" s="2"/>
+      <c r="I660" s="26"/>
+    </row>
+    <row r="661" spans="4:9" s="11" customFormat="1">
+      <c r="D661" s="26"/>
+      <c r="H661" s="2"/>
+      <c r="I661" s="26"/>
+    </row>
+    <row r="662" spans="4:9" s="11" customFormat="1">
+      <c r="D662" s="26"/>
+      <c r="H662" s="2"/>
+      <c r="I662" s="26"/>
+    </row>
+    <row r="663" spans="4:9" s="11" customFormat="1">
+      <c r="D663" s="26"/>
+      <c r="H663" s="2"/>
+      <c r="I663" s="26"/>
     </row>
     <row r="664" spans="4:9" s="11" customFormat="1">
       <c r="D664" s="26"/>
+      <c r="H664" s="2"/>
       <c r="I664" s="26"/>
     </row>
-    <row r="665" spans="4:9" s="2" customFormat="1">
-      <c r="D665" s="7"/>
-      <c r="I665" s="7"/>
-    </row>
-    <row r="666" spans="4:9" s="2" customFormat="1">
-      <c r="D666" s="7"/>
-      <c r="I666" s="7"/>
-    </row>
-    <row r="667" spans="4:9" s="2" customFormat="1">
-      <c r="D667" s="7"/>
-      <c r="I667" s="7"/>
-    </row>
-    <row r="668" spans="4:9" s="2" customFormat="1">
-      <c r="D668" s="7"/>
-      <c r="I668" s="7"/>
-    </row>
-    <row r="669" spans="4:9" s="2" customFormat="1">
-      <c r="D669" s="7"/>
-      <c r="I669" s="7"/>
+    <row r="665" spans="4:9" s="11" customFormat="1">
+      <c r="D665" s="26"/>
+      <c r="H665" s="2"/>
+      <c r="I665" s="26"/>
+    </row>
+    <row r="666" spans="4:9" s="11" customFormat="1">
+      <c r="D666" s="26"/>
+      <c r="H666" s="2"/>
+      <c r="I666" s="26"/>
+    </row>
+    <row r="667" spans="4:9" s="11" customFormat="1">
+      <c r="D667" s="26"/>
+      <c r="H667" s="2"/>
+      <c r="I667" s="26"/>
+    </row>
+    <row r="668" spans="4:9" s="11" customFormat="1">
+      <c r="D668" s="26"/>
+      <c r="H668" s="2"/>
+      <c r="I668" s="26"/>
+    </row>
+    <row r="669" spans="4:9" s="11" customFormat="1">
+      <c r="D669" s="26"/>
+      <c r="H669" s="2"/>
+      <c r="I669" s="26"/>
     </row>
     <row r="670" spans="4:9" s="11" customFormat="1">
       <c r="D670" s="26"/>
+      <c r="H670" s="2"/>
       <c r="I670" s="26"/>
     </row>
-    <row r="671" spans="4:9" s="2" customFormat="1">
-      <c r="D671" s="7"/>
-      <c r="I671" s="7"/>
-    </row>
-    <row r="672" spans="4:9" s="2" customFormat="1">
-      <c r="D672" s="7"/>
-      <c r="I672" s="7"/>
-    </row>
-    <row r="673" spans="4:9" s="2" customFormat="1">
-      <c r="D673" s="7"/>
-      <c r="I673" s="7"/>
-    </row>
-    <row r="674" spans="4:9" s="2" customFormat="1">
-      <c r="D674" s="7"/>
-      <c r="I674" s="7"/>
-    </row>
-    <row r="675" spans="4:9" s="2" customFormat="1">
-      <c r="D675" s="7"/>
-      <c r="I675" s="7"/>
+    <row r="671" spans="4:9" s="11" customFormat="1">
+      <c r="D671" s="26"/>
+      <c r="H671" s="2"/>
+      <c r="I671" s="26"/>
+    </row>
+    <row r="672" spans="4:9" s="11" customFormat="1">
+      <c r="D672" s="26"/>
+      <c r="H672" s="2"/>
+      <c r="I672" s="26"/>
+    </row>
+    <row r="673" spans="4:9" s="11" customFormat="1">
+      <c r="D673" s="26"/>
+      <c r="H673" s="2"/>
+      <c r="I673" s="26"/>
+    </row>
+    <row r="674" spans="4:9" s="11" customFormat="1">
+      <c r="D674" s="26"/>
+      <c r="H674" s="2"/>
+      <c r="I674" s="26"/>
+    </row>
+    <row r="675" spans="4:9" s="11" customFormat="1">
+      <c r="D675" s="26"/>
+      <c r="H675" s="2"/>
+      <c r="I675" s="26"/>
     </row>
     <row r="676" spans="4:9" s="11" customFormat="1">
       <c r="D676" s="26"/>
+      <c r="H676" s="2"/>
       <c r="I676" s="26"/>
     </row>
-    <row r="677" spans="4:9" s="2" customFormat="1">
-      <c r="D677" s="7"/>
-      <c r="I677" s="7"/>
-    </row>
-    <row r="678" spans="4:9" s="2" customFormat="1">
-      <c r="D678" s="7"/>
-      <c r="I678" s="7"/>
-    </row>
-    <row r="679" spans="4:9" s="2" customFormat="1">
-      <c r="D679" s="7"/>
-      <c r="I679" s="7"/>
-    </row>
-    <row r="680" spans="4:9" s="2" customFormat="1">
-      <c r="D680" s="7"/>
-      <c r="I680" s="7"/>
-    </row>
-    <row r="681" spans="4:9" s="2" customFormat="1">
-      <c r="D681" s="7"/>
-      <c r="I681" s="7"/>
+    <row r="677" spans="4:9" s="11" customFormat="1">
+      <c r="D677" s="26"/>
+      <c r="H677" s="2"/>
+      <c r="I677" s="26"/>
+    </row>
+    <row r="678" spans="4:9" s="11" customFormat="1">
+      <c r="D678" s="26"/>
+      <c r="H678" s="2"/>
+      <c r="I678" s="26"/>
+    </row>
+    <row r="679" spans="4:9" s="11" customFormat="1">
+      <c r="D679" s="26"/>
+      <c r="H679" s="2"/>
+      <c r="I679" s="26"/>
+    </row>
+    <row r="680" spans="4:9" s="11" customFormat="1">
+      <c r="D680" s="26"/>
+      <c r="H680" s="2"/>
+      <c r="I680" s="26"/>
+    </row>
+    <row r="681" spans="4:9" s="11" customFormat="1">
+      <c r="D681" s="26"/>
+      <c r="H681" s="2"/>
+      <c r="I681" s="26"/>
     </row>
     <row r="682" spans="4:9" s="11" customFormat="1">
       <c r="D682" s="26"/>
+      <c r="H682" s="2"/>
       <c r="I682" s="26"/>
     </row>
     <row r="683" spans="4:9" s="11" customFormat="1">
@@ -7342,183 +6724,276 @@
       <c r="H848" s="2"/>
       <c r="I848" s="26"/>
     </row>
-    <row r="849" spans="4:9" s="11" customFormat="1">
+    <row r="849" spans="3:9" s="11" customFormat="1">
       <c r="D849" s="26"/>
       <c r="H849" s="2"/>
       <c r="I849" s="26"/>
     </row>
-    <row r="850" spans="4:9" s="11" customFormat="1">
+    <row r="850" spans="3:9" s="11" customFormat="1">
       <c r="D850" s="26"/>
       <c r="H850" s="2"/>
       <c r="I850" s="26"/>
     </row>
-    <row r="851" spans="4:9" s="11" customFormat="1">
+    <row r="851" spans="3:9" s="11" customFormat="1">
       <c r="D851" s="26"/>
       <c r="H851" s="2"/>
       <c r="I851" s="26"/>
     </row>
-    <row r="852" spans="4:9" s="11" customFormat="1">
+    <row r="852" spans="3:9" s="11" customFormat="1">
       <c r="D852" s="26"/>
       <c r="H852" s="2"/>
       <c r="I852" s="26"/>
     </row>
-    <row r="853" spans="4:9" s="11" customFormat="1">
+    <row r="853" spans="3:9" s="11" customFormat="1">
       <c r="D853" s="26"/>
-      <c r="H853" s="2"/>
       <c r="I853" s="26"/>
     </row>
-    <row r="854" spans="4:9" s="11" customFormat="1">
+    <row r="854" spans="3:9" s="11" customFormat="1">
       <c r="D854" s="26"/>
-      <c r="H854" s="2"/>
       <c r="I854" s="26"/>
     </row>
-    <row r="855" spans="4:9" s="11" customFormat="1">
+    <row r="855" spans="3:9" s="2" customFormat="1">
+      <c r="C855" s="11"/>
       <c r="D855" s="26"/>
-      <c r="H855" s="2"/>
-      <c r="I855" s="26"/>
-    </row>
-    <row r="856" spans="4:9" s="11" customFormat="1">
+      <c r="E855" s="11"/>
+      <c r="F855" s="11"/>
+      <c r="G855" s="11"/>
+      <c r="H855" s="11"/>
+      <c r="I855" s="7"/>
+    </row>
+    <row r="856" spans="3:9" s="2" customFormat="1">
+      <c r="C856" s="11"/>
       <c r="D856" s="26"/>
-      <c r="H856" s="2"/>
-      <c r="I856" s="26"/>
-    </row>
-    <row r="857" spans="4:9" s="11" customFormat="1">
+      <c r="E856" s="11"/>
+      <c r="F856" s="11"/>
+      <c r="G856" s="11"/>
+      <c r="H856" s="11"/>
+      <c r="I856" s="7"/>
+    </row>
+    <row r="857" spans="3:9" s="2" customFormat="1">
+      <c r="C857" s="11"/>
       <c r="D857" s="26"/>
-      <c r="H857" s="2"/>
-      <c r="I857" s="26"/>
-    </row>
-    <row r="858" spans="4:9" s="11" customFormat="1">
+      <c r="E857" s="11"/>
+      <c r="F857" s="11"/>
+      <c r="G857" s="11"/>
+      <c r="H857" s="11"/>
+      <c r="I857" s="7"/>
+    </row>
+    <row r="858" spans="3:9" s="2" customFormat="1">
+      <c r="C858" s="11"/>
       <c r="D858" s="26"/>
-      <c r="H858" s="2"/>
-      <c r="I858" s="26"/>
-    </row>
-    <row r="859" spans="4:9" s="11" customFormat="1">
+      <c r="E858" s="11"/>
+      <c r="F858" s="11"/>
+      <c r="G858" s="11"/>
+      <c r="H858" s="11"/>
+      <c r="I858" s="7"/>
+    </row>
+    <row r="859" spans="3:9" s="2" customFormat="1">
+      <c r="C859" s="11"/>
       <c r="D859" s="26"/>
-      <c r="H859" s="2"/>
-      <c r="I859" s="26"/>
-    </row>
-    <row r="860" spans="4:9" s="11" customFormat="1">
+      <c r="E859" s="11"/>
+      <c r="F859" s="11"/>
+      <c r="G859" s="11"/>
+      <c r="H859" s="11"/>
+      <c r="I859" s="7"/>
+    </row>
+    <row r="860" spans="3:9" s="2" customFormat="1">
+      <c r="C860" s="11"/>
       <c r="D860" s="26"/>
-      <c r="H860" s="2"/>
-      <c r="I860" s="26"/>
-    </row>
-    <row r="861" spans="4:9" s="11" customFormat="1">
+      <c r="E860" s="11"/>
+      <c r="F860" s="11"/>
+      <c r="G860" s="11"/>
+      <c r="H860" s="11"/>
+      <c r="I860" s="7"/>
+    </row>
+    <row r="861" spans="3:9" s="2" customFormat="1">
+      <c r="C861" s="11"/>
       <c r="D861" s="26"/>
-      <c r="H861" s="2"/>
-      <c r="I861" s="26"/>
-    </row>
-    <row r="862" spans="4:9" s="11" customFormat="1">
+      <c r="E861" s="11"/>
+      <c r="F861" s="11"/>
+      <c r="G861" s="11"/>
+      <c r="H861" s="11"/>
+      <c r="I861" s="7"/>
+    </row>
+    <row r="862" spans="3:9" s="2" customFormat="1">
+      <c r="C862" s="11"/>
       <c r="D862" s="26"/>
-      <c r="H862" s="2"/>
-      <c r="I862" s="26"/>
-    </row>
-    <row r="863" spans="4:9" s="11" customFormat="1">
+      <c r="E862" s="11"/>
+      <c r="F862" s="11"/>
+      <c r="G862" s="11"/>
+      <c r="H862" s="11"/>
+      <c r="I862" s="7"/>
+    </row>
+    <row r="863" spans="3:9" s="2" customFormat="1">
+      <c r="C863" s="11"/>
       <c r="D863" s="26"/>
-      <c r="H863" s="2"/>
-      <c r="I863" s="26"/>
-    </row>
-    <row r="864" spans="4:9" s="11" customFormat="1">
+      <c r="E863" s="11"/>
+      <c r="F863" s="11"/>
+      <c r="G863" s="11"/>
+      <c r="H863" s="11"/>
+      <c r="I863" s="7"/>
+    </row>
+    <row r="864" spans="3:9" s="2" customFormat="1">
+      <c r="C864" s="11"/>
       <c r="D864" s="26"/>
-      <c r="H864" s="2"/>
-      <c r="I864" s="26"/>
-    </row>
-    <row r="865" spans="4:9" s="11" customFormat="1">
+      <c r="E864" s="11"/>
+      <c r="F864" s="11"/>
+      <c r="G864" s="11"/>
+      <c r="H864" s="11"/>
+      <c r="I864" s="7"/>
+    </row>
+    <row r="865" spans="3:9" s="2" customFormat="1">
+      <c r="C865" s="11"/>
       <c r="D865" s="26"/>
-      <c r="H865" s="2"/>
-      <c r="I865" s="26"/>
-    </row>
-    <row r="866" spans="4:9" s="11" customFormat="1">
+      <c r="E865" s="11"/>
+      <c r="F865" s="11"/>
+      <c r="G865" s="11"/>
+      <c r="H865" s="11"/>
+      <c r="I865" s="7"/>
+    </row>
+    <row r="866" spans="3:9" s="2" customFormat="1">
+      <c r="C866" s="11"/>
       <c r="D866" s="26"/>
-      <c r="H866" s="2"/>
-      <c r="I866" s="26"/>
-    </row>
-    <row r="867" spans="4:9" s="11" customFormat="1">
+      <c r="E866" s="11"/>
+      <c r="F866" s="11"/>
+      <c r="G866" s="11"/>
+      <c r="H866" s="11"/>
+      <c r="I866" s="7"/>
+    </row>
+    <row r="867" spans="3:9" s="2" customFormat="1">
+      <c r="C867" s="11"/>
       <c r="D867" s="26"/>
-      <c r="H867" s="2"/>
-      <c r="I867" s="26"/>
-    </row>
-    <row r="868" spans="4:9" s="11" customFormat="1">
+      <c r="E867" s="11"/>
+      <c r="F867" s="11"/>
+      <c r="G867" s="11"/>
+      <c r="H867" s="11"/>
+      <c r="I867" s="7"/>
+    </row>
+    <row r="868" spans="3:9" s="2" customFormat="1">
+      <c r="C868" s="11"/>
       <c r="D868" s="26"/>
-      <c r="H868" s="2"/>
-      <c r="I868" s="26"/>
-    </row>
-    <row r="869" spans="4:9" s="11" customFormat="1">
+      <c r="E868" s="11"/>
+      <c r="F868" s="11"/>
+      <c r="G868" s="11"/>
+      <c r="H868" s="11"/>
+      <c r="I868" s="7"/>
+    </row>
+    <row r="869" spans="3:9" s="2" customFormat="1">
+      <c r="C869" s="11"/>
       <c r="D869" s="26"/>
-      <c r="H869" s="2"/>
-      <c r="I869" s="26"/>
-    </row>
-    <row r="870" spans="4:9" s="11" customFormat="1">
+      <c r="E869" s="11"/>
+      <c r="F869" s="11"/>
+      <c r="G869" s="11"/>
+      <c r="H869" s="11"/>
+      <c r="I869" s="7"/>
+    </row>
+    <row r="870" spans="3:9" s="2" customFormat="1">
+      <c r="C870" s="11"/>
       <c r="D870" s="26"/>
-      <c r="H870" s="2"/>
-      <c r="I870" s="26"/>
-    </row>
-    <row r="871" spans="4:9" s="11" customFormat="1">
+      <c r="E870" s="11"/>
+      <c r="F870" s="11"/>
+      <c r="G870" s="11"/>
+      <c r="I870" s="7"/>
+    </row>
+    <row r="871" spans="3:9" s="2" customFormat="1">
+      <c r="C871" s="11"/>
       <c r="D871" s="26"/>
-      <c r="H871" s="2"/>
-      <c r="I871" s="26"/>
-    </row>
-    <row r="872" spans="4:9" s="11" customFormat="1">
+      <c r="E871" s="11"/>
+      <c r="F871" s="11"/>
+      <c r="G871" s="11"/>
+      <c r="I871" s="7"/>
+    </row>
+    <row r="872" spans="3:9" s="2" customFormat="1">
+      <c r="C872" s="11"/>
       <c r="D872" s="26"/>
-      <c r="H872" s="2"/>
-      <c r="I872" s="26"/>
-    </row>
-    <row r="873" spans="4:9" s="11" customFormat="1">
+      <c r="E872" s="11"/>
+      <c r="F872" s="11"/>
+      <c r="G872" s="11"/>
+      <c r="I872" s="7"/>
+    </row>
+    <row r="873" spans="3:9" s="2" customFormat="1">
+      <c r="C873" s="11"/>
       <c r="D873" s="26"/>
-      <c r="H873" s="2"/>
-      <c r="I873" s="26"/>
-    </row>
-    <row r="874" spans="4:9" s="11" customFormat="1">
+      <c r="E873" s="11"/>
+      <c r="G873" s="11"/>
+      <c r="I873" s="7"/>
+    </row>
+    <row r="874" spans="3:9" s="2" customFormat="1">
+      <c r="C874" s="11"/>
       <c r="D874" s="26"/>
-      <c r="H874" s="2"/>
-      <c r="I874" s="26"/>
-    </row>
-    <row r="875" spans="4:9" s="11" customFormat="1">
+      <c r="E874" s="11"/>
+      <c r="G874" s="11"/>
+      <c r="I874" s="7"/>
+    </row>
+    <row r="875" spans="3:9" s="2" customFormat="1">
+      <c r="C875" s="11"/>
       <c r="D875" s="26"/>
-      <c r="H875" s="2"/>
-      <c r="I875" s="26"/>
-    </row>
-    <row r="876" spans="4:9" s="11" customFormat="1">
+      <c r="E875" s="11"/>
+      <c r="G875" s="11"/>
+      <c r="I875" s="7"/>
+    </row>
+    <row r="876" spans="3:9" s="2" customFormat="1">
+      <c r="C876" s="11"/>
       <c r="D876" s="26"/>
-      <c r="H876" s="2"/>
-      <c r="I876" s="26"/>
-    </row>
-    <row r="877" spans="4:9" s="11" customFormat="1">
+      <c r="E876" s="11"/>
+      <c r="G876" s="11"/>
+      <c r="I876" s="7"/>
+    </row>
+    <row r="877" spans="3:9" s="2" customFormat="1">
+      <c r="C877" s="11"/>
       <c r="D877" s="26"/>
-      <c r="H877" s="2"/>
-      <c r="I877" s="26"/>
-    </row>
-    <row r="878" spans="4:9" s="11" customFormat="1">
+      <c r="E877" s="11"/>
+      <c r="G877" s="11"/>
+      <c r="I877" s="7"/>
+    </row>
+    <row r="878" spans="3:9" s="2" customFormat="1">
+      <c r="C878" s="11"/>
       <c r="D878" s="26"/>
-      <c r="H878" s="2"/>
-      <c r="I878" s="26"/>
-    </row>
-    <row r="879" spans="4:9" s="11" customFormat="1">
+      <c r="E878" s="11"/>
+      <c r="G878" s="11"/>
+      <c r="I878" s="7"/>
+    </row>
+    <row r="879" spans="3:9" s="2" customFormat="1">
+      <c r="C879" s="11"/>
       <c r="D879" s="26"/>
-      <c r="H879" s="2"/>
-      <c r="I879" s="26"/>
-    </row>
-    <row r="880" spans="4:9" s="11" customFormat="1">
+      <c r="E879" s="11"/>
+      <c r="G879" s="11"/>
+      <c r="I879" s="7"/>
+    </row>
+    <row r="880" spans="3:9" s="11" customFormat="1">
       <c r="D880" s="26"/>
-      <c r="H880" s="2"/>
       <c r="I880" s="26"/>
     </row>
     <row r="881" spans="3:9" s="11" customFormat="1">
       <c r="D881" s="26"/>
-      <c r="H881" s="2"/>
       <c r="I881" s="26"/>
     </row>
-    <row r="882" spans="3:9" s="11" customFormat="1">
+    <row r="882" spans="3:9" s="2" customFormat="1">
+      <c r="C882" s="11"/>
       <c r="D882" s="26"/>
-      <c r="H882" s="2"/>
-      <c r="I882" s="26"/>
-    </row>
-    <row r="883" spans="3:9" s="11" customFormat="1">
+      <c r="E882" s="11"/>
+      <c r="F882" s="11"/>
+      <c r="G882" s="11"/>
+      <c r="H882" s="11"/>
+      <c r="I882" s="7"/>
+    </row>
+    <row r="883" spans="3:9" s="2" customFormat="1">
+      <c r="C883" s="11"/>
       <c r="D883" s="26"/>
-      <c r="I883" s="26"/>
-    </row>
-    <row r="884" spans="3:9" s="11" customFormat="1">
+      <c r="E883" s="11"/>
+      <c r="F883" s="11"/>
+      <c r="G883" s="11"/>
+      <c r="H883" s="11"/>
+      <c r="I883" s="7"/>
+    </row>
+    <row r="884" spans="3:9" s="2" customFormat="1">
+      <c r="C884" s="11"/>
       <c r="D884" s="26"/>
-      <c r="I884" s="26"/>
+      <c r="E884" s="11"/>
+      <c r="F884" s="11"/>
+      <c r="G884" s="11"/>
+      <c r="H884" s="11"/>
+      <c r="I884" s="7"/>
     </row>
     <row r="885" spans="3:9" s="2" customFormat="1">
       <c r="C885" s="11"/>
@@ -7592,23 +7067,13 @@
       <c r="H892" s="11"/>
       <c r="I892" s="7"/>
     </row>
-    <row r="893" spans="3:9" s="2" customFormat="1">
-      <c r="C893" s="11"/>
+    <row r="893" spans="3:9" s="11" customFormat="1">
       <c r="D893" s="26"/>
-      <c r="E893" s="11"/>
-      <c r="F893" s="11"/>
-      <c r="G893" s="11"/>
-      <c r="H893" s="11"/>
-      <c r="I893" s="7"/>
-    </row>
-    <row r="894" spans="3:9" s="2" customFormat="1">
-      <c r="C894" s="11"/>
+      <c r="I893" s="26"/>
+    </row>
+    <row r="894" spans="3:9" s="11" customFormat="1">
       <c r="D894" s="26"/>
-      <c r="E894" s="11"/>
-      <c r="F894" s="11"/>
-      <c r="G894" s="11"/>
-      <c r="H894" s="11"/>
-      <c r="I894" s="7"/>
+      <c r="I894" s="26"/>
     </row>
     <row r="895" spans="3:9" s="2" customFormat="1">
       <c r="C895" s="11"/>
@@ -7661,6 +7126,7 @@
       <c r="E900" s="11"/>
       <c r="F900" s="11"/>
       <c r="G900" s="11"/>
+      <c r="H900" s="11"/>
       <c r="I900" s="7"/>
     </row>
     <row r="901" spans="3:9" s="2" customFormat="1">
@@ -7669,6 +7135,7 @@
       <c r="E901" s="11"/>
       <c r="F901" s="11"/>
       <c r="G901" s="11"/>
+      <c r="H901" s="11"/>
       <c r="I901" s="7"/>
     </row>
     <row r="902" spans="3:9" s="2" customFormat="1">
@@ -7677,56 +7144,51 @@
       <c r="E902" s="11"/>
       <c r="F902" s="11"/>
       <c r="G902" s="11"/>
+      <c r="H902" s="11"/>
       <c r="I902" s="7"/>
     </row>
     <row r="903" spans="3:9" s="2" customFormat="1">
       <c r="C903" s="11"/>
       <c r="D903" s="26"/>
       <c r="E903" s="11"/>
+      <c r="F903" s="11"/>
       <c r="G903" s="11"/>
+      <c r="H903" s="11"/>
       <c r="I903" s="7"/>
     </row>
     <row r="904" spans="3:9" s="2" customFormat="1">
       <c r="C904" s="11"/>
       <c r="D904" s="26"/>
       <c r="E904" s="11"/>
+      <c r="F904" s="11"/>
       <c r="G904" s="11"/>
+      <c r="H904" s="11"/>
       <c r="I904" s="7"/>
     </row>
     <row r="905" spans="3:9" s="2" customFormat="1">
       <c r="C905" s="11"/>
       <c r="D905" s="26"/>
       <c r="E905" s="11"/>
+      <c r="F905" s="11"/>
       <c r="G905" s="11"/>
+      <c r="H905" s="11"/>
       <c r="I905" s="7"/>
     </row>
-    <row r="906" spans="3:9" s="2" customFormat="1">
-      <c r="C906" s="11"/>
+    <row r="906" spans="3:9" s="11" customFormat="1">
       <c r="D906" s="26"/>
-      <c r="E906" s="11"/>
-      <c r="G906" s="11"/>
-      <c r="I906" s="7"/>
-    </row>
-    <row r="907" spans="3:9" s="2" customFormat="1">
-      <c r="C907" s="11"/>
+      <c r="I906" s="26"/>
+    </row>
+    <row r="907" spans="3:9" s="11" customFormat="1">
       <c r="D907" s="26"/>
-      <c r="E907" s="11"/>
-      <c r="G907" s="11"/>
-      <c r="I907" s="7"/>
-    </row>
-    <row r="908" spans="3:9" s="2" customFormat="1">
-      <c r="C908" s="11"/>
+      <c r="I907" s="26"/>
+    </row>
+    <row r="908" spans="3:9" s="11" customFormat="1">
       <c r="D908" s="26"/>
-      <c r="E908" s="11"/>
-      <c r="G908" s="11"/>
-      <c r="I908" s="7"/>
-    </row>
-    <row r="909" spans="3:9" s="2" customFormat="1">
-      <c r="C909" s="11"/>
+      <c r="I908" s="26"/>
+    </row>
+    <row r="909" spans="3:9" s="11" customFormat="1">
       <c r="D909" s="26"/>
-      <c r="E909" s="11"/>
-      <c r="G909" s="11"/>
-      <c r="I909" s="7"/>
+      <c r="I909" s="26"/>
     </row>
     <row r="910" spans="3:9" s="11" customFormat="1">
       <c r="D910" s="26"/>
@@ -7736,245 +7198,135 @@
       <c r="D911" s="26"/>
       <c r="I911" s="26"/>
     </row>
-    <row r="912" spans="3:9" s="2" customFormat="1">
-      <c r="C912" s="11"/>
+    <row r="912" spans="3:9" s="11" customFormat="1">
       <c r="D912" s="26"/>
-      <c r="E912" s="11"/>
-      <c r="F912" s="11"/>
-      <c r="G912" s="11"/>
-      <c r="H912" s="11"/>
-      <c r="I912" s="7"/>
-    </row>
-    <row r="913" spans="3:9" s="2" customFormat="1">
-      <c r="C913" s="11"/>
+      <c r="I912" s="26"/>
+    </row>
+    <row r="913" spans="4:9" s="11" customFormat="1">
       <c r="D913" s="26"/>
-      <c r="E913" s="11"/>
-      <c r="F913" s="11"/>
-      <c r="G913" s="11"/>
-      <c r="H913" s="11"/>
-      <c r="I913" s="7"/>
-    </row>
-    <row r="914" spans="3:9" s="2" customFormat="1">
-      <c r="C914" s="11"/>
+      <c r="I913" s="26"/>
+    </row>
+    <row r="914" spans="4:9" s="11" customFormat="1">
       <c r="D914" s="26"/>
-      <c r="E914" s="11"/>
-      <c r="F914" s="11"/>
-      <c r="G914" s="11"/>
-      <c r="H914" s="11"/>
-      <c r="I914" s="7"/>
-    </row>
-    <row r="915" spans="3:9" s="2" customFormat="1">
-      <c r="C915" s="11"/>
+      <c r="I914" s="26"/>
+    </row>
+    <row r="915" spans="4:9" s="11" customFormat="1">
       <c r="D915" s="26"/>
-      <c r="E915" s="11"/>
-      <c r="F915" s="11"/>
-      <c r="G915" s="11"/>
-      <c r="H915" s="11"/>
-      <c r="I915" s="7"/>
-    </row>
-    <row r="916" spans="3:9" s="2" customFormat="1">
-      <c r="C916" s="11"/>
+      <c r="I915" s="26"/>
+    </row>
+    <row r="916" spans="4:9" s="11" customFormat="1">
       <c r="D916" s="26"/>
-      <c r="E916" s="11"/>
-      <c r="F916" s="11"/>
-      <c r="G916" s="11"/>
-      <c r="H916" s="11"/>
-      <c r="I916" s="7"/>
-    </row>
-    <row r="917" spans="3:9" s="2" customFormat="1">
-      <c r="C917" s="11"/>
+      <c r="I916" s="26"/>
+    </row>
+    <row r="917" spans="4:9" s="11" customFormat="1">
       <c r="D917" s="26"/>
-      <c r="E917" s="11"/>
-      <c r="F917" s="11"/>
-      <c r="G917" s="11"/>
-      <c r="H917" s="11"/>
-      <c r="I917" s="7"/>
-    </row>
-    <row r="918" spans="3:9" s="2" customFormat="1">
-      <c r="C918" s="11"/>
+      <c r="I917" s="26"/>
+    </row>
+    <row r="918" spans="4:9" s="11" customFormat="1">
       <c r="D918" s="26"/>
-      <c r="E918" s="11"/>
-      <c r="F918" s="11"/>
-      <c r="G918" s="11"/>
-      <c r="H918" s="11"/>
-      <c r="I918" s="7"/>
-    </row>
-    <row r="919" spans="3:9" s="2" customFormat="1">
-      <c r="C919" s="11"/>
+      <c r="I918" s="26"/>
+    </row>
+    <row r="919" spans="4:9" s="11" customFormat="1">
       <c r="D919" s="26"/>
-      <c r="E919" s="11"/>
-      <c r="F919" s="11"/>
-      <c r="G919" s="11"/>
-      <c r="H919" s="11"/>
-      <c r="I919" s="7"/>
-    </row>
-    <row r="920" spans="3:9" s="2" customFormat="1">
-      <c r="C920" s="11"/>
+      <c r="I919" s="26"/>
+    </row>
+    <row r="920" spans="4:9" s="11" customFormat="1">
       <c r="D920" s="26"/>
-      <c r="E920" s="11"/>
-      <c r="F920" s="11"/>
-      <c r="G920" s="11"/>
-      <c r="H920" s="11"/>
-      <c r="I920" s="7"/>
-    </row>
-    <row r="921" spans="3:9" s="2" customFormat="1">
-      <c r="C921" s="11"/>
+      <c r="I920" s="26"/>
+    </row>
+    <row r="921" spans="4:9" s="11" customFormat="1">
       <c r="D921" s="26"/>
-      <c r="E921" s="11"/>
-      <c r="F921" s="11"/>
-      <c r="G921" s="11"/>
-      <c r="H921" s="11"/>
-      <c r="I921" s="7"/>
-    </row>
-    <row r="922" spans="3:9" s="2" customFormat="1">
-      <c r="C922" s="11"/>
+      <c r="I921" s="26"/>
+    </row>
+    <row r="922" spans="4:9" s="11" customFormat="1">
       <c r="D922" s="26"/>
-      <c r="E922" s="11"/>
-      <c r="F922" s="11"/>
-      <c r="G922" s="11"/>
-      <c r="H922" s="11"/>
-      <c r="I922" s="7"/>
-    </row>
-    <row r="923" spans="3:9" s="11" customFormat="1">
+      <c r="I922" s="26"/>
+    </row>
+    <row r="923" spans="4:9" s="11" customFormat="1">
       <c r="D923" s="26"/>
       <c r="I923" s="26"/>
     </row>
-    <row r="924" spans="3:9" s="11" customFormat="1">
+    <row r="924" spans="4:9" s="11" customFormat="1">
       <c r="D924" s="26"/>
       <c r="I924" s="26"/>
     </row>
-    <row r="925" spans="3:9" s="2" customFormat="1">
-      <c r="C925" s="11"/>
+    <row r="925" spans="4:9" s="11" customFormat="1">
       <c r="D925" s="26"/>
-      <c r="E925" s="11"/>
-      <c r="F925" s="11"/>
-      <c r="G925" s="11"/>
-      <c r="H925" s="11"/>
-      <c r="I925" s="7"/>
-    </row>
-    <row r="926" spans="3:9" s="2" customFormat="1">
-      <c r="C926" s="11"/>
-      <c r="D926" s="26"/>
-      <c r="E926" s="11"/>
-      <c r="F926" s="11"/>
-      <c r="G926" s="11"/>
-      <c r="H926" s="11"/>
+      <c r="I925" s="26"/>
+    </row>
+    <row r="926" spans="4:9" s="2" customFormat="1">
+      <c r="D926" s="7"/>
       <c r="I926" s="7"/>
     </row>
-    <row r="927" spans="3:9" s="2" customFormat="1">
-      <c r="C927" s="11"/>
-      <c r="D927" s="26"/>
-      <c r="E927" s="11"/>
-      <c r="F927" s="11"/>
-      <c r="G927" s="11"/>
-      <c r="H927" s="11"/>
+    <row r="927" spans="4:9" s="2" customFormat="1">
+      <c r="D927" s="7"/>
       <c r="I927" s="7"/>
     </row>
-    <row r="928" spans="3:9" s="2" customFormat="1">
-      <c r="C928" s="11"/>
-      <c r="D928" s="26"/>
-      <c r="E928" s="11"/>
-      <c r="F928" s="11"/>
-      <c r="G928" s="11"/>
-      <c r="H928" s="11"/>
+    <row r="928" spans="4:9" s="2" customFormat="1">
+      <c r="D928" s="7"/>
       <c r="I928" s="7"/>
     </row>
-    <row r="929" spans="3:9" s="2" customFormat="1">
-      <c r="C929" s="11"/>
-      <c r="D929" s="26"/>
-      <c r="E929" s="11"/>
-      <c r="F929" s="11"/>
-      <c r="G929" s="11"/>
-      <c r="H929" s="11"/>
+    <row r="929" spans="4:9" s="2" customFormat="1">
+      <c r="D929" s="7"/>
       <c r="I929" s="7"/>
     </row>
-    <row r="930" spans="3:9" s="2" customFormat="1">
-      <c r="C930" s="11"/>
-      <c r="D930" s="26"/>
-      <c r="E930" s="11"/>
-      <c r="F930" s="11"/>
-      <c r="G930" s="11"/>
-      <c r="H930" s="11"/>
+    <row r="930" spans="4:9" s="2" customFormat="1">
+      <c r="D930" s="7"/>
       <c r="I930" s="7"/>
     </row>
-    <row r="931" spans="3:9" s="2" customFormat="1">
-      <c r="C931" s="11"/>
-      <c r="D931" s="26"/>
-      <c r="E931" s="11"/>
-      <c r="F931" s="11"/>
-      <c r="G931" s="11"/>
-      <c r="H931" s="11"/>
+    <row r="931" spans="4:9" s="2" customFormat="1">
+      <c r="D931" s="7"/>
       <c r="I931" s="7"/>
     </row>
-    <row r="932" spans="3:9" s="2" customFormat="1">
-      <c r="C932" s="11"/>
-      <c r="D932" s="26"/>
-      <c r="E932" s="11"/>
-      <c r="F932" s="11"/>
-      <c r="G932" s="11"/>
-      <c r="H932" s="11"/>
+    <row r="932" spans="4:9" s="2" customFormat="1">
+      <c r="D932" s="7"/>
       <c r="I932" s="7"/>
     </row>
-    <row r="933" spans="3:9" s="2" customFormat="1">
-      <c r="C933" s="11"/>
+    <row r="933" spans="4:9" s="11" customFormat="1">
       <c r="D933" s="26"/>
-      <c r="E933" s="11"/>
-      <c r="F933" s="11"/>
-      <c r="G933" s="11"/>
-      <c r="H933" s="11"/>
-      <c r="I933" s="7"/>
-    </row>
-    <row r="934" spans="3:9" s="2" customFormat="1">
-      <c r="C934" s="11"/>
+      <c r="I933" s="26"/>
+    </row>
+    <row r="934" spans="4:9" s="11" customFormat="1">
       <c r="D934" s="26"/>
-      <c r="E934" s="11"/>
-      <c r="F934" s="11"/>
-      <c r="G934" s="11"/>
-      <c r="H934" s="11"/>
-      <c r="I934" s="7"/>
-    </row>
-    <row r="935" spans="3:9" s="2" customFormat="1">
-      <c r="C935" s="11"/>
+      <c r="I934" s="26"/>
+    </row>
+    <row r="935" spans="4:9" s="11" customFormat="1">
       <c r="D935" s="26"/>
-      <c r="E935" s="11"/>
-      <c r="F935" s="11"/>
-      <c r="G935" s="11"/>
-      <c r="H935" s="11"/>
-      <c r="I935" s="7"/>
-    </row>
-    <row r="936" spans="3:9" s="11" customFormat="1">
+      <c r="I935" s="26"/>
+    </row>
+    <row r="936" spans="4:9" s="11" customFormat="1">
       <c r="D936" s="26"/>
       <c r="I936" s="26"/>
     </row>
-    <row r="937" spans="3:9" s="11" customFormat="1">
+    <row r="937" spans="4:9" s="11" customFormat="1">
       <c r="D937" s="26"/>
       <c r="I937" s="26"/>
     </row>
-    <row r="938" spans="3:9" s="11" customFormat="1">
+    <row r="938" spans="4:9" s="11" customFormat="1">
       <c r="D938" s="26"/>
       <c r="I938" s="26"/>
     </row>
-    <row r="939" spans="3:9" s="11" customFormat="1">
+    <row r="939" spans="4:9" s="11" customFormat="1">
       <c r="D939" s="26"/>
       <c r="I939" s="26"/>
     </row>
-    <row r="940" spans="3:9" s="11" customFormat="1">
+    <row r="940" spans="4:9" s="11" customFormat="1">
       <c r="D940" s="26"/>
       <c r="I940" s="26"/>
     </row>
-    <row r="941" spans="3:9" s="11" customFormat="1">
+    <row r="941" spans="4:9" s="11" customFormat="1">
       <c r="D941" s="26"/>
       <c r="I941" s="26"/>
     </row>
-    <row r="942" spans="3:9" s="11" customFormat="1">
+    <row r="942" spans="4:9" s="11" customFormat="1">
       <c r="D942" s="26"/>
       <c r="I942" s="26"/>
     </row>
-    <row r="943" spans="3:9" s="11" customFormat="1">
+    <row r="943" spans="4:9" s="11" customFormat="1">
       <c r="D943" s="26"/>
       <c r="I943" s="26"/>
     </row>
-    <row r="944" spans="3:9" s="11" customFormat="1">
+    <row r="944" spans="4:9" s="11" customFormat="1">
       <c r="D944" s="26"/>
       <c r="I944" s="26"/>
     </row>
@@ -8022,33 +7374,33 @@
       <c r="D955" s="26"/>
       <c r="I955" s="26"/>
     </row>
-    <row r="956" spans="4:9" s="2" customFormat="1">
-      <c r="D956" s="7"/>
-      <c r="I956" s="7"/>
-    </row>
-    <row r="957" spans="4:9" s="2" customFormat="1">
-      <c r="D957" s="7"/>
-      <c r="I957" s="7"/>
-    </row>
-    <row r="958" spans="4:9" s="2" customFormat="1">
-      <c r="D958" s="7"/>
-      <c r="I958" s="7"/>
-    </row>
-    <row r="959" spans="4:9" s="2" customFormat="1">
-      <c r="D959" s="7"/>
-      <c r="I959" s="7"/>
-    </row>
-    <row r="960" spans="4:9" s="2" customFormat="1">
-      <c r="D960" s="7"/>
-      <c r="I960" s="7"/>
-    </row>
-    <row r="961" spans="4:9" s="2" customFormat="1">
-      <c r="D961" s="7"/>
-      <c r="I961" s="7"/>
-    </row>
-    <row r="962" spans="4:9" s="2" customFormat="1">
-      <c r="D962" s="7"/>
-      <c r="I962" s="7"/>
+    <row r="956" spans="4:9" s="11" customFormat="1">
+      <c r="D956" s="26"/>
+      <c r="I956" s="26"/>
+    </row>
+    <row r="957" spans="4:9" s="11" customFormat="1">
+      <c r="D957" s="26"/>
+      <c r="I957" s="26"/>
+    </row>
+    <row r="958" spans="4:9" s="11" customFormat="1">
+      <c r="D958" s="26"/>
+      <c r="I958" s="26"/>
+    </row>
+    <row r="959" spans="4:9" s="11" customFormat="1">
+      <c r="D959" s="26"/>
+      <c r="I959" s="26"/>
+    </row>
+    <row r="960" spans="4:9" s="11" customFormat="1">
+      <c r="D960" s="26"/>
+      <c r="I960" s="26"/>
+    </row>
+    <row r="961" spans="4:9" s="11" customFormat="1">
+      <c r="D961" s="26"/>
+      <c r="I961" s="26"/>
+    </row>
+    <row r="962" spans="4:9" s="11" customFormat="1">
+      <c r="D962" s="26"/>
+      <c r="I962" s="26"/>
     </row>
     <row r="963" spans="4:9" s="11" customFormat="1">
       <c r="D963" s="26"/>
@@ -8116,43 +7468,43 @@
     </row>
     <row r="979" spans="4:9" s="11" customFormat="1">
       <c r="D979" s="26"/>
-      <c r="I979" s="26"/>
+      <c r="I979" s="7"/>
     </row>
     <row r="980" spans="4:9" s="11" customFormat="1">
       <c r="D980" s="26"/>
-      <c r="I980" s="26"/>
+      <c r="I980" s="7"/>
     </row>
     <row r="981" spans="4:9" s="11" customFormat="1">
       <c r="D981" s="26"/>
-      <c r="I981" s="26"/>
-    </row>
-    <row r="982" spans="4:9" s="11" customFormat="1">
-      <c r="D982" s="26"/>
-      <c r="I982" s="26"/>
-    </row>
-    <row r="983" spans="4:9" s="11" customFormat="1">
-      <c r="D983" s="26"/>
-      <c r="I983" s="26"/>
-    </row>
-    <row r="984" spans="4:9" s="11" customFormat="1">
-      <c r="D984" s="26"/>
-      <c r="I984" s="26"/>
-    </row>
-    <row r="985" spans="4:9" s="11" customFormat="1">
-      <c r="D985" s="26"/>
-      <c r="I985" s="26"/>
-    </row>
-    <row r="986" spans="4:9" s="11" customFormat="1">
-      <c r="D986" s="26"/>
-      <c r="I986" s="26"/>
-    </row>
-    <row r="987" spans="4:9" s="11" customFormat="1">
-      <c r="D987" s="26"/>
-      <c r="I987" s="26"/>
-    </row>
-    <row r="988" spans="4:9" s="11" customFormat="1">
-      <c r="D988" s="26"/>
-      <c r="I988" s="26"/>
+      <c r="I981" s="7"/>
+    </row>
+    <row r="982" spans="4:9" s="2" customFormat="1">
+      <c r="D982" s="7"/>
+      <c r="I982" s="7"/>
+    </row>
+    <row r="983" spans="4:9" s="2" customFormat="1">
+      <c r="D983" s="7"/>
+      <c r="I983" s="7"/>
+    </row>
+    <row r="984" spans="4:9" s="2" customFormat="1">
+      <c r="D984" s="7"/>
+      <c r="I984" s="7"/>
+    </row>
+    <row r="985" spans="4:9" s="2" customFormat="1">
+      <c r="D985" s="7"/>
+      <c r="I985" s="7"/>
+    </row>
+    <row r="986" spans="4:9" s="2" customFormat="1">
+      <c r="D986" s="7"/>
+      <c r="I986" s="7"/>
+    </row>
+    <row r="987" spans="4:9" s="2" customFormat="1">
+      <c r="D987" s="7"/>
+      <c r="I987" s="7"/>
+    </row>
+    <row r="988" spans="4:9" s="2" customFormat="1">
+      <c r="D988" s="7"/>
+      <c r="I988" s="7"/>
     </row>
     <row r="989" spans="4:9" s="11" customFormat="1">
       <c r="D989" s="26"/>
@@ -8236,147 +7588,163 @@
     </row>
     <row r="1009" spans="4:9" s="11" customFormat="1">
       <c r="D1009" s="26"/>
-      <c r="I1009" s="7"/>
+      <c r="I1009" s="26"/>
     </row>
     <row r="1010" spans="4:9" s="11" customFormat="1">
       <c r="D1010" s="26"/>
-      <c r="I1010" s="7"/>
+      <c r="I1010" s="26"/>
     </row>
     <row r="1011" spans="4:9" s="11" customFormat="1">
       <c r="D1011" s="26"/>
-      <c r="I1011" s="7"/>
-    </row>
-    <row r="1012" spans="4:9" s="2" customFormat="1">
-      <c r="D1012" s="7"/>
-      <c r="I1012" s="7"/>
-    </row>
-    <row r="1013" spans="4:9" s="2" customFormat="1">
-      <c r="D1013" s="7"/>
-      <c r="I1013" s="7"/>
-    </row>
-    <row r="1014" spans="4:9" s="2" customFormat="1">
-      <c r="D1014" s="7"/>
-      <c r="I1014" s="7"/>
+      <c r="I1011" s="26"/>
+    </row>
+    <row r="1012" spans="4:9" s="11" customFormat="1">
+      <c r="D1012" s="26"/>
+      <c r="I1012" s="26"/>
+    </row>
+    <row r="1013" spans="4:9" s="11" customFormat="1">
+      <c r="D1013" s="26"/>
+      <c r="I1013" s="26"/>
+    </row>
+    <row r="1014" spans="4:9" s="11" customFormat="1">
+      <c r="D1014" s="26"/>
+      <c r="I1014" s="26"/>
     </row>
     <row r="1015" spans="4:9" s="2" customFormat="1">
       <c r="D1015" s="7"/>
+      <c r="H1015" s="1"/>
       <c r="I1015" s="7"/>
     </row>
     <row r="1016" spans="4:9" s="2" customFormat="1">
       <c r="D1016" s="7"/>
+      <c r="H1016" s="1"/>
       <c r="I1016" s="7"/>
     </row>
     <row r="1017" spans="4:9" s="2" customFormat="1">
       <c r="D1017" s="7"/>
+      <c r="H1017" s="1"/>
       <c r="I1017" s="7"/>
     </row>
     <row r="1018" spans="4:9" s="2" customFormat="1">
       <c r="D1018" s="7"/>
+      <c r="H1018" s="1"/>
       <c r="I1018" s="7"/>
     </row>
-    <row r="1019" spans="4:9" s="11" customFormat="1">
-      <c r="D1019" s="26"/>
-      <c r="I1019" s="26"/>
-    </row>
-    <row r="1020" spans="4:9" s="11" customFormat="1">
-      <c r="D1020" s="26"/>
-      <c r="I1020" s="26"/>
-    </row>
-    <row r="1021" spans="4:9" s="11" customFormat="1">
-      <c r="D1021" s="26"/>
-      <c r="I1021" s="26"/>
-    </row>
-    <row r="1022" spans="4:9" s="11" customFormat="1">
-      <c r="D1022" s="26"/>
-      <c r="I1022" s="26"/>
-    </row>
-    <row r="1023" spans="4:9" s="11" customFormat="1">
-      <c r="D1023" s="26"/>
-      <c r="I1023" s="26"/>
-    </row>
-    <row r="1024" spans="4:9" s="11" customFormat="1">
-      <c r="D1024" s="26"/>
-      <c r="I1024" s="26"/>
-    </row>
-    <row r="1025" spans="4:9" s="11" customFormat="1">
-      <c r="D1025" s="26"/>
-      <c r="I1025" s="26"/>
-    </row>
-    <row r="1026" spans="4:9" s="11" customFormat="1">
-      <c r="D1026" s="26"/>
-      <c r="I1026" s="26"/>
-    </row>
-    <row r="1027" spans="4:9" s="11" customFormat="1">
-      <c r="D1027" s="26"/>
-      <c r="I1027" s="26"/>
-    </row>
-    <row r="1028" spans="4:9" s="11" customFormat="1">
-      <c r="D1028" s="26"/>
-      <c r="I1028" s="26"/>
-    </row>
-    <row r="1029" spans="4:9" s="11" customFormat="1">
-      <c r="D1029" s="26"/>
-      <c r="I1029" s="26"/>
-    </row>
-    <row r="1030" spans="4:9" s="11" customFormat="1">
-      <c r="D1030" s="26"/>
-      <c r="I1030" s="26"/>
-    </row>
-    <row r="1031" spans="4:9" s="11" customFormat="1">
-      <c r="D1031" s="26"/>
-      <c r="I1031" s="26"/>
-    </row>
-    <row r="1032" spans="4:9" s="11" customFormat="1">
-      <c r="D1032" s="26"/>
-      <c r="I1032" s="26"/>
-    </row>
-    <row r="1033" spans="4:9" s="11" customFormat="1">
-      <c r="D1033" s="26"/>
-      <c r="I1033" s="26"/>
-    </row>
-    <row r="1034" spans="4:9" s="11" customFormat="1">
-      <c r="D1034" s="26"/>
-      <c r="I1034" s="26"/>
-    </row>
-    <row r="1035" spans="4:9" s="11" customFormat="1">
-      <c r="D1035" s="26"/>
-      <c r="I1035" s="26"/>
-    </row>
-    <row r="1036" spans="4:9" s="11" customFormat="1">
-      <c r="D1036" s="26"/>
-      <c r="I1036" s="26"/>
-    </row>
-    <row r="1037" spans="4:9" s="11" customFormat="1">
-      <c r="D1037" s="26"/>
-      <c r="I1037" s="26"/>
-    </row>
-    <row r="1038" spans="4:9" s="11" customFormat="1">
-      <c r="D1038" s="26"/>
-      <c r="I1038" s="26"/>
-    </row>
-    <row r="1039" spans="4:9" s="11" customFormat="1">
-      <c r="D1039" s="26"/>
-      <c r="I1039" s="26"/>
-    </row>
-    <row r="1040" spans="4:9" s="11" customFormat="1">
-      <c r="D1040" s="26"/>
-      <c r="I1040" s="26"/>
-    </row>
-    <row r="1041" spans="4:9" s="11" customFormat="1">
-      <c r="D1041" s="26"/>
-      <c r="I1041" s="26"/>
-    </row>
-    <row r="1042" spans="4:9" s="11" customFormat="1">
-      <c r="D1042" s="26"/>
-      <c r="I1042" s="26"/>
-    </row>
-    <row r="1043" spans="4:9" s="11" customFormat="1">
-      <c r="D1043" s="26"/>
-      <c r="I1043" s="26"/>
-    </row>
-    <row r="1044" spans="4:9" s="11" customFormat="1">
-      <c r="D1044" s="26"/>
-      <c r="I1044" s="26"/>
+    <row r="1019" spans="4:9" s="2" customFormat="1">
+      <c r="D1019" s="7"/>
+      <c r="H1019" s="1"/>
+      <c r="I1019" s="7"/>
+    </row>
+    <row r="1020" spans="4:9" s="2" customFormat="1">
+      <c r="D1020" s="7"/>
+      <c r="H1020" s="1"/>
+      <c r="I1020" s="7"/>
+    </row>
+    <row r="1021" spans="4:9" s="2" customFormat="1">
+      <c r="D1021" s="7"/>
+      <c r="H1021" s="1"/>
+      <c r="I1021" s="7"/>
+    </row>
+    <row r="1022" spans="4:9" s="2" customFormat="1">
+      <c r="D1022" s="7"/>
+      <c r="H1022" s="1"/>
+      <c r="I1022" s="7"/>
+    </row>
+    <row r="1023" spans="4:9" s="2" customFormat="1">
+      <c r="D1023" s="7"/>
+      <c r="H1023" s="1"/>
+      <c r="I1023" s="7"/>
+    </row>
+    <row r="1024" spans="4:9" s="2" customFormat="1">
+      <c r="D1024" s="7"/>
+      <c r="H1024" s="1"/>
+      <c r="I1024" s="7"/>
+    </row>
+    <row r="1025" spans="4:9" s="2" customFormat="1">
+      <c r="D1025" s="7"/>
+      <c r="H1025" s="1"/>
+      <c r="I1025" s="7"/>
+    </row>
+    <row r="1026" spans="4:9" s="2" customFormat="1">
+      <c r="D1026" s="7"/>
+      <c r="H1026" s="1"/>
+      <c r="I1026" s="7"/>
+    </row>
+    <row r="1027" spans="4:9" s="2" customFormat="1">
+      <c r="D1027" s="7"/>
+      <c r="H1027" s="1"/>
+      <c r="I1027" s="7"/>
+    </row>
+    <row r="1028" spans="4:9" s="2" customFormat="1">
+      <c r="D1028" s="7"/>
+      <c r="I1028" s="7"/>
+    </row>
+    <row r="1029" spans="4:9" s="2" customFormat="1">
+      <c r="D1029" s="7"/>
+      <c r="I1029" s="7"/>
+    </row>
+    <row r="1030" spans="4:9" s="2" customFormat="1">
+      <c r="D1030" s="7"/>
+      <c r="I1030" s="7"/>
+    </row>
+    <row r="1031" spans="4:9" s="2" customFormat="1">
+      <c r="D1031" s="7"/>
+      <c r="I1031" s="7"/>
+    </row>
+    <row r="1032" spans="4:9" s="2" customFormat="1">
+      <c r="D1032" s="7"/>
+      <c r="I1032" s="7"/>
+    </row>
+    <row r="1033" spans="4:9" s="2" customFormat="1">
+      <c r="D1033" s="7"/>
+      <c r="I1033" s="7"/>
+    </row>
+    <row r="1034" spans="4:9" s="2" customFormat="1">
+      <c r="D1034" s="7"/>
+      <c r="I1034" s="7"/>
+    </row>
+    <row r="1035" spans="4:9" s="2" customFormat="1">
+      <c r="D1035" s="7"/>
+      <c r="I1035" s="7"/>
+    </row>
+    <row r="1036" spans="4:9" s="2" customFormat="1">
+      <c r="D1036" s="7"/>
+      <c r="I1036" s="7"/>
+    </row>
+    <row r="1037" spans="4:9" s="2" customFormat="1">
+      <c r="D1037" s="7"/>
+      <c r="I1037" s="7"/>
+    </row>
+    <row r="1038" spans="4:9" s="2" customFormat="1">
+      <c r="D1038" s="7"/>
+      <c r="I1038" s="7"/>
+    </row>
+    <row r="1039" spans="4:9" s="2" customFormat="1">
+      <c r="D1039" s="7"/>
+      <c r="I1039" s="7"/>
+    </row>
+    <row r="1040" spans="4:9" s="2" customFormat="1">
+      <c r="D1040" s="7"/>
+      <c r="I1040" s="7"/>
+    </row>
+    <row r="1041" spans="4:9" s="2" customFormat="1">
+      <c r="D1041" s="7"/>
+      <c r="I1041" s="7"/>
+    </row>
+    <row r="1042" spans="4:9" s="2" customFormat="1">
+      <c r="D1042" s="7"/>
+      <c r="H1042" s="1"/>
+      <c r="I1042" s="7"/>
+    </row>
+    <row r="1043" spans="4:9" s="2" customFormat="1">
+      <c r="D1043" s="7"/>
+      <c r="H1043" s="1"/>
+      <c r="I1043" s="7"/>
+    </row>
+    <row r="1044" spans="4:9" s="2" customFormat="1">
+      <c r="D1044" s="7"/>
+      <c r="H1044" s="1"/>
+      <c r="I1044" s="7"/>
     </row>
     <row r="1045" spans="4:9" s="2" customFormat="1">
       <c r="D1045" s="7"/>
@@ -8445,58 +7813,72 @@
     </row>
     <row r="1058" spans="4:9" s="2" customFormat="1">
       <c r="D1058" s="7"/>
+      <c r="H1058" s="1"/>
       <c r="I1058" s="7"/>
     </row>
     <row r="1059" spans="4:9" s="2" customFormat="1">
       <c r="D1059" s="7"/>
+      <c r="H1059" s="1"/>
       <c r="I1059" s="7"/>
     </row>
     <row r="1060" spans="4:9" s="2" customFormat="1">
       <c r="D1060" s="7"/>
+      <c r="H1060" s="1"/>
       <c r="I1060" s="7"/>
     </row>
     <row r="1061" spans="4:9" s="2" customFormat="1">
       <c r="D1061" s="7"/>
+      <c r="H1061" s="1"/>
       <c r="I1061" s="7"/>
     </row>
     <row r="1062" spans="4:9" s="2" customFormat="1">
       <c r="D1062" s="7"/>
+      <c r="H1062" s="1"/>
       <c r="I1062" s="7"/>
     </row>
     <row r="1063" spans="4:9" s="2" customFormat="1">
       <c r="D1063" s="7"/>
+      <c r="H1063" s="1"/>
       <c r="I1063" s="7"/>
     </row>
     <row r="1064" spans="4:9" s="2" customFormat="1">
       <c r="D1064" s="7"/>
+      <c r="H1064" s="1"/>
       <c r="I1064" s="7"/>
     </row>
     <row r="1065" spans="4:9" s="2" customFormat="1">
       <c r="D1065" s="7"/>
+      <c r="H1065" s="1"/>
       <c r="I1065" s="7"/>
     </row>
     <row r="1066" spans="4:9" s="2" customFormat="1">
       <c r="D1066" s="7"/>
+      <c r="H1066" s="1"/>
       <c r="I1066" s="7"/>
     </row>
     <row r="1067" spans="4:9" s="2" customFormat="1">
       <c r="D1067" s="7"/>
+      <c r="H1067" s="1"/>
       <c r="I1067" s="7"/>
     </row>
     <row r="1068" spans="4:9" s="2" customFormat="1">
       <c r="D1068" s="7"/>
+      <c r="H1068" s="1"/>
       <c r="I1068" s="7"/>
     </row>
     <row r="1069" spans="4:9" s="2" customFormat="1">
       <c r="D1069" s="7"/>
+      <c r="H1069" s="1"/>
       <c r="I1069" s="7"/>
     </row>
     <row r="1070" spans="4:9" s="2" customFormat="1">
       <c r="D1070" s="7"/>
+      <c r="H1070" s="1"/>
       <c r="I1070" s="7"/>
     </row>
     <row r="1071" spans="4:9" s="2" customFormat="1">
       <c r="D1071" s="7"/>
+      <c r="H1071" s="1"/>
       <c r="I1071" s="7"/>
     </row>
     <row r="1072" spans="4:9" s="2" customFormat="1">
@@ -8546,72 +7928,58 @@
     </row>
     <row r="1081" spans="4:9" s="2" customFormat="1">
       <c r="D1081" s="7"/>
-      <c r="H1081" s="1"/>
       <c r="I1081" s="7"/>
     </row>
     <row r="1082" spans="4:9" s="2" customFormat="1">
       <c r="D1082" s="7"/>
-      <c r="H1082" s="1"/>
       <c r="I1082" s="7"/>
     </row>
     <row r="1083" spans="4:9" s="2" customFormat="1">
       <c r="D1083" s="7"/>
-      <c r="H1083" s="1"/>
       <c r="I1083" s="7"/>
     </row>
     <row r="1084" spans="4:9" s="2" customFormat="1">
       <c r="D1084" s="7"/>
-      <c r="H1084" s="1"/>
       <c r="I1084" s="7"/>
     </row>
     <row r="1085" spans="4:9" s="2" customFormat="1">
       <c r="D1085" s="7"/>
-      <c r="H1085" s="1"/>
       <c r="I1085" s="7"/>
     </row>
     <row r="1086" spans="4:9" s="2" customFormat="1">
       <c r="D1086" s="7"/>
-      <c r="H1086" s="1"/>
       <c r="I1086" s="7"/>
     </row>
     <row r="1087" spans="4:9" s="2" customFormat="1">
       <c r="D1087" s="7"/>
-      <c r="H1087" s="1"/>
       <c r="I1087" s="7"/>
     </row>
     <row r="1088" spans="4:9" s="2" customFormat="1">
       <c r="D1088" s="7"/>
-      <c r="H1088" s="1"/>
       <c r="I1088" s="7"/>
     </row>
     <row r="1089" spans="4:9" s="2" customFormat="1">
       <c r="D1089" s="7"/>
-      <c r="H1089" s="1"/>
       <c r="I1089" s="7"/>
     </row>
     <row r="1090" spans="4:9" s="2" customFormat="1">
       <c r="D1090" s="7"/>
-      <c r="H1090" s="1"/>
       <c r="I1090" s="7"/>
     </row>
     <row r="1091" spans="4:9" s="2" customFormat="1">
       <c r="D1091" s="7"/>
-      <c r="H1091" s="1"/>
       <c r="I1091" s="7"/>
     </row>
     <row r="1092" spans="4:9" s="2" customFormat="1">
       <c r="D1092" s="7"/>
-      <c r="H1092" s="1"/>
       <c r="I1092" s="7"/>
     </row>
     <row r="1093" spans="4:9" s="2" customFormat="1">
       <c r="D1093" s="7"/>
-      <c r="H1093" s="1"/>
       <c r="I1093" s="7"/>
     </row>
     <row r="1094" spans="4:9" s="2" customFormat="1">
       <c r="D1094" s="7"/>
-      <c r="H1094" s="1"/>
       <c r="I1094" s="7"/>
     </row>
     <row r="1095" spans="4:9" s="2" customFormat="1">
@@ -8696,58 +8064,72 @@
     </row>
     <row r="1111" spans="4:9" s="2" customFormat="1">
       <c r="D1111" s="7"/>
+      <c r="H1111" s="1"/>
       <c r="I1111" s="7"/>
     </row>
     <row r="1112" spans="4:9" s="2" customFormat="1">
       <c r="D1112" s="7"/>
+      <c r="H1112" s="1"/>
       <c r="I1112" s="7"/>
     </row>
     <row r="1113" spans="4:9" s="2" customFormat="1">
       <c r="D1113" s="7"/>
+      <c r="H1113" s="1"/>
       <c r="I1113" s="7"/>
     </row>
     <row r="1114" spans="4:9" s="2" customFormat="1">
       <c r="D1114" s="7"/>
+      <c r="H1114" s="1"/>
       <c r="I1114" s="7"/>
     </row>
     <row r="1115" spans="4:9" s="2" customFormat="1">
       <c r="D1115" s="7"/>
+      <c r="H1115" s="1"/>
       <c r="I1115" s="7"/>
     </row>
     <row r="1116" spans="4:9" s="2" customFormat="1">
       <c r="D1116" s="7"/>
+      <c r="H1116" s="1"/>
       <c r="I1116" s="7"/>
     </row>
     <row r="1117" spans="4:9" s="2" customFormat="1">
       <c r="D1117" s="7"/>
+      <c r="H1117" s="1"/>
       <c r="I1117" s="7"/>
     </row>
     <row r="1118" spans="4:9" s="2" customFormat="1">
       <c r="D1118" s="7"/>
+      <c r="H1118" s="1"/>
       <c r="I1118" s="7"/>
     </row>
     <row r="1119" spans="4:9" s="2" customFormat="1">
       <c r="D1119" s="7"/>
+      <c r="H1119" s="1"/>
       <c r="I1119" s="7"/>
     </row>
     <row r="1120" spans="4:9" s="2" customFormat="1">
       <c r="D1120" s="7"/>
+      <c r="H1120" s="1"/>
       <c r="I1120" s="7"/>
     </row>
     <row r="1121" spans="4:9" s="2" customFormat="1">
       <c r="D1121" s="7"/>
+      <c r="H1121" s="1"/>
       <c r="I1121" s="7"/>
     </row>
     <row r="1122" spans="4:9" s="2" customFormat="1">
       <c r="D1122" s="7"/>
+      <c r="H1122" s="1"/>
       <c r="I1122" s="7"/>
     </row>
     <row r="1123" spans="4:9" s="2" customFormat="1">
       <c r="D1123" s="7"/>
+      <c r="H1123" s="1"/>
       <c r="I1123" s="7"/>
     </row>
     <row r="1124" spans="4:9" s="2" customFormat="1">
       <c r="D1124" s="7"/>
+      <c r="H1124" s="1"/>
       <c r="I1124" s="7"/>
     </row>
     <row r="1125" spans="4:9" s="2" customFormat="1">
@@ -8797,72 +8179,58 @@
     </row>
     <row r="1134" spans="4:9" s="2" customFormat="1">
       <c r="D1134" s="7"/>
-      <c r="H1134" s="1"/>
       <c r="I1134" s="7"/>
     </row>
     <row r="1135" spans="4:9" s="2" customFormat="1">
       <c r="D1135" s="7"/>
-      <c r="H1135" s="1"/>
       <c r="I1135" s="7"/>
     </row>
     <row r="1136" spans="4:9" s="2" customFormat="1">
       <c r="D1136" s="7"/>
-      <c r="H1136" s="1"/>
       <c r="I1136" s="7"/>
     </row>
     <row r="1137" spans="4:9" s="2" customFormat="1">
       <c r="D1137" s="7"/>
-      <c r="H1137" s="1"/>
       <c r="I1137" s="7"/>
     </row>
     <row r="1138" spans="4:9" s="2" customFormat="1">
       <c r="D1138" s="7"/>
-      <c r="H1138" s="1"/>
       <c r="I1138" s="7"/>
     </row>
     <row r="1139" spans="4:9" s="2" customFormat="1">
       <c r="D1139" s="7"/>
-      <c r="H1139" s="1"/>
       <c r="I1139" s="7"/>
     </row>
     <row r="1140" spans="4:9" s="2" customFormat="1">
       <c r="D1140" s="7"/>
-      <c r="H1140" s="1"/>
       <c r="I1140" s="7"/>
     </row>
     <row r="1141" spans="4:9" s="2" customFormat="1">
       <c r="D1141" s="7"/>
-      <c r="H1141" s="1"/>
       <c r="I1141" s="7"/>
     </row>
     <row r="1142" spans="4:9" s="2" customFormat="1">
       <c r="D1142" s="7"/>
-      <c r="H1142" s="1"/>
       <c r="I1142" s="7"/>
     </row>
     <row r="1143" spans="4:9" s="2" customFormat="1">
       <c r="D1143" s="7"/>
-      <c r="H1143" s="1"/>
       <c r="I1143" s="7"/>
     </row>
     <row r="1144" spans="4:9" s="2" customFormat="1">
       <c r="D1144" s="7"/>
-      <c r="H1144" s="1"/>
       <c r="I1144" s="7"/>
     </row>
     <row r="1145" spans="4:9" s="2" customFormat="1">
       <c r="D1145" s="7"/>
-      <c r="H1145" s="1"/>
       <c r="I1145" s="7"/>
     </row>
     <row r="1146" spans="4:9" s="2" customFormat="1">
       <c r="D1146" s="7"/>
-      <c r="H1146" s="1"/>
       <c r="I1146" s="7"/>
     </row>
     <row r="1147" spans="4:9" s="2" customFormat="1">
       <c r="D1147" s="7"/>
-      <c r="H1147" s="1"/>
       <c r="I1147" s="7"/>
     </row>
     <row r="1148" spans="4:9" s="2" customFormat="1">
@@ -8947,58 +8315,72 @@
     </row>
     <row r="1164" spans="4:9" s="2" customFormat="1">
       <c r="D1164" s="7"/>
+      <c r="H1164" s="1"/>
       <c r="I1164" s="7"/>
     </row>
     <row r="1165" spans="4:9" s="2" customFormat="1">
       <c r="D1165" s="7"/>
+      <c r="H1165" s="1"/>
       <c r="I1165" s="7"/>
     </row>
     <row r="1166" spans="4:9" s="2" customFormat="1">
       <c r="D1166" s="7"/>
+      <c r="H1166" s="1"/>
       <c r="I1166" s="7"/>
     </row>
     <row r="1167" spans="4:9" s="2" customFormat="1">
       <c r="D1167" s="7"/>
+      <c r="H1167" s="1"/>
       <c r="I1167" s="7"/>
     </row>
     <row r="1168" spans="4:9" s="2" customFormat="1">
       <c r="D1168" s="7"/>
+      <c r="H1168" s="1"/>
       <c r="I1168" s="7"/>
     </row>
     <row r="1169" spans="4:9" s="2" customFormat="1">
       <c r="D1169" s="7"/>
+      <c r="H1169" s="1"/>
       <c r="I1169" s="7"/>
     </row>
     <row r="1170" spans="4:9" s="2" customFormat="1">
       <c r="D1170" s="7"/>
+      <c r="H1170" s="1"/>
       <c r="I1170" s="7"/>
     </row>
     <row r="1171" spans="4:9" s="2" customFormat="1">
       <c r="D1171" s="7"/>
+      <c r="H1171" s="1"/>
       <c r="I1171" s="7"/>
     </row>
     <row r="1172" spans="4:9" s="2" customFormat="1">
       <c r="D1172" s="7"/>
+      <c r="H1172" s="1"/>
       <c r="I1172" s="7"/>
     </row>
     <row r="1173" spans="4:9" s="2" customFormat="1">
       <c r="D1173" s="7"/>
+      <c r="H1173" s="1"/>
       <c r="I1173" s="7"/>
     </row>
     <row r="1174" spans="4:9" s="2" customFormat="1">
       <c r="D1174" s="7"/>
+      <c r="H1174" s="1"/>
       <c r="I1174" s="7"/>
     </row>
     <row r="1175" spans="4:9" s="2" customFormat="1">
       <c r="D1175" s="7"/>
+      <c r="H1175" s="1"/>
       <c r="I1175" s="7"/>
     </row>
     <row r="1176" spans="4:9" s="2" customFormat="1">
       <c r="D1176" s="7"/>
+      <c r="H1176" s="1"/>
       <c r="I1176" s="7"/>
     </row>
     <row r="1177" spans="4:9" s="2" customFormat="1">
       <c r="D1177" s="7"/>
+      <c r="H1177" s="1"/>
       <c r="I1177" s="7"/>
     </row>
     <row r="1178" spans="4:9" s="2" customFormat="1">
@@ -9083,37 +8465,30 @@
     </row>
     <row r="1194" spans="4:9" s="2" customFormat="1">
       <c r="D1194" s="7"/>
-      <c r="H1194" s="1"/>
       <c r="I1194" s="7"/>
     </row>
     <row r="1195" spans="4:9" s="2" customFormat="1">
       <c r="D1195" s="7"/>
-      <c r="H1195" s="1"/>
       <c r="I1195" s="7"/>
     </row>
     <row r="1196" spans="4:9" s="2" customFormat="1">
       <c r="D1196" s="7"/>
-      <c r="H1196" s="1"/>
       <c r="I1196" s="7"/>
     </row>
     <row r="1197" spans="4:9" s="2" customFormat="1">
       <c r="D1197" s="7"/>
-      <c r="H1197" s="1"/>
       <c r="I1197" s="7"/>
     </row>
     <row r="1198" spans="4:9" s="2" customFormat="1">
       <c r="D1198" s="7"/>
-      <c r="H1198" s="1"/>
       <c r="I1198" s="7"/>
     </row>
     <row r="1199" spans="4:9" s="2" customFormat="1">
       <c r="D1199" s="7"/>
-      <c r="H1199" s="1"/>
       <c r="I1199" s="7"/>
     </row>
     <row r="1200" spans="4:9" s="2" customFormat="1">
       <c r="D1200" s="7"/>
-      <c r="H1200" s="1"/>
       <c r="I1200" s="7"/>
     </row>
     <row r="1201" spans="4:9" s="2" customFormat="1">
@@ -9233,30 +8608,37 @@
     </row>
     <row r="1224" spans="4:9" s="2" customFormat="1">
       <c r="D1224" s="7"/>
+      <c r="H1224" s="1"/>
       <c r="I1224" s="7"/>
     </row>
     <row r="1225" spans="4:9" s="2" customFormat="1">
       <c r="D1225" s="7"/>
+      <c r="H1225" s="1"/>
       <c r="I1225" s="7"/>
     </row>
     <row r="1226" spans="4:9" s="2" customFormat="1">
       <c r="D1226" s="7"/>
+      <c r="H1226" s="1"/>
       <c r="I1226" s="7"/>
     </row>
     <row r="1227" spans="4:9" s="2" customFormat="1">
       <c r="D1227" s="7"/>
+      <c r="H1227" s="1"/>
       <c r="I1227" s="7"/>
     </row>
     <row r="1228" spans="4:9" s="2" customFormat="1">
       <c r="D1228" s="7"/>
+      <c r="H1228" s="1"/>
       <c r="I1228" s="7"/>
     </row>
     <row r="1229" spans="4:9" s="2" customFormat="1">
       <c r="D1229" s="7"/>
+      <c r="H1229" s="1"/>
       <c r="I1229" s="7"/>
     </row>
     <row r="1230" spans="4:9" s="2" customFormat="1">
       <c r="D1230" s="7"/>
+      <c r="H1230" s="1"/>
       <c r="I1230" s="7"/>
     </row>
     <row r="1231" spans="4:9" s="2" customFormat="1">
@@ -9306,72 +8688,58 @@
     </row>
     <row r="1240" spans="4:9" s="2" customFormat="1">
       <c r="D1240" s="7"/>
-      <c r="H1240" s="1"/>
       <c r="I1240" s="7"/>
     </row>
     <row r="1241" spans="4:9" s="2" customFormat="1">
       <c r="D1241" s="7"/>
-      <c r="H1241" s="1"/>
       <c r="I1241" s="7"/>
     </row>
     <row r="1242" spans="4:9" s="2" customFormat="1">
       <c r="D1242" s="7"/>
-      <c r="H1242" s="1"/>
       <c r="I1242" s="7"/>
     </row>
     <row r="1243" spans="4:9" s="2" customFormat="1">
       <c r="D1243" s="7"/>
-      <c r="H1243" s="1"/>
       <c r="I1243" s="7"/>
     </row>
     <row r="1244" spans="4:9" s="2" customFormat="1">
       <c r="D1244" s="7"/>
-      <c r="H1244" s="1"/>
       <c r="I1244" s="7"/>
     </row>
     <row r="1245" spans="4:9" s="2" customFormat="1">
       <c r="D1245" s="7"/>
-      <c r="H1245" s="1"/>
       <c r="I1245" s="7"/>
     </row>
     <row r="1246" spans="4:9" s="2" customFormat="1">
       <c r="D1246" s="7"/>
-      <c r="H1246" s="1"/>
       <c r="I1246" s="7"/>
     </row>
     <row r="1247" spans="4:9" s="2" customFormat="1">
       <c r="D1247" s="7"/>
-      <c r="H1247" s="1"/>
       <c r="I1247" s="7"/>
     </row>
     <row r="1248" spans="4:9" s="2" customFormat="1">
       <c r="D1248" s="7"/>
-      <c r="H1248" s="1"/>
       <c r="I1248" s="7"/>
     </row>
     <row r="1249" spans="4:9" s="2" customFormat="1">
       <c r="D1249" s="7"/>
-      <c r="H1249" s="1"/>
       <c r="I1249" s="7"/>
     </row>
     <row r="1250" spans="4:9" s="2" customFormat="1">
       <c r="D1250" s="7"/>
-      <c r="H1250" s="1"/>
       <c r="I1250" s="7"/>
     </row>
     <row r="1251" spans="4:9" s="2" customFormat="1">
       <c r="D1251" s="7"/>
-      <c r="H1251" s="1"/>
       <c r="I1251" s="7"/>
     </row>
     <row r="1252" spans="4:9" s="2" customFormat="1">
       <c r="D1252" s="7"/>
-      <c r="H1252" s="1"/>
       <c r="I1252" s="7"/>
     </row>
     <row r="1253" spans="4:9" s="2" customFormat="1">
       <c r="D1253" s="7"/>
-      <c r="H1253" s="1"/>
       <c r="I1253" s="7"/>
     </row>
     <row r="1254" spans="4:9" s="2" customFormat="1">
@@ -9456,58 +8824,72 @@
     </row>
     <row r="1270" spans="4:9" s="2" customFormat="1">
       <c r="D1270" s="7"/>
+      <c r="H1270" s="1"/>
       <c r="I1270" s="7"/>
     </row>
     <row r="1271" spans="4:9" s="2" customFormat="1">
       <c r="D1271" s="7"/>
+      <c r="H1271" s="1"/>
       <c r="I1271" s="7"/>
     </row>
     <row r="1272" spans="4:9" s="2" customFormat="1">
       <c r="D1272" s="7"/>
+      <c r="H1272" s="1"/>
       <c r="I1272" s="7"/>
     </row>
     <row r="1273" spans="4:9" s="2" customFormat="1">
       <c r="D1273" s="7"/>
+      <c r="H1273" s="1"/>
       <c r="I1273" s="7"/>
     </row>
     <row r="1274" spans="4:9" s="2" customFormat="1">
       <c r="D1274" s="7"/>
+      <c r="H1274" s="1"/>
       <c r="I1274" s="7"/>
     </row>
     <row r="1275" spans="4:9" s="2" customFormat="1">
       <c r="D1275" s="7"/>
+      <c r="H1275" s="1"/>
       <c r="I1275" s="7"/>
     </row>
     <row r="1276" spans="4:9" s="2" customFormat="1">
       <c r="D1276" s="7"/>
+      <c r="H1276" s="1"/>
       <c r="I1276" s="7"/>
     </row>
     <row r="1277" spans="4:9" s="2" customFormat="1">
       <c r="D1277" s="7"/>
+      <c r="H1277" s="1"/>
       <c r="I1277" s="7"/>
     </row>
     <row r="1278" spans="4:9" s="2" customFormat="1">
       <c r="D1278" s="7"/>
+      <c r="H1278" s="1"/>
       <c r="I1278" s="7"/>
     </row>
     <row r="1279" spans="4:9" s="2" customFormat="1">
       <c r="D1279" s="7"/>
+      <c r="H1279" s="1"/>
       <c r="I1279" s="7"/>
     </row>
     <row r="1280" spans="4:9" s="2" customFormat="1">
       <c r="D1280" s="7"/>
+      <c r="H1280" s="1"/>
       <c r="I1280" s="7"/>
     </row>
     <row r="1281" spans="4:9" s="2" customFormat="1">
       <c r="D1281" s="7"/>
+      <c r="H1281" s="1"/>
       <c r="I1281" s="7"/>
     </row>
     <row r="1282" spans="4:9" s="2" customFormat="1">
       <c r="D1282" s="7"/>
+      <c r="H1282" s="1"/>
       <c r="I1282" s="7"/>
     </row>
     <row r="1283" spans="4:9" s="2" customFormat="1">
       <c r="D1283" s="7"/>
+      <c r="H1283" s="1"/>
       <c r="I1283" s="7"/>
     </row>
     <row r="1284" spans="4:9" s="2" customFormat="1">
@@ -10022,152 +9404,122 @@
     </row>
     <row r="1386" spans="4:9" s="2" customFormat="1">
       <c r="D1386" s="7"/>
-      <c r="H1386" s="1"/>
       <c r="I1386" s="7"/>
     </row>
     <row r="1387" spans="4:9" s="2" customFormat="1">
       <c r="D1387" s="7"/>
-      <c r="H1387" s="1"/>
       <c r="I1387" s="7"/>
     </row>
     <row r="1388" spans="4:9" s="2" customFormat="1">
       <c r="D1388" s="7"/>
-      <c r="H1388" s="1"/>
       <c r="I1388" s="7"/>
     </row>
     <row r="1389" spans="4:9" s="2" customFormat="1">
       <c r="D1389" s="7"/>
-      <c r="H1389" s="1"/>
       <c r="I1389" s="7"/>
     </row>
     <row r="1390" spans="4:9" s="2" customFormat="1">
       <c r="D1390" s="7"/>
-      <c r="H1390" s="1"/>
       <c r="I1390" s="7"/>
     </row>
     <row r="1391" spans="4:9" s="2" customFormat="1">
       <c r="D1391" s="7"/>
-      <c r="H1391" s="1"/>
       <c r="I1391" s="7"/>
     </row>
     <row r="1392" spans="4:9" s="2" customFormat="1">
       <c r="D1392" s="7"/>
-      <c r="H1392" s="1"/>
       <c r="I1392" s="7"/>
     </row>
     <row r="1393" spans="4:9" s="2" customFormat="1">
       <c r="D1393" s="7"/>
-      <c r="H1393" s="1"/>
       <c r="I1393" s="7"/>
     </row>
     <row r="1394" spans="4:9" s="2" customFormat="1">
       <c r="D1394" s="7"/>
-      <c r="H1394" s="1"/>
       <c r="I1394" s="7"/>
     </row>
     <row r="1395" spans="4:9" s="2" customFormat="1">
       <c r="D1395" s="7"/>
-      <c r="H1395" s="1"/>
       <c r="I1395" s="7"/>
     </row>
     <row r="1396" spans="4:9" s="2" customFormat="1">
       <c r="D1396" s="7"/>
-      <c r="H1396" s="1"/>
       <c r="I1396" s="7"/>
     </row>
     <row r="1397" spans="4:9" s="2" customFormat="1">
       <c r="D1397" s="7"/>
-      <c r="H1397" s="1"/>
       <c r="I1397" s="7"/>
     </row>
     <row r="1398" spans="4:9" s="2" customFormat="1">
       <c r="D1398" s="7"/>
-      <c r="H1398" s="1"/>
       <c r="I1398" s="7"/>
     </row>
     <row r="1399" spans="4:9" s="2" customFormat="1">
       <c r="D1399" s="7"/>
-      <c r="H1399" s="1"/>
       <c r="I1399" s="7"/>
     </row>
     <row r="1400" spans="4:9" s="2" customFormat="1">
       <c r="D1400" s="7"/>
-      <c r="H1400" s="1"/>
       <c r="I1400" s="7"/>
     </row>
     <row r="1401" spans="4:9" s="2" customFormat="1">
       <c r="D1401" s="7"/>
-      <c r="H1401" s="1"/>
       <c r="I1401" s="7"/>
     </row>
     <row r="1402" spans="4:9" s="2" customFormat="1">
       <c r="D1402" s="7"/>
-      <c r="H1402" s="1"/>
       <c r="I1402" s="7"/>
     </row>
     <row r="1403" spans="4:9" s="2" customFormat="1">
       <c r="D1403" s="7"/>
-      <c r="H1403" s="1"/>
       <c r="I1403" s="7"/>
     </row>
     <row r="1404" spans="4:9" s="2" customFormat="1">
       <c r="D1404" s="7"/>
-      <c r="H1404" s="1"/>
       <c r="I1404" s="7"/>
     </row>
     <row r="1405" spans="4:9" s="2" customFormat="1">
       <c r="D1405" s="7"/>
-      <c r="H1405" s="1"/>
       <c r="I1405" s="7"/>
     </row>
     <row r="1406" spans="4:9" s="2" customFormat="1">
       <c r="D1406" s="7"/>
-      <c r="H1406" s="1"/>
       <c r="I1406" s="7"/>
     </row>
     <row r="1407" spans="4:9" s="2" customFormat="1">
       <c r="D1407" s="7"/>
-      <c r="H1407" s="1"/>
       <c r="I1407" s="7"/>
     </row>
     <row r="1408" spans="4:9" s="2" customFormat="1">
       <c r="D1408" s="7"/>
-      <c r="H1408" s="1"/>
       <c r="I1408" s="7"/>
     </row>
     <row r="1409" spans="4:9" s="2" customFormat="1">
       <c r="D1409" s="7"/>
-      <c r="H1409" s="1"/>
       <c r="I1409" s="7"/>
     </row>
     <row r="1410" spans="4:9" s="2" customFormat="1">
       <c r="D1410" s="7"/>
-      <c r="H1410" s="1"/>
       <c r="I1410" s="7"/>
     </row>
     <row r="1411" spans="4:9" s="2" customFormat="1">
       <c r="D1411" s="7"/>
-      <c r="H1411" s="1"/>
       <c r="I1411" s="7"/>
     </row>
     <row r="1412" spans="4:9" s="2" customFormat="1">
       <c r="D1412" s="7"/>
-      <c r="H1412" s="1"/>
       <c r="I1412" s="7"/>
     </row>
     <row r="1413" spans="4:9" s="2" customFormat="1">
       <c r="D1413" s="7"/>
-      <c r="H1413" s="1"/>
       <c r="I1413" s="7"/>
     </row>
     <row r="1414" spans="4:9" s="2" customFormat="1">
       <c r="D1414" s="7"/>
-      <c r="H1414" s="1"/>
       <c r="I1414" s="7"/>
     </row>
     <row r="1415" spans="4:9" s="2" customFormat="1">
       <c r="D1415" s="7"/>
-      <c r="H1415" s="1"/>
       <c r="I1415" s="7"/>
     </row>
     <row r="1416" spans="4:9" s="2" customFormat="1">
@@ -10908,54 +10260,67 @@
     </row>
     <row r="1600" spans="4:9" s="2" customFormat="1">
       <c r="D1600" s="7"/>
+      <c r="H1600" s="1"/>
       <c r="I1600" s="7"/>
     </row>
     <row r="1601" spans="4:9" s="2" customFormat="1">
       <c r="D1601" s="7"/>
+      <c r="H1601" s="1"/>
       <c r="I1601" s="7"/>
     </row>
     <row r="1602" spans="4:9" s="2" customFormat="1">
       <c r="D1602" s="7"/>
+      <c r="H1602" s="1"/>
       <c r="I1602" s="7"/>
     </row>
     <row r="1603" spans="4:9" s="2" customFormat="1">
       <c r="D1603" s="7"/>
+      <c r="H1603" s="1"/>
       <c r="I1603" s="7"/>
     </row>
     <row r="1604" spans="4:9" s="2" customFormat="1">
       <c r="D1604" s="7"/>
+      <c r="H1604" s="1"/>
       <c r="I1604" s="7"/>
     </row>
     <row r="1605" spans="4:9" s="2" customFormat="1">
       <c r="D1605" s="7"/>
+      <c r="H1605" s="1"/>
       <c r="I1605" s="7"/>
     </row>
     <row r="1606" spans="4:9" s="2" customFormat="1">
       <c r="D1606" s="7"/>
+      <c r="H1606" s="1"/>
       <c r="I1606" s="7"/>
     </row>
     <row r="1607" spans="4:9" s="2" customFormat="1">
       <c r="D1607" s="7"/>
+      <c r="H1607" s="1"/>
       <c r="I1607" s="7"/>
     </row>
     <row r="1608" spans="4:9" s="2" customFormat="1">
       <c r="D1608" s="7"/>
+      <c r="H1608" s="1"/>
       <c r="I1608" s="7"/>
     </row>
     <row r="1609" spans="4:9" s="2" customFormat="1">
       <c r="D1609" s="7"/>
+      <c r="H1609" s="1"/>
       <c r="I1609" s="7"/>
     </row>
     <row r="1610" spans="4:9" s="2" customFormat="1">
       <c r="D1610" s="7"/>
+      <c r="H1610" s="1"/>
       <c r="I1610" s="7"/>
     </row>
     <row r="1611" spans="4:9" s="2" customFormat="1">
       <c r="D1611" s="7"/>
+      <c r="H1611" s="1"/>
       <c r="I1611" s="7"/>
     </row>
     <row r="1612" spans="4:9" s="2" customFormat="1">
       <c r="D1612" s="7"/>
+      <c r="H1612" s="1"/>
       <c r="I1612" s="7"/>
     </row>
     <row r="1613" spans="4:9" s="2" customFormat="1">
@@ -10988,42 +10353,52 @@
     </row>
     <row r="1620" spans="4:9" s="2" customFormat="1">
       <c r="D1620" s="7"/>
+      <c r="H1620" s="1"/>
       <c r="I1620" s="7"/>
     </row>
     <row r="1621" spans="4:9" s="2" customFormat="1">
       <c r="D1621" s="7"/>
+      <c r="H1621" s="1"/>
       <c r="I1621" s="7"/>
     </row>
     <row r="1622" spans="4:9" s="2" customFormat="1">
       <c r="D1622" s="7"/>
+      <c r="H1622" s="1"/>
       <c r="I1622" s="7"/>
     </row>
     <row r="1623" spans="4:9" s="2" customFormat="1">
       <c r="D1623" s="7"/>
+      <c r="H1623" s="1"/>
       <c r="I1623" s="7"/>
     </row>
     <row r="1624" spans="4:9" s="2" customFormat="1">
       <c r="D1624" s="7"/>
+      <c r="H1624" s="1"/>
       <c r="I1624" s="7"/>
     </row>
     <row r="1625" spans="4:9" s="2" customFormat="1">
       <c r="D1625" s="7"/>
+      <c r="H1625" s="1"/>
       <c r="I1625" s="7"/>
     </row>
     <row r="1626" spans="4:9" s="2" customFormat="1">
       <c r="D1626" s="7"/>
+      <c r="H1626" s="1"/>
       <c r="I1626" s="7"/>
     </row>
     <row r="1627" spans="4:9" s="2" customFormat="1">
       <c r="D1627" s="7"/>
+      <c r="H1627" s="1"/>
       <c r="I1627" s="7"/>
     </row>
     <row r="1628" spans="4:9" s="2" customFormat="1">
       <c r="D1628" s="7"/>
+      <c r="H1628" s="1"/>
       <c r="I1628" s="7"/>
     </row>
     <row r="1629" spans="4:9" s="2" customFormat="1">
       <c r="D1629" s="7"/>
+      <c r="H1629" s="1"/>
       <c r="I1629" s="7"/>
     </row>
     <row r="1630" spans="4:9" s="2" customFormat="1">
@@ -11093,30 +10468,37 @@
     </row>
     <row r="1643" spans="4:9" s="2" customFormat="1">
       <c r="D1643" s="7"/>
+      <c r="H1643" s="1"/>
       <c r="I1643" s="7"/>
     </row>
     <row r="1644" spans="4:9" s="2" customFormat="1">
       <c r="D1644" s="7"/>
+      <c r="H1644" s="1"/>
       <c r="I1644" s="7"/>
     </row>
     <row r="1645" spans="4:9" s="2" customFormat="1">
       <c r="D1645" s="7"/>
+      <c r="H1645" s="1"/>
       <c r="I1645" s="7"/>
     </row>
     <row r="1646" spans="4:9" s="2" customFormat="1">
       <c r="D1646" s="7"/>
+      <c r="H1646" s="1"/>
       <c r="I1646" s="7"/>
     </row>
     <row r="1647" spans="4:9" s="2" customFormat="1">
       <c r="D1647" s="7"/>
+      <c r="H1647" s="1"/>
       <c r="I1647" s="7"/>
     </row>
     <row r="1648" spans="4:9" s="2" customFormat="1">
       <c r="D1648" s="7"/>
+      <c r="H1648" s="1"/>
       <c r="I1648" s="7"/>
     </row>
     <row r="1649" spans="4:9" s="2" customFormat="1">
       <c r="D1649" s="7"/>
+      <c r="H1649" s="1"/>
       <c r="I1649" s="7"/>
     </row>
     <row r="1650" spans="4:9" s="2" customFormat="1">
@@ -11694,364 +11076,334 @@
       <c r="H1764" s="1"/>
       <c r="I1764" s="7"/>
     </row>
-    <row r="1765" spans="4:9" s="2" customFormat="1">
-      <c r="D1765" s="7"/>
-      <c r="H1765" s="1"/>
-      <c r="I1765" s="7"/>
-    </row>
-    <row r="1766" spans="4:9" s="2" customFormat="1">
-      <c r="D1766" s="7"/>
-      <c r="H1766" s="1"/>
-      <c r="I1766" s="7"/>
-    </row>
-    <row r="1767" spans="4:9" s="2" customFormat="1">
-      <c r="D1767" s="7"/>
-      <c r="H1767" s="1"/>
-      <c r="I1767" s="7"/>
-    </row>
-    <row r="1768" spans="4:9" s="2" customFormat="1">
-      <c r="D1768" s="7"/>
-      <c r="H1768" s="1"/>
-      <c r="I1768" s="7"/>
-    </row>
-    <row r="1769" spans="4:9" s="2" customFormat="1">
-      <c r="D1769" s="7"/>
-      <c r="H1769" s="1"/>
-      <c r="I1769" s="7"/>
-    </row>
-    <row r="1770" spans="4:9" s="2" customFormat="1">
-      <c r="D1770" s="7"/>
-      <c r="H1770" s="1"/>
-      <c r="I1770" s="7"/>
-    </row>
-    <row r="1771" spans="4:9" s="2" customFormat="1">
-      <c r="D1771" s="7"/>
-      <c r="H1771" s="1"/>
-      <c r="I1771" s="7"/>
-    </row>
-    <row r="1772" spans="4:9" s="2" customFormat="1">
-      <c r="D1772" s="7"/>
-      <c r="H1772" s="1"/>
-      <c r="I1772" s="7"/>
-    </row>
-    <row r="1773" spans="4:9" s="2" customFormat="1">
-      <c r="D1773" s="7"/>
-      <c r="H1773" s="1"/>
-      <c r="I1773" s="7"/>
-    </row>
-    <row r="1774" spans="4:9" s="2" customFormat="1">
-      <c r="D1774" s="7"/>
-      <c r="H1774" s="1"/>
-      <c r="I1774" s="7"/>
-    </row>
-    <row r="1775" spans="4:9" s="2" customFormat="1">
-      <c r="D1775" s="7"/>
-      <c r="H1775" s="1"/>
-      <c r="I1775" s="7"/>
-    </row>
-    <row r="1776" spans="4:9" s="2" customFormat="1">
-      <c r="D1776" s="7"/>
-      <c r="H1776" s="1"/>
-      <c r="I1776" s="7"/>
-    </row>
-    <row r="1777" spans="4:9" s="2" customFormat="1">
-      <c r="D1777" s="7"/>
-      <c r="H1777" s="1"/>
-      <c r="I1777" s="7"/>
-    </row>
-    <row r="1778" spans="4:9" s="2" customFormat="1">
-      <c r="D1778" s="7"/>
-      <c r="H1778" s="1"/>
-      <c r="I1778" s="7"/>
-    </row>
-    <row r="1779" spans="4:9" s="2" customFormat="1">
-      <c r="D1779" s="7"/>
-      <c r="H1779" s="1"/>
-      <c r="I1779" s="7"/>
-    </row>
-    <row r="1780" spans="4:9" s="2" customFormat="1">
-      <c r="D1780" s="7"/>
-      <c r="H1780" s="1"/>
-      <c r="I1780" s="7"/>
-    </row>
-    <row r="1781" spans="4:9" s="2" customFormat="1">
-      <c r="D1781" s="7"/>
-      <c r="H1781" s="1"/>
-      <c r="I1781" s="7"/>
-    </row>
-    <row r="1782" spans="4:9" s="2" customFormat="1">
-      <c r="D1782" s="7"/>
-      <c r="H1782" s="1"/>
-      <c r="I1782" s="7"/>
-    </row>
-    <row r="1783" spans="4:9" s="2" customFormat="1">
-      <c r="D1783" s="7"/>
-      <c r="H1783" s="1"/>
-      <c r="I1783" s="7"/>
-    </row>
-    <row r="1784" spans="4:9" s="2" customFormat="1">
-      <c r="D1784" s="7"/>
-      <c r="H1784" s="1"/>
-      <c r="I1784" s="7"/>
-    </row>
-    <row r="1785" spans="4:9" s="2" customFormat="1">
-      <c r="D1785" s="7"/>
-      <c r="H1785" s="1"/>
-      <c r="I1785" s="7"/>
-    </row>
-    <row r="1786" spans="4:9" s="2" customFormat="1">
-      <c r="D1786" s="7"/>
-      <c r="H1786" s="1"/>
-      <c r="I1786" s="7"/>
-    </row>
-    <row r="1787" spans="4:9" s="2" customFormat="1">
-      <c r="D1787" s="7"/>
-      <c r="H1787" s="1"/>
-      <c r="I1787" s="7"/>
-    </row>
-    <row r="1788" spans="4:9" s="2" customFormat="1">
-      <c r="D1788" s="7"/>
-      <c r="H1788" s="1"/>
-      <c r="I1788" s="7"/>
-    </row>
-    <row r="1789" spans="4:9" s="2" customFormat="1">
-      <c r="D1789" s="7"/>
-      <c r="H1789" s="1"/>
-      <c r="I1789" s="7"/>
-    </row>
-    <row r="1790" spans="4:9" s="2" customFormat="1">
-      <c r="D1790" s="7"/>
-      <c r="H1790" s="1"/>
-      <c r="I1790" s="7"/>
-    </row>
-    <row r="1791" spans="4:9" s="2" customFormat="1">
-      <c r="D1791" s="7"/>
-      <c r="H1791" s="1"/>
-      <c r="I1791" s="7"/>
-    </row>
-    <row r="1792" spans="4:9" s="2" customFormat="1">
-      <c r="D1792" s="7"/>
-      <c r="H1792" s="1"/>
-      <c r="I1792" s="7"/>
-    </row>
-    <row r="1793" spans="4:9" s="2" customFormat="1">
-      <c r="D1793" s="7"/>
-      <c r="H1793" s="1"/>
-      <c r="I1793" s="7"/>
-    </row>
-    <row r="1794" spans="4:9" s="2" customFormat="1">
-      <c r="D1794" s="7"/>
-      <c r="H1794" s="1"/>
-      <c r="I1794" s="7"/>
-    </row>
-    <row r="1795" spans="4:9" s="13" customFormat="1">
-      <c r="D1795" s="27"/>
-      <c r="I1795" s="27"/>
-    </row>
-    <row r="1796" spans="4:9" s="13" customFormat="1">
-      <c r="D1796" s="27"/>
-      <c r="I1796" s="27"/>
-    </row>
-    <row r="1797" spans="4:9" s="13" customFormat="1">
-      <c r="D1797" s="27"/>
-      <c r="I1797" s="27"/>
-    </row>
-    <row r="1798" spans="4:9" s="13" customFormat="1">
-      <c r="D1798" s="27"/>
-      <c r="I1798" s="27"/>
-    </row>
-    <row r="1799" spans="4:9" s="13" customFormat="1">
-      <c r="D1799" s="27"/>
-      <c r="I1799" s="27"/>
-    </row>
-    <row r="1800" spans="4:9" s="13" customFormat="1">
-      <c r="D1800" s="27"/>
-      <c r="I1800" s="27"/>
-    </row>
-    <row r="1801" spans="4:9" s="13" customFormat="1">
-      <c r="D1801" s="27"/>
-      <c r="I1801" s="27"/>
-    </row>
-    <row r="1802" spans="4:9" s="13" customFormat="1">
-      <c r="D1802" s="27"/>
-      <c r="I1802" s="27"/>
-    </row>
-    <row r="1803" spans="4:9" s="13" customFormat="1">
-      <c r="D1803" s="27"/>
-      <c r="I1803" s="27"/>
-    </row>
-    <row r="1804" spans="4:9" s="13" customFormat="1">
-      <c r="D1804" s="27"/>
-      <c r="I1804" s="27"/>
-    </row>
-    <row r="1805" spans="4:9" s="13" customFormat="1">
-      <c r="D1805" s="27"/>
-      <c r="I1805" s="27"/>
-    </row>
-    <row r="1806" spans="4:9" s="13" customFormat="1">
-      <c r="D1806" s="27"/>
-      <c r="I1806" s="27"/>
-    </row>
-    <row r="1807" spans="4:9" s="13" customFormat="1">
-      <c r="D1807" s="27"/>
-      <c r="I1807" s="27"/>
-    </row>
-    <row r="1808" spans="4:9" s="13" customFormat="1">
-      <c r="D1808" s="27"/>
-      <c r="I1808" s="27"/>
-    </row>
-    <row r="1809" spans="4:9" s="13" customFormat="1">
-      <c r="D1809" s="27"/>
-      <c r="I1809" s="27"/>
-    </row>
-    <row r="1810" spans="4:9" s="13" customFormat="1">
-      <c r="D1810" s="27"/>
-      <c r="I1810" s="27"/>
-    </row>
-    <row r="1811" spans="4:9" s="13" customFormat="1">
-      <c r="D1811" s="27"/>
-      <c r="I1811" s="27"/>
-    </row>
-    <row r="1812" spans="4:9" s="13" customFormat="1">
-      <c r="D1812" s="27"/>
-      <c r="I1812" s="27"/>
-    </row>
-    <row r="1813" spans="4:9" s="13" customFormat="1">
-      <c r="D1813" s="27"/>
-      <c r="I1813" s="27"/>
-    </row>
-    <row r="1814" spans="4:9" s="13" customFormat="1">
-      <c r="D1814" s="27"/>
-      <c r="I1814" s="27"/>
-    </row>
-    <row r="1815" spans="4:9" s="13" customFormat="1">
-      <c r="D1815" s="27"/>
-      <c r="I1815" s="27"/>
-    </row>
-    <row r="1816" spans="4:9" s="13" customFormat="1">
-      <c r="D1816" s="27"/>
-      <c r="I1816" s="27"/>
-    </row>
-    <row r="1817" spans="4:9" s="13" customFormat="1">
-      <c r="D1817" s="27"/>
-      <c r="I1817" s="27"/>
-    </row>
-    <row r="1818" spans="4:9" s="13" customFormat="1">
-      <c r="D1818" s="27"/>
-      <c r="I1818" s="27"/>
-    </row>
-    <row r="1819" spans="4:9" s="11" customFormat="1">
-      <c r="D1819" s="26"/>
-      <c r="H1819" s="13"/>
-      <c r="I1819" s="26"/>
-    </row>
-    <row r="1820" spans="4:9" s="11" customFormat="1">
-      <c r="D1820" s="26"/>
-      <c r="H1820" s="13"/>
-      <c r="I1820" s="26"/>
-    </row>
-    <row r="1821" spans="4:9" s="11" customFormat="1">
-      <c r="D1821" s="26"/>
-      <c r="H1821" s="13"/>
-      <c r="I1821" s="26"/>
-    </row>
-    <row r="1822" spans="4:9" s="11" customFormat="1">
-      <c r="D1822" s="26"/>
-      <c r="H1822" s="13"/>
-      <c r="I1822" s="26"/>
-    </row>
-    <row r="1823" spans="4:9" s="11" customFormat="1">
-      <c r="D1823" s="26"/>
-      <c r="H1823" s="13"/>
-      <c r="I1823" s="26"/>
-    </row>
-    <row r="1824" spans="4:9" s="11" customFormat="1">
-      <c r="D1824" s="26"/>
-      <c r="H1824" s="13"/>
-      <c r="I1824" s="26"/>
-    </row>
-    <row r="1825" spans="3:9" s="11" customFormat="1">
-      <c r="D1825" s="26"/>
-      <c r="H1825" s="13"/>
-      <c r="I1825" s="26"/>
-    </row>
-    <row r="1826" spans="3:9" s="11" customFormat="1">
-      <c r="D1826" s="26"/>
-      <c r="H1826" s="13"/>
-      <c r="I1826" s="26"/>
-    </row>
-    <row r="1827" spans="3:9" s="11" customFormat="1">
-      <c r="D1827" s="26"/>
-      <c r="H1827" s="13"/>
-      <c r="I1827" s="26"/>
-    </row>
-    <row r="1828" spans="3:9" s="11" customFormat="1">
-      <c r="D1828" s="26"/>
-      <c r="H1828" s="13"/>
-      <c r="I1828" s="26"/>
-    </row>
-    <row r="1829" spans="3:9" s="11" customFormat="1">
-      <c r="D1829" s="26"/>
-      <c r="H1829" s="13"/>
-      <c r="I1829" s="26"/>
-    </row>
-    <row r="1830" spans="3:9" s="11" customFormat="1">
-      <c r="D1830" s="26"/>
-      <c r="H1830" s="13"/>
-      <c r="I1830" s="26"/>
-    </row>
-    <row r="1831" spans="3:9" s="11" customFormat="1">
-      <c r="D1831" s="26"/>
-      <c r="H1831" s="13"/>
-      <c r="I1831" s="26"/>
-    </row>
-    <row r="1832" spans="3:9" s="11" customFormat="1">
-      <c r="D1832" s="26"/>
-      <c r="H1832" s="13"/>
-      <c r="I1832" s="26"/>
-    </row>
-    <row r="1833" spans="3:9" s="11" customFormat="1">
-      <c r="D1833" s="26"/>
-      <c r="H1833" s="13"/>
-      <c r="I1833" s="26"/>
-    </row>
-    <row r="1834" spans="3:9" s="2" customFormat="1">
-      <c r="C1834" s="11"/>
-      <c r="D1834" s="26"/>
-      <c r="E1834" s="11"/>
-      <c r="G1834" s="11"/>
-      <c r="H1834" s="13"/>
+    <row r="1765" spans="4:9" s="13" customFormat="1">
+      <c r="D1765" s="27"/>
+      <c r="I1765" s="27"/>
+    </row>
+    <row r="1766" spans="4:9" s="13" customFormat="1">
+      <c r="D1766" s="27"/>
+      <c r="I1766" s="27"/>
+    </row>
+    <row r="1767" spans="4:9" s="13" customFormat="1">
+      <c r="D1767" s="27"/>
+      <c r="I1767" s="27"/>
+    </row>
+    <row r="1768" spans="4:9" s="13" customFormat="1">
+      <c r="D1768" s="27"/>
+      <c r="I1768" s="27"/>
+    </row>
+    <row r="1769" spans="4:9" s="13" customFormat="1">
+      <c r="D1769" s="27"/>
+      <c r="I1769" s="27"/>
+    </row>
+    <row r="1770" spans="4:9" s="13" customFormat="1">
+      <c r="D1770" s="27"/>
+      <c r="I1770" s="27"/>
+    </row>
+    <row r="1771" spans="4:9" s="13" customFormat="1">
+      <c r="D1771" s="27"/>
+      <c r="I1771" s="27"/>
+    </row>
+    <row r="1772" spans="4:9" s="13" customFormat="1">
+      <c r="D1772" s="27"/>
+      <c r="I1772" s="27"/>
+    </row>
+    <row r="1773" spans="4:9" s="13" customFormat="1">
+      <c r="D1773" s="27"/>
+      <c r="I1773" s="27"/>
+    </row>
+    <row r="1774" spans="4:9" s="13" customFormat="1">
+      <c r="D1774" s="27"/>
+      <c r="I1774" s="27"/>
+    </row>
+    <row r="1775" spans="4:9" s="13" customFormat="1">
+      <c r="D1775" s="27"/>
+      <c r="I1775" s="27"/>
+    </row>
+    <row r="1776" spans="4:9" s="13" customFormat="1">
+      <c r="D1776" s="27"/>
+      <c r="I1776" s="27"/>
+    </row>
+    <row r="1777" spans="4:9" s="13" customFormat="1">
+      <c r="D1777" s="27"/>
+      <c r="I1777" s="27"/>
+    </row>
+    <row r="1778" spans="4:9" s="13" customFormat="1">
+      <c r="D1778" s="27"/>
+      <c r="I1778" s="27"/>
+    </row>
+    <row r="1779" spans="4:9" s="13" customFormat="1">
+      <c r="D1779" s="27"/>
+      <c r="I1779" s="27"/>
+    </row>
+    <row r="1780" spans="4:9" s="13" customFormat="1">
+      <c r="D1780" s="27"/>
+      <c r="I1780" s="27"/>
+    </row>
+    <row r="1781" spans="4:9" s="13" customFormat="1">
+      <c r="D1781" s="27"/>
+      <c r="I1781" s="27"/>
+    </row>
+    <row r="1782" spans="4:9" s="13" customFormat="1">
+      <c r="D1782" s="27"/>
+      <c r="I1782" s="27"/>
+    </row>
+    <row r="1783" spans="4:9" s="13" customFormat="1">
+      <c r="D1783" s="27"/>
+      <c r="I1783" s="27"/>
+    </row>
+    <row r="1784" spans="4:9" s="13" customFormat="1">
+      <c r="D1784" s="27"/>
+      <c r="I1784" s="27"/>
+    </row>
+    <row r="1785" spans="4:9" s="13" customFormat="1">
+      <c r="D1785" s="27"/>
+      <c r="I1785" s="27"/>
+    </row>
+    <row r="1786" spans="4:9" s="13" customFormat="1">
+      <c r="D1786" s="27"/>
+      <c r="I1786" s="27"/>
+    </row>
+    <row r="1787" spans="4:9" s="13" customFormat="1">
+      <c r="D1787" s="27"/>
+      <c r="I1787" s="27"/>
+    </row>
+    <row r="1788" spans="4:9" s="13" customFormat="1">
+      <c r="D1788" s="27"/>
+      <c r="I1788" s="27"/>
+    </row>
+    <row r="1789" spans="4:9" s="11" customFormat="1">
+      <c r="D1789" s="26"/>
+      <c r="H1789" s="13"/>
+      <c r="I1789" s="26"/>
+    </row>
+    <row r="1790" spans="4:9" s="11" customFormat="1">
+      <c r="D1790" s="26"/>
+      <c r="H1790" s="13"/>
+      <c r="I1790" s="26"/>
+    </row>
+    <row r="1791" spans="4:9" s="11" customFormat="1">
+      <c r="D1791" s="26"/>
+      <c r="H1791" s="13"/>
+      <c r="I1791" s="26"/>
+    </row>
+    <row r="1792" spans="4:9" s="11" customFormat="1">
+      <c r="D1792" s="26"/>
+      <c r="H1792" s="13"/>
+      <c r="I1792" s="26"/>
+    </row>
+    <row r="1793" spans="3:9" s="11" customFormat="1">
+      <c r="D1793" s="26"/>
+      <c r="H1793" s="13"/>
+      <c r="I1793" s="26"/>
+    </row>
+    <row r="1794" spans="3:9" s="11" customFormat="1">
+      <c r="D1794" s="26"/>
+      <c r="H1794" s="13"/>
+      <c r="I1794" s="26"/>
+    </row>
+    <row r="1795" spans="3:9" s="11" customFormat="1">
+      <c r="D1795" s="26"/>
+      <c r="H1795" s="13"/>
+      <c r="I1795" s="26"/>
+    </row>
+    <row r="1796" spans="3:9" s="11" customFormat="1">
+      <c r="D1796" s="26"/>
+      <c r="H1796" s="13"/>
+      <c r="I1796" s="26"/>
+    </row>
+    <row r="1797" spans="3:9" s="11" customFormat="1">
+      <c r="D1797" s="26"/>
+      <c r="H1797" s="13"/>
+      <c r="I1797" s="26"/>
+    </row>
+    <row r="1798" spans="3:9" s="11" customFormat="1">
+      <c r="D1798" s="26"/>
+      <c r="H1798" s="13"/>
+      <c r="I1798" s="26"/>
+    </row>
+    <row r="1799" spans="3:9" s="11" customFormat="1">
+      <c r="D1799" s="26"/>
+      <c r="H1799" s="13"/>
+      <c r="I1799" s="26"/>
+    </row>
+    <row r="1800" spans="3:9" s="11" customFormat="1">
+      <c r="D1800" s="26"/>
+      <c r="H1800" s="13"/>
+      <c r="I1800" s="26"/>
+    </row>
+    <row r="1801" spans="3:9" s="11" customFormat="1">
+      <c r="D1801" s="26"/>
+      <c r="H1801" s="13"/>
+      <c r="I1801" s="26"/>
+    </row>
+    <row r="1802" spans="3:9" s="11" customFormat="1">
+      <c r="D1802" s="26"/>
+      <c r="H1802" s="13"/>
+      <c r="I1802" s="26"/>
+    </row>
+    <row r="1803" spans="3:9" s="11" customFormat="1">
+      <c r="D1803" s="26"/>
+      <c r="H1803" s="13"/>
+      <c r="I1803" s="26"/>
+    </row>
+    <row r="1804" spans="3:9" s="2" customFormat="1">
+      <c r="C1804" s="11"/>
+      <c r="D1804" s="26"/>
+      <c r="E1804" s="11"/>
+      <c r="G1804" s="11"/>
+      <c r="H1804" s="13"/>
+      <c r="I1804" s="7"/>
+    </row>
+    <row r="1805" spans="3:9" s="2" customFormat="1">
+      <c r="C1805" s="11"/>
+      <c r="D1805" s="26"/>
+      <c r="E1805" s="11"/>
+      <c r="G1805" s="11"/>
+      <c r="H1805" s="13"/>
+      <c r="I1805" s="7"/>
+    </row>
+    <row r="1806" spans="3:9" s="2" customFormat="1">
+      <c r="C1806" s="11"/>
+      <c r="D1806" s="26"/>
+      <c r="E1806" s="11"/>
+      <c r="G1806" s="11"/>
+      <c r="H1806" s="13"/>
+      <c r="I1806" s="7"/>
+    </row>
+    <row r="1807" spans="3:9" s="2" customFormat="1">
+      <c r="D1807" s="7"/>
+      <c r="I1807" s="7"/>
+    </row>
+    <row r="1808" spans="3:9" s="2" customFormat="1">
+      <c r="D1808" s="7"/>
+      <c r="I1808" s="7"/>
+    </row>
+    <row r="1809" spans="4:9" s="2" customFormat="1">
+      <c r="D1809" s="7"/>
+      <c r="I1809" s="7"/>
+    </row>
+    <row r="1810" spans="4:9" s="2" customFormat="1">
+      <c r="D1810" s="7"/>
+      <c r="I1810" s="7"/>
+    </row>
+    <row r="1811" spans="4:9" s="2" customFormat="1">
+      <c r="D1811" s="7"/>
+      <c r="I1811" s="7"/>
+    </row>
+    <row r="1812" spans="4:9" s="2" customFormat="1">
+      <c r="D1812" s="7"/>
+      <c r="I1812" s="7"/>
+    </row>
+    <row r="1813" spans="4:9" s="2" customFormat="1">
+      <c r="D1813" s="7"/>
+      <c r="I1813" s="7"/>
+    </row>
+    <row r="1814" spans="4:9" s="2" customFormat="1">
+      <c r="D1814" s="7"/>
+      <c r="I1814" s="7"/>
+    </row>
+    <row r="1815" spans="4:9" s="2" customFormat="1">
+      <c r="D1815" s="7"/>
+      <c r="I1815" s="7"/>
+    </row>
+    <row r="1816" spans="4:9" s="2" customFormat="1">
+      <c r="D1816" s="7"/>
+      <c r="I1816" s="7"/>
+    </row>
+    <row r="1817" spans="4:9" s="2" customFormat="1">
+      <c r="D1817" s="7"/>
+      <c r="I1817" s="7"/>
+    </row>
+    <row r="1818" spans="4:9" s="2" customFormat="1">
+      <c r="D1818" s="7"/>
+      <c r="I1818" s="7"/>
+    </row>
+    <row r="1819" spans="4:9" s="2" customFormat="1">
+      <c r="D1819" s="7"/>
+      <c r="I1819" s="7"/>
+    </row>
+    <row r="1820" spans="4:9" s="2" customFormat="1">
+      <c r="D1820" s="7"/>
+      <c r="I1820" s="7"/>
+    </row>
+    <row r="1821" spans="4:9" s="2" customFormat="1">
+      <c r="D1821" s="7"/>
+      <c r="I1821" s="7"/>
+    </row>
+    <row r="1822" spans="4:9" s="2" customFormat="1">
+      <c r="D1822" s="7"/>
+      <c r="I1822" s="7"/>
+    </row>
+    <row r="1823" spans="4:9" s="2" customFormat="1">
+      <c r="D1823" s="7"/>
+      <c r="I1823" s="7"/>
+    </row>
+    <row r="1824" spans="4:9" s="2" customFormat="1">
+      <c r="D1824" s="7"/>
+      <c r="I1824" s="7"/>
+    </row>
+    <row r="1825" spans="4:9" s="2" customFormat="1">
+      <c r="D1825" s="7"/>
+      <c r="I1825" s="7"/>
+    </row>
+    <row r="1826" spans="4:9" s="2" customFormat="1">
+      <c r="D1826" s="7"/>
+      <c r="I1826" s="7"/>
+    </row>
+    <row r="1827" spans="4:9" s="2" customFormat="1">
+      <c r="D1827" s="7"/>
+      <c r="I1827" s="7"/>
+    </row>
+    <row r="1828" spans="4:9" s="2" customFormat="1">
+      <c r="D1828" s="7"/>
+      <c r="I1828" s="7"/>
+    </row>
+    <row r="1829" spans="4:9" s="2" customFormat="1">
+      <c r="D1829" s="7"/>
+      <c r="I1829" s="7"/>
+    </row>
+    <row r="1830" spans="4:9" s="2" customFormat="1">
+      <c r="D1830" s="7"/>
+      <c r="I1830" s="7"/>
+    </row>
+    <row r="1831" spans="4:9" s="2" customFormat="1">
+      <c r="D1831" s="7"/>
+      <c r="I1831" s="7"/>
+    </row>
+    <row r="1832" spans="4:9" s="2" customFormat="1">
+      <c r="D1832" s="7"/>
+      <c r="I1832" s="7"/>
+    </row>
+    <row r="1833" spans="4:9" s="2" customFormat="1">
+      <c r="D1833" s="7"/>
+      <c r="I1833" s="7"/>
+    </row>
+    <row r="1834" spans="4:9" s="2" customFormat="1">
+      <c r="D1834" s="7"/>
       <c r="I1834" s="7"/>
     </row>
-    <row r="1835" spans="3:9" s="2" customFormat="1">
-      <c r="C1835" s="11"/>
-      <c r="D1835" s="26"/>
-      <c r="E1835" s="11"/>
-      <c r="G1835" s="11"/>
-      <c r="H1835" s="13"/>
+    <row r="1835" spans="4:9" s="2" customFormat="1">
+      <c r="D1835" s="7"/>
       <c r="I1835" s="7"/>
     </row>
-    <row r="1836" spans="3:9" s="2" customFormat="1">
-      <c r="C1836" s="11"/>
-      <c r="D1836" s="26"/>
-      <c r="E1836" s="11"/>
-      <c r="G1836" s="11"/>
-      <c r="H1836" s="13"/>
+    <row r="1836" spans="4:9" s="2" customFormat="1">
+      <c r="D1836" s="7"/>
       <c r="I1836" s="7"/>
     </row>
-    <row r="1837" spans="3:9" s="2" customFormat="1">
+    <row r="1837" spans="4:9" s="2" customFormat="1">
       <c r="D1837" s="7"/>
       <c r="I1837" s="7"/>
     </row>
-    <row r="1838" spans="3:9" s="2" customFormat="1">
+    <row r="1838" spans="4:9" s="2" customFormat="1">
       <c r="D1838" s="7"/>
       <c r="I1838" s="7"/>
     </row>
-    <row r="1839" spans="3:9" s="2" customFormat="1">
+    <row r="1839" spans="4:9" s="2" customFormat="1">
       <c r="D1839" s="7"/>
       <c r="I1839" s="7"/>
     </row>
-    <row r="1840" spans="3:9" s="2" customFormat="1">
+    <row r="1840" spans="4:9" s="2" customFormat="1">
       <c r="D1840" s="7"/>
       <c r="I1840" s="7"/>
     </row>
@@ -12105,362 +11457,242 @@
     </row>
     <row r="1853" spans="4:9" s="2" customFormat="1">
       <c r="D1853" s="7"/>
+      <c r="H1853" s="11"/>
       <c r="I1853" s="7"/>
     </row>
     <row r="1854" spans="4:9" s="2" customFormat="1">
       <c r="D1854" s="7"/>
+      <c r="H1854" s="11"/>
       <c r="I1854" s="7"/>
     </row>
     <row r="1855" spans="4:9" s="2" customFormat="1">
       <c r="D1855" s="7"/>
+      <c r="H1855" s="11"/>
       <c r="I1855" s="7"/>
     </row>
     <row r="1856" spans="4:9" s="2" customFormat="1">
       <c r="D1856" s="7"/>
+      <c r="H1856" s="11"/>
       <c r="I1856" s="7"/>
     </row>
     <row r="1857" spans="4:9" s="2" customFormat="1">
       <c r="D1857" s="7"/>
+      <c r="H1857" s="11"/>
       <c r="I1857" s="7"/>
     </row>
     <row r="1858" spans="4:9" s="2" customFormat="1">
       <c r="D1858" s="7"/>
+      <c r="H1858" s="11"/>
       <c r="I1858" s="7"/>
     </row>
     <row r="1859" spans="4:9" s="2" customFormat="1">
       <c r="D1859" s="7"/>
+      <c r="H1859" s="11"/>
       <c r="I1859" s="7"/>
     </row>
     <row r="1860" spans="4:9" s="2" customFormat="1">
       <c r="D1860" s="7"/>
+      <c r="H1860" s="11"/>
       <c r="I1860" s="7"/>
     </row>
     <row r="1861" spans="4:9" s="2" customFormat="1">
       <c r="D1861" s="7"/>
+      <c r="H1861" s="11"/>
       <c r="I1861" s="7"/>
     </row>
     <row r="1862" spans="4:9" s="2" customFormat="1">
       <c r="D1862" s="7"/>
+      <c r="H1862" s="11"/>
       <c r="I1862" s="7"/>
     </row>
     <row r="1863" spans="4:9" s="2" customFormat="1">
       <c r="D1863" s="7"/>
+      <c r="H1863" s="11"/>
       <c r="I1863" s="7"/>
     </row>
     <row r="1864" spans="4:9" s="2" customFormat="1">
       <c r="D1864" s="7"/>
+      <c r="H1864" s="11"/>
       <c r="I1864" s="7"/>
     </row>
     <row r="1865" spans="4:9" s="2" customFormat="1">
       <c r="D1865" s="7"/>
+      <c r="H1865" s="11"/>
       <c r="I1865" s="7"/>
     </row>
     <row r="1866" spans="4:9" s="2" customFormat="1">
       <c r="D1866" s="7"/>
+      <c r="H1866" s="11"/>
       <c r="I1866" s="7"/>
     </row>
     <row r="1867" spans="4:9" s="2" customFormat="1">
       <c r="D1867" s="7"/>
+      <c r="H1867" s="11"/>
       <c r="I1867" s="7"/>
     </row>
     <row r="1868" spans="4:9" s="2" customFormat="1">
       <c r="D1868" s="7"/>
+      <c r="H1868" s="11"/>
       <c r="I1868" s="7"/>
     </row>
     <row r="1869" spans="4:9" s="2" customFormat="1">
       <c r="D1869" s="7"/>
+      <c r="H1869" s="11"/>
       <c r="I1869" s="7"/>
     </row>
     <row r="1870" spans="4:9" s="2" customFormat="1">
       <c r="D1870" s="7"/>
+      <c r="H1870" s="11"/>
       <c r="I1870" s="7"/>
     </row>
     <row r="1871" spans="4:9" s="2" customFormat="1">
       <c r="D1871" s="7"/>
+      <c r="H1871" s="11"/>
       <c r="I1871" s="7"/>
     </row>
     <row r="1872" spans="4:9" s="2" customFormat="1">
       <c r="D1872" s="7"/>
+      <c r="H1872" s="11"/>
       <c r="I1872" s="7"/>
     </row>
-    <row r="1873" spans="4:9" s="2" customFormat="1">
-      <c r="D1873" s="7"/>
-      <c r="I1873" s="7"/>
-    </row>
-    <row r="1874" spans="4:9" s="2" customFormat="1">
-      <c r="D1874" s="7"/>
-      <c r="I1874" s="7"/>
-    </row>
-    <row r="1875" spans="4:9" s="2" customFormat="1">
-      <c r="D1875" s="7"/>
-      <c r="I1875" s="7"/>
-    </row>
-    <row r="1876" spans="4:9" s="2" customFormat="1">
-      <c r="D1876" s="7"/>
-      <c r="I1876" s="7"/>
-    </row>
-    <row r="1877" spans="4:9" s="2" customFormat="1">
-      <c r="D1877" s="7"/>
-      <c r="I1877" s="7"/>
-    </row>
-    <row r="1878" spans="4:9" s="2" customFormat="1">
-      <c r="D1878" s="7"/>
-      <c r="I1878" s="7"/>
-    </row>
-    <row r="1879" spans="4:9" s="2" customFormat="1">
-      <c r="D1879" s="7"/>
-      <c r="I1879" s="7"/>
-    </row>
-    <row r="1880" spans="4:9" s="2" customFormat="1">
-      <c r="D1880" s="7"/>
-      <c r="I1880" s="7"/>
-    </row>
-    <row r="1881" spans="4:9" s="2" customFormat="1">
-      <c r="D1881" s="7"/>
-      <c r="I1881" s="7"/>
-    </row>
-    <row r="1882" spans="4:9" s="2" customFormat="1">
-      <c r="D1882" s="7"/>
-      <c r="I1882" s="7"/>
-    </row>
-    <row r="1883" spans="4:9" s="2" customFormat="1">
-      <c r="D1883" s="7"/>
-      <c r="H1883" s="11"/>
-      <c r="I1883" s="7"/>
-    </row>
-    <row r="1884" spans="4:9" s="2" customFormat="1">
-      <c r="D1884" s="7"/>
-      <c r="H1884" s="11"/>
-      <c r="I1884" s="7"/>
-    </row>
-    <row r="1885" spans="4:9" s="2" customFormat="1">
-      <c r="D1885" s="7"/>
-      <c r="H1885" s="11"/>
-      <c r="I1885" s="7"/>
-    </row>
-    <row r="1886" spans="4:9" s="2" customFormat="1">
-      <c r="D1886" s="7"/>
-      <c r="H1886" s="11"/>
-      <c r="I1886" s="7"/>
-    </row>
-    <row r="1887" spans="4:9" s="2" customFormat="1">
-      <c r="D1887" s="7"/>
-      <c r="H1887" s="11"/>
-      <c r="I1887" s="7"/>
-    </row>
-    <row r="1888" spans="4:9" s="2" customFormat="1">
-      <c r="D1888" s="7"/>
-      <c r="H1888" s="11"/>
-      <c r="I1888" s="7"/>
-    </row>
-    <row r="1889" spans="4:9" s="2" customFormat="1">
-      <c r="D1889" s="7"/>
-      <c r="H1889" s="11"/>
-      <c r="I1889" s="7"/>
-    </row>
-    <row r="1890" spans="4:9" s="2" customFormat="1">
-      <c r="D1890" s="7"/>
-      <c r="H1890" s="11"/>
-      <c r="I1890" s="7"/>
-    </row>
-    <row r="1891" spans="4:9" s="2" customFormat="1">
-      <c r="D1891" s="7"/>
-      <c r="H1891" s="11"/>
-      <c r="I1891" s="7"/>
-    </row>
-    <row r="1892" spans="4:9" s="2" customFormat="1">
+    <row r="1873" spans="3:10" s="5" customFormat="1">
+      <c r="D1873" s="28"/>
+      <c r="I1873" s="28"/>
+    </row>
+    <row r="1874" spans="3:10" s="5" customFormat="1">
+      <c r="D1874" s="28"/>
+      <c r="I1874" s="28"/>
+    </row>
+    <row r="1875" spans="3:10" s="5" customFormat="1">
+      <c r="D1875" s="28"/>
+      <c r="I1875" s="29"/>
+    </row>
+    <row r="1876" spans="3:10" s="5" customFormat="1">
+      <c r="D1876" s="28"/>
+      <c r="I1876" s="29"/>
+    </row>
+    <row r="1877" spans="3:10" s="5" customFormat="1">
+      <c r="C1877" s="1"/>
+      <c r="D1877" s="33"/>
+      <c r="E1877" s="1"/>
+      <c r="G1877" s="1"/>
+      <c r="I1877" s="29"/>
+    </row>
+    <row r="1878" spans="3:10" s="5" customFormat="1">
+      <c r="C1878" s="1"/>
+      <c r="D1878" s="33"/>
+      <c r="E1878" s="1"/>
+      <c r="G1878" s="1"/>
+      <c r="I1878" s="29"/>
+    </row>
+    <row r="1879" spans="3:10" s="5" customFormat="1">
+      <c r="D1879" s="28"/>
+      <c r="H1879" s="4"/>
+      <c r="I1879" s="20"/>
+      <c r="J1879" s="6"/>
+    </row>
+    <row r="1880" spans="3:10" s="5" customFormat="1">
+      <c r="D1880" s="28"/>
+      <c r="H1880" s="4"/>
+      <c r="I1880" s="20"/>
+      <c r="J1880" s="6"/>
+    </row>
+    <row r="1881" spans="3:10" s="5" customFormat="1">
+      <c r="C1881" s="1"/>
+      <c r="D1881" s="33"/>
+      <c r="E1881" s="1"/>
+      <c r="G1881" s="1"/>
+      <c r="H1881" s="4"/>
+      <c r="I1881" s="20"/>
+      <c r="J1881" s="6"/>
+    </row>
+    <row r="1882" spans="3:10" s="5" customFormat="1">
+      <c r="C1882" s="1"/>
+      <c r="D1882" s="33"/>
+      <c r="E1882" s="1"/>
+      <c r="G1882" s="1"/>
+      <c r="H1882" s="4"/>
+      <c r="I1882" s="20"/>
+      <c r="J1882" s="6"/>
+    </row>
+    <row r="1883" spans="3:10" s="5" customFormat="1">
+      <c r="C1883" s="1"/>
+      <c r="D1883" s="33"/>
+      <c r="E1883" s="1"/>
+      <c r="G1883" s="1"/>
+      <c r="H1883" s="4"/>
+      <c r="I1883" s="20"/>
+      <c r="J1883" s="6"/>
+    </row>
+    <row r="1884" spans="3:10" s="5" customFormat="1">
+      <c r="D1884" s="28"/>
+      <c r="H1884" s="4"/>
+      <c r="I1884" s="20"/>
+      <c r="J1884" s="6"/>
+    </row>
+    <row r="1885" spans="3:10" s="5" customFormat="1">
+      <c r="D1885" s="28"/>
+      <c r="H1885" s="4"/>
+      <c r="I1885" s="20"/>
+      <c r="J1885" s="6"/>
+    </row>
+    <row r="1886" spans="3:10" s="5" customFormat="1">
+      <c r="D1886" s="28"/>
+      <c r="H1886" s="4"/>
+      <c r="I1886" s="20"/>
+      <c r="J1886" s="6"/>
+    </row>
+    <row r="1887" spans="3:10" s="5" customFormat="1">
+      <c r="D1887" s="28"/>
+      <c r="H1887" s="4"/>
+      <c r="I1887" s="20"/>
+      <c r="J1887" s="6"/>
+    </row>
+    <row r="1888" spans="3:10" s="5" customFormat="1">
+      <c r="D1888" s="28"/>
+      <c r="H1888" s="4"/>
+      <c r="I1888" s="20"/>
+      <c r="J1888" s="6"/>
+    </row>
+    <row r="1889" spans="4:10" s="5" customFormat="1">
+      <c r="D1889" s="28"/>
+      <c r="H1889" s="4"/>
+      <c r="J1889" s="6"/>
+    </row>
+    <row r="1890" spans="4:10" s="5" customFormat="1">
+      <c r="D1890" s="28"/>
+      <c r="H1890" s="4"/>
+      <c r="J1890" s="6"/>
+    </row>
+    <row r="1891" spans="4:10" s="5" customFormat="1">
+      <c r="D1891" s="28"/>
+      <c r="H1891" s="4"/>
+      <c r="J1891" s="6"/>
+    </row>
+    <row r="1892" spans="4:10" s="2" customFormat="1">
       <c r="D1892" s="7"/>
-      <c r="H1892" s="11"/>
+      <c r="H1892" s="6"/>
       <c r="I1892" s="7"/>
-    </row>
-    <row r="1893" spans="4:9" s="2" customFormat="1">
+      <c r="J1892" s="6"/>
+    </row>
+    <row r="1893" spans="4:10" s="2" customFormat="1">
       <c r="D1893" s="7"/>
-      <c r="H1893" s="11"/>
+      <c r="H1893" s="6"/>
       <c r="I1893" s="7"/>
-    </row>
-    <row r="1894" spans="4:9" s="2" customFormat="1">
+      <c r="J1893" s="6"/>
+    </row>
+    <row r="1894" spans="4:10" s="2" customFormat="1">
       <c r="D1894" s="7"/>
-      <c r="H1894" s="11"/>
+      <c r="H1894" s="6"/>
       <c r="I1894" s="7"/>
-    </row>
-    <row r="1895" spans="4:9" s="2" customFormat="1">
-      <c r="D1895" s="7"/>
-      <c r="H1895" s="11"/>
-      <c r="I1895" s="7"/>
-    </row>
-    <row r="1896" spans="4:9" s="2" customFormat="1">
-      <c r="D1896" s="7"/>
-      <c r="H1896" s="11"/>
-      <c r="I1896" s="7"/>
-    </row>
-    <row r="1897" spans="4:9" s="2" customFormat="1">
-      <c r="D1897" s="7"/>
-      <c r="H1897" s="11"/>
-      <c r="I1897" s="7"/>
-    </row>
-    <row r="1898" spans="4:9" s="2" customFormat="1">
-      <c r="D1898" s="7"/>
-      <c r="H1898" s="11"/>
-      <c r="I1898" s="7"/>
-    </row>
-    <row r="1899" spans="4:9" s="2" customFormat="1">
-      <c r="D1899" s="7"/>
-      <c r="H1899" s="11"/>
-      <c r="I1899" s="7"/>
-    </row>
-    <row r="1900" spans="4:9" s="2" customFormat="1">
-      <c r="D1900" s="7"/>
-      <c r="H1900" s="11"/>
-      <c r="I1900" s="7"/>
-    </row>
-    <row r="1901" spans="4:9" s="2" customFormat="1">
-      <c r="D1901" s="7"/>
-      <c r="H1901" s="11"/>
-      <c r="I1901" s="7"/>
-    </row>
-    <row r="1902" spans="4:9" s="2" customFormat="1">
-      <c r="D1902" s="7"/>
-      <c r="H1902" s="11"/>
-      <c r="I1902" s="7"/>
-    </row>
-    <row r="1903" spans="4:9" s="5" customFormat="1">
-      <c r="D1903" s="28"/>
-      <c r="I1903" s="28"/>
-    </row>
-    <row r="1904" spans="4:9" s="5" customFormat="1">
-      <c r="D1904" s="28"/>
-      <c r="I1904" s="28"/>
-    </row>
-    <row r="1905" spans="3:10" s="5" customFormat="1">
-      <c r="D1905" s="28"/>
-      <c r="I1905" s="29"/>
-    </row>
-    <row r="1906" spans="3:10" s="5" customFormat="1">
-      <c r="D1906" s="28"/>
-      <c r="I1906" s="29"/>
-    </row>
-    <row r="1907" spans="3:10" s="5" customFormat="1">
-      <c r="C1907" s="1"/>
-      <c r="D1907" s="33"/>
-      <c r="E1907" s="1"/>
-      <c r="G1907" s="1"/>
-      <c r="I1907" s="29"/>
-    </row>
-    <row r="1908" spans="3:10" s="5" customFormat="1">
-      <c r="C1908" s="1"/>
-      <c r="D1908" s="33"/>
-      <c r="E1908" s="1"/>
-      <c r="G1908" s="1"/>
-      <c r="I1908" s="29"/>
-    </row>
-    <row r="1909" spans="3:10" s="5" customFormat="1">
-      <c r="D1909" s="28"/>
-      <c r="H1909" s="4"/>
-      <c r="I1909" s="20"/>
-      <c r="J1909" s="6"/>
-    </row>
-    <row r="1910" spans="3:10" s="5" customFormat="1">
-      <c r="D1910" s="28"/>
-      <c r="H1910" s="4"/>
-      <c r="I1910" s="20"/>
-      <c r="J1910" s="6"/>
-    </row>
-    <row r="1911" spans="3:10" s="5" customFormat="1">
-      <c r="C1911" s="1"/>
-      <c r="D1911" s="33"/>
-      <c r="E1911" s="1"/>
-      <c r="G1911" s="1"/>
-      <c r="H1911" s="4"/>
-      <c r="I1911" s="20"/>
-      <c r="J1911" s="6"/>
-    </row>
-    <row r="1912" spans="3:10" s="5" customFormat="1">
-      <c r="C1912" s="1"/>
-      <c r="D1912" s="33"/>
-      <c r="E1912" s="1"/>
-      <c r="G1912" s="1"/>
-      <c r="H1912" s="4"/>
-      <c r="I1912" s="20"/>
-      <c r="J1912" s="6"/>
-    </row>
-    <row r="1913" spans="3:10" s="5" customFormat="1">
-      <c r="C1913" s="1"/>
-      <c r="D1913" s="33"/>
-      <c r="E1913" s="1"/>
-      <c r="G1913" s="1"/>
-      <c r="H1913" s="4"/>
-      <c r="I1913" s="20"/>
-      <c r="J1913" s="6"/>
-    </row>
-    <row r="1914" spans="3:10" s="5" customFormat="1">
-      <c r="D1914" s="28"/>
-      <c r="H1914" s="4"/>
-      <c r="I1914" s="20"/>
-      <c r="J1914" s="6"/>
-    </row>
-    <row r="1915" spans="3:10" s="5" customFormat="1">
-      <c r="D1915" s="28"/>
-      <c r="H1915" s="4"/>
-      <c r="I1915" s="20"/>
-      <c r="J1915" s="6"/>
-    </row>
-    <row r="1916" spans="3:10" s="5" customFormat="1">
-      <c r="D1916" s="28"/>
-      <c r="H1916" s="4"/>
-      <c r="I1916" s="20"/>
-      <c r="J1916" s="6"/>
-    </row>
-    <row r="1917" spans="3:10" s="5" customFormat="1">
-      <c r="D1917" s="28"/>
-      <c r="H1917" s="4"/>
-      <c r="I1917" s="20"/>
-      <c r="J1917" s="6"/>
-    </row>
-    <row r="1918" spans="3:10" s="5" customFormat="1">
-      <c r="D1918" s="28"/>
-      <c r="H1918" s="4"/>
-      <c r="I1918" s="20"/>
-      <c r="J1918" s="6"/>
-    </row>
-    <row r="1919" spans="3:10" s="5" customFormat="1">
-      <c r="D1919" s="28"/>
-      <c r="H1919" s="4"/>
-      <c r="J1919" s="6"/>
-    </row>
-    <row r="1920" spans="3:10" s="5" customFormat="1">
-      <c r="D1920" s="28"/>
-      <c r="H1920" s="4"/>
-      <c r="J1920" s="6"/>
-    </row>
-    <row r="1921" spans="4:10" s="5" customFormat="1">
-      <c r="D1921" s="28"/>
-      <c r="H1921" s="4"/>
-      <c r="J1921" s="6"/>
-    </row>
-    <row r="1922" spans="4:10" s="2" customFormat="1">
-      <c r="D1922" s="7"/>
-      <c r="H1922" s="6"/>
-      <c r="I1922" s="7"/>
-      <c r="J1922" s="6"/>
-    </row>
-    <row r="1923" spans="4:10" s="2" customFormat="1">
-      <c r="D1923" s="7"/>
-      <c r="H1923" s="6"/>
-      <c r="I1923" s="7"/>
-      <c r="J1923" s="6"/>
-    </row>
-    <row r="1924" spans="4:10" s="2" customFormat="1">
-      <c r="D1924" s="7"/>
-      <c r="H1924" s="6"/>
-      <c r="I1924" s="7"/>
-      <c r="J1924" s="6"/>
-    </row>
-    <row r="1925" spans="4:10" s="5" customFormat="1">
-      <c r="D1925" s="28"/>
-      <c r="J1925" s="6"/>
+      <c r="J1894" s="6"/>
+    </row>
+    <row r="1895" spans="4:10" s="5" customFormat="1">
+      <c r="D1895" s="28"/>
+      <c r="J1895" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:J1904"/>
+  <autoFilter ref="C2:J1874"/>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>

--- a/王者喵喵/配置表（差科技-随机事件-搞事情配置表）/猫商店配置_shop.xlsx
+++ b/王者喵喵/配置表（差科技-随机事件-搞事情配置表）/猫商店配置_shop.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wzmm\doc\配置表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\xiuxian\王者喵喵\配置表（差科技-随机事件-搞事情配置表）\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">shop!$C$2:$J$1874</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1009,7 +1009,7 @@
   <dimension ref="A1:J1895"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/王者喵喵/配置表（差科技-随机事件-搞事情配置表）/猫商店配置_shop.xlsx
+++ b/王者喵喵/配置表（差科技-随机事件-搞事情配置表）/猫商店配置_shop.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>id</t>
   </si>
@@ -193,50 +193,6 @@
   </si>
   <si>
     <t>一护猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000000000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>200000000000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>400000000000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>800000000000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1600000000000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>3200000000000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>6400000000000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000000000000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000000000000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>30000000000000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>60000000000000</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -1009,7 +965,7 @@
   <dimension ref="A1:J1895"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1017,7 +973,7 @@
     <col min="1" max="1" width="9" style="14"/>
     <col min="2" max="2" width="10.75" style="14" customWidth="1"/>
     <col min="3" max="3" width="15.25" style="14" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="34" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="34" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.25" style="14" customWidth="1"/>
     <col min="6" max="6" width="14.75" style="14" customWidth="1"/>
     <col min="7" max="7" width="15.25" style="14" customWidth="1"/>
@@ -1083,13 +1039,13 @@
         <v>4</v>
       </c>
       <c r="C4" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4" s="20">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="E4" s="30">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -1106,13 +1062,13 @@
         <v>25</v>
       </c>
       <c r="C5" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D5" s="20">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="E5" s="30">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F5" s="4">
         <v>2</v>
@@ -1129,13 +1085,13 @@
         <v>26</v>
       </c>
       <c r="C6" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D6" s="20">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="E6" s="30">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F6" s="4">
         <v>3</v>
@@ -1149,16 +1105,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C7" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="20">
-        <v>800</v>
+        <v>8000</v>
       </c>
       <c r="E7" s="30">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F7" s="4">
         <v>4</v>
@@ -1175,13 +1131,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D8" s="20">
-        <v>1600</v>
+        <v>16000</v>
       </c>
       <c r="E8" s="30">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4">
         <v>5</v>
@@ -1197,13 +1153,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D9" s="20">
-        <v>3200</v>
+        <v>32000</v>
       </c>
       <c r="E9" s="30">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F9" s="4">
         <v>6</v>
@@ -1216,16 +1172,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C10" s="4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D10" s="20">
-        <v>6400</v>
+        <v>64000</v>
       </c>
       <c r="E10" s="30">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F10" s="4">
         <v>7</v>
@@ -1238,16 +1194,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C11" s="4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D11" s="20">
-        <v>12800</v>
+        <v>128000</v>
       </c>
       <c r="E11" s="30">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F11" s="4">
         <v>8</v>
@@ -1260,16 +1216,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C12" s="4">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D12" s="20">
-        <v>25000</v>
+        <v>256000</v>
       </c>
       <c r="E12" s="30">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F12" s="4">
         <v>9</v>
@@ -1282,16 +1238,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C13" s="4">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D13" s="20">
-        <v>50000</v>
+        <v>512000</v>
       </c>
       <c r="E13" s="30">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F13" s="4">
         <v>10</v>
@@ -1304,16 +1260,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C14" s="4">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D14" s="20">
-        <v>100000</v>
+        <v>1024000</v>
       </c>
       <c r="E14" s="30">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F14" s="4">
         <v>11</v>
@@ -1329,13 +1285,13 @@
         <v>7</v>
       </c>
       <c r="C15" s="4">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D15" s="20">
-        <v>200000</v>
+        <v>2048000</v>
       </c>
       <c r="E15" s="30">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F15" s="4">
         <v>12</v>
@@ -1348,16 +1304,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C16" s="4">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D16" s="20">
-        <v>400000</v>
+        <v>4096000</v>
       </c>
       <c r="E16" s="30">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F16" s="4">
         <v>13</v>
@@ -1373,13 +1329,13 @@
         <v>27</v>
       </c>
       <c r="C17" s="4">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D17" s="20">
-        <v>800000</v>
+        <v>8192000</v>
       </c>
       <c r="E17" s="30">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F17" s="4">
         <v>14</v>
@@ -1395,13 +1351,13 @@
         <v>28</v>
       </c>
       <c r="C18" s="4">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D18" s="20">
-        <v>160000</v>
+        <v>16384000</v>
       </c>
       <c r="E18" s="30">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F18" s="4">
         <v>15</v>
@@ -1417,13 +1373,13 @@
         <v>29</v>
       </c>
       <c r="C19" s="4">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D19" s="20">
-        <v>320000</v>
+        <v>32768000</v>
       </c>
       <c r="E19" s="30">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F19" s="4">
         <v>16</v>
@@ -1436,16 +1392,16 @@
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C20" s="4">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D20" s="28">
-        <v>640000</v>
+        <v>65536000</v>
       </c>
       <c r="E20" s="30">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F20" s="4">
         <v>17</v>
@@ -1458,16 +1414,16 @@
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C21" s="4">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D21" s="28">
-        <v>1500000</v>
+        <v>131072000</v>
       </c>
       <c r="E21" s="30">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F21" s="4">
         <v>18</v>
@@ -1483,13 +1439,13 @@
         <v>30</v>
       </c>
       <c r="C22" s="4">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D22" s="28">
-        <v>3000000</v>
+        <v>262144000</v>
       </c>
       <c r="E22" s="30">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F22" s="4">
         <v>19</v>
@@ -1502,16 +1458,16 @@
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C23" s="4">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D23" s="28">
-        <v>6000000</v>
+        <v>524288000</v>
       </c>
       <c r="E23" s="30">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F23" s="4">
         <v>20</v>
@@ -1529,13 +1485,13 @@
         <v>31</v>
       </c>
       <c r="C24" s="4">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D24" s="28">
-        <v>12000000</v>
+        <v>1048576000</v>
       </c>
       <c r="E24" s="30">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F24" s="4">
         <v>21</v>
@@ -1551,13 +1507,13 @@
         <v>32</v>
       </c>
       <c r="C25" s="4">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D25" s="28">
-        <v>24000000</v>
+        <v>2097152000</v>
       </c>
       <c r="E25" s="30">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F25" s="4">
         <v>22</v>
@@ -1573,13 +1529,13 @@
         <v>17</v>
       </c>
       <c r="C26" s="4">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D26" s="28">
-        <v>48000000</v>
+        <v>4194304000</v>
       </c>
       <c r="E26" s="30">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F26" s="4">
         <v>23</v>
@@ -1595,13 +1551,13 @@
         <v>33</v>
       </c>
       <c r="C27" s="4">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D27" s="28">
-        <v>100000000</v>
+        <v>8388608000</v>
       </c>
       <c r="E27" s="30">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F27" s="4">
         <v>24</v>
@@ -1614,16 +1570,16 @@
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C28" s="4">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D28" s="28">
-        <v>200000000</v>
+        <v>16777216000</v>
       </c>
       <c r="E28" s="30">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F28" s="4">
         <v>25</v>
@@ -1639,13 +1595,13 @@
         <v>34</v>
       </c>
       <c r="C29" s="4">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D29" s="28">
-        <v>400000000</v>
+        <v>33554432000</v>
       </c>
       <c r="E29" s="30">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F29" s="4">
         <v>26</v>
@@ -1661,13 +1617,13 @@
         <v>35</v>
       </c>
       <c r="C30" s="4">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D30" s="28">
-        <v>800000000</v>
+        <v>67108864000</v>
       </c>
       <c r="E30" s="30">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F30" s="4">
         <v>27</v>
@@ -1680,16 +1636,16 @@
         <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C31" s="4">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D31" s="28">
-        <v>1500000000</v>
+        <v>134217728000</v>
       </c>
       <c r="E31" s="30">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F31" s="4">
         <v>28</v>
@@ -1702,16 +1658,16 @@
         <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C32" s="4">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D32" s="28">
-        <v>3000000000</v>
+        <v>268435456000</v>
       </c>
       <c r="E32" s="30">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F32" s="4">
         <v>29</v>
@@ -1727,13 +1683,13 @@
         <v>36</v>
       </c>
       <c r="C33" s="4">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D33" s="28">
-        <v>6000000000</v>
+        <v>536870912000</v>
       </c>
       <c r="E33" s="30">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F33" s="4">
         <v>30</v>
@@ -1749,13 +1705,13 @@
         <v>37</v>
       </c>
       <c r="C34" s="4">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D34" s="28">
-        <v>12000000000</v>
+        <v>1073741824000</v>
       </c>
       <c r="E34" s="30">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F34" s="4">
         <v>31</v>
@@ -1771,13 +1727,13 @@
         <v>40</v>
       </c>
       <c r="C35" s="4">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D35" s="28">
-        <v>24000000000</v>
+        <v>2147483648000</v>
       </c>
       <c r="E35" s="30">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F35" s="4">
         <v>32</v>
@@ -1793,13 +1749,13 @@
         <v>41</v>
       </c>
       <c r="C36" s="4">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D36" s="28">
-        <v>48000000000</v>
+        <v>4294967296000</v>
       </c>
       <c r="E36" s="30">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F36" s="4">
         <v>33</v>
@@ -1815,13 +1771,13 @@
         <v>20</v>
       </c>
       <c r="C37" s="4">
-        <v>37</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="D37" s="28">
+        <v>8589934592000</v>
       </c>
       <c r="E37" s="30">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F37" s="4">
         <v>34</v>
@@ -1837,13 +1793,13 @@
         <v>42</v>
       </c>
       <c r="C38" s="4">
-        <v>38</v>
-      </c>
-      <c r="D38" s="28" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="D38" s="28">
+        <v>17179869184000</v>
       </c>
       <c r="E38" s="30">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F38" s="4">
         <v>35</v>
@@ -1859,13 +1815,13 @@
         <v>21</v>
       </c>
       <c r="C39" s="4">
-        <v>39</v>
-      </c>
-      <c r="D39" s="28" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="D39" s="28">
+        <v>34359738368000</v>
       </c>
       <c r="E39" s="30">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F39" s="4">
         <v>36</v>
@@ -1881,13 +1837,13 @@
         <v>23</v>
       </c>
       <c r="C40" s="4">
-        <v>40</v>
-      </c>
-      <c r="D40" s="28" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="D40" s="28">
+        <v>68719476736000</v>
       </c>
       <c r="E40" s="30">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F40" s="4">
         <v>37</v>
@@ -1903,13 +1859,13 @@
         <v>24</v>
       </c>
       <c r="C41" s="4">
-        <v>41</v>
-      </c>
-      <c r="D41" s="28" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="D41" s="28">
+        <v>137438953472000</v>
       </c>
       <c r="E41" s="30">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F41" s="4">
         <v>38</v>
@@ -1925,13 +1881,13 @@
         <v>22</v>
       </c>
       <c r="C42" s="4">
-        <v>42</v>
-      </c>
-      <c r="D42" s="28" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="D42" s="28">
+        <v>274877906944000</v>
       </c>
       <c r="E42" s="30">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F42" s="4">
         <v>39</v>
@@ -1944,16 +1900,16 @@
         <v>40</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C43" s="4">
-        <v>43</v>
-      </c>
-      <c r="D43" s="28" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="D43" s="28">
+        <v>549755813888000</v>
       </c>
       <c r="E43" s="30">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F43" s="4">
         <v>40</v>
@@ -1966,16 +1922,16 @@
         <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C44" s="4">
-        <v>44</v>
-      </c>
-      <c r="D44" s="28" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="D44" s="28">
+        <v>1099511627776000</v>
       </c>
       <c r="E44" s="30">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F44" s="4">
         <v>41</v>
@@ -1988,16 +1944,16 @@
         <v>42</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C45" s="4">
-        <v>45</v>
-      </c>
-      <c r="D45" s="28" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="D45" s="28">
+        <v>2199023255552000</v>
       </c>
       <c r="E45" s="30">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F45" s="4">
         <v>42</v>
@@ -2013,13 +1969,13 @@
         <v>18</v>
       </c>
       <c r="C46" s="4">
-        <v>46</v>
-      </c>
-      <c r="D46" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="D46" s="28">
+        <v>4398046511104000</v>
       </c>
       <c r="E46" s="30">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F46" s="4">
         <v>43</v>
@@ -2032,16 +1988,16 @@
         <v>44</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C47" s="4">
-        <v>47</v>
-      </c>
-      <c r="D47" s="28" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="D47" s="28">
+        <v>8796093022208000</v>
       </c>
       <c r="E47" s="30">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F47" s="4">
         <v>44</v>
@@ -2057,13 +2013,13 @@
         <v>38</v>
       </c>
       <c r="C48" s="4">
-        <v>48</v>
-      </c>
-      <c r="D48" s="28" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="D48" s="28">
+        <v>1.7592186044416E+16</v>
       </c>
       <c r="E48" s="30">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F48" s="4">
         <v>45</v>
@@ -2079,13 +2035,13 @@
         <v>39</v>
       </c>
       <c r="C49" s="4">
-        <v>49</v>
-      </c>
-      <c r="D49" s="28" t="s">
-        <v>53</v>
+        <v>56</v>
+      </c>
+      <c r="D49" s="28">
+        <v>3.5184372088832E+16</v>
       </c>
       <c r="E49" s="30">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F49" s="4">
         <v>46</v>
@@ -2098,16 +2054,16 @@
         <v>47</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C50" s="4">
-        <v>50</v>
-      </c>
-      <c r="D50" s="28" t="s">
-        <v>53</v>
+        <v>57</v>
+      </c>
+      <c r="D50" s="28">
+        <v>7.0368744177664E+16</v>
       </c>
       <c r="E50" s="30">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F50" s="4">
         <v>47</v>
@@ -2123,13 +2079,13 @@
         <v>19</v>
       </c>
       <c r="C51" s="4">
-        <v>51</v>
-      </c>
-      <c r="D51" s="28" t="s">
-        <v>53</v>
+        <v>58</v>
+      </c>
+      <c r="D51" s="28">
+        <v>1.40737488355328E+17</v>
       </c>
       <c r="E51" s="30">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F51" s="4">
         <v>48</v>
@@ -2142,16 +2098,16 @@
         <v>49</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C52" s="4">
-        <v>52</v>
-      </c>
-      <c r="D52" s="28" t="s">
-        <v>53</v>
+        <v>59</v>
+      </c>
+      <c r="D52" s="28">
+        <v>2.81474976710656E+17</v>
       </c>
       <c r="E52" s="30">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F52" s="4">
         <v>49</v>
@@ -2164,16 +2120,16 @@
         <v>50</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C53" s="4">
-        <v>53</v>
-      </c>
-      <c r="D53" s="28" t="s">
-        <v>53</v>
+        <v>60</v>
+      </c>
+      <c r="D53" s="28">
+        <v>5.62949953421312E+17</v>
       </c>
       <c r="E53" s="30">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F53" s="4">
         <v>50</v>
